--- a/시장분석용_정보/시장분석용_1117069000.xlsx
+++ b/시장분석용_정보/시장분석용_1117069000.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="65">
-  <si>
-    <t>중첩매칭</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="96">
+  <si>
+    <t>중복체크</t>
+  </si>
+  <si>
+    <t>sim_cd</t>
+  </si>
+  <si>
+    <t>place</t>
   </si>
   <si>
     <t>TA_YM</t>
@@ -25,19 +31,16 @@
     <t>year</t>
   </si>
   <si>
-    <t>MCT_NO</t>
-  </si>
-  <si>
     <t>MCT_BRN</t>
   </si>
   <si>
     <t>MCT_NM</t>
   </si>
   <si>
-    <t>GDS_AF_MCT_AR2</t>
-  </si>
-  <si>
-    <t>sim_cd</t>
+    <t>address</t>
+  </si>
+  <si>
+    <t>hdong_code</t>
   </si>
   <si>
     <t>area</t>
@@ -46,9 +49,6 @@
     <t>hos_type</t>
   </si>
   <si>
-    <t>hdong_code</t>
-  </si>
-  <si>
     <t>EST_HGA</t>
   </si>
   <si>
@@ -58,6 +58,54 @@
     <t>AVG_AMT</t>
   </si>
   <si>
+    <t>WK_RT</t>
+  </si>
+  <si>
+    <t>WE_RT</t>
+  </si>
+  <si>
+    <t>WK_1_RT</t>
+  </si>
+  <si>
+    <t>WK_2_RT</t>
+  </si>
+  <si>
+    <t>WK_3_RT</t>
+  </si>
+  <si>
+    <t>WK_4_RT</t>
+  </si>
+  <si>
+    <t>WK_5_RT</t>
+  </si>
+  <si>
+    <t>WK_6_RT</t>
+  </si>
+  <si>
+    <t>WK_7_RT</t>
+  </si>
+  <si>
+    <t>TIME_0510_RT</t>
+  </si>
+  <si>
+    <t>TIME_1114_RT</t>
+  </si>
+  <si>
+    <t>TIME_1517_RT</t>
+  </si>
+  <si>
+    <t>TIME_1819_RT</t>
+  </si>
+  <si>
+    <t>TIME_2021_RT</t>
+  </si>
+  <si>
+    <t>TIME_2224_RT</t>
+  </si>
+  <si>
+    <t>TIME_0104_RT</t>
+  </si>
+  <si>
     <t>F20_RT</t>
   </si>
   <si>
@@ -112,6 +160,48 @@
     <t>IC_1099_RT</t>
   </si>
   <si>
+    <t>LIFE_01_RT</t>
+  </si>
+  <si>
+    <t>LIFE_02_RT</t>
+  </si>
+  <si>
+    <t>LIFE_03_RT</t>
+  </si>
+  <si>
+    <t>LIFE_04_RT</t>
+  </si>
+  <si>
+    <t>LIFE_05_RT</t>
+  </si>
+  <si>
+    <t>LIFE_06_RT</t>
+  </si>
+  <si>
+    <t>FTJB_HUWF_RT</t>
+  </si>
+  <si>
+    <t>STUD_RT</t>
+  </si>
+  <si>
+    <t>SCTY_EAR_H_RT</t>
+  </si>
+  <si>
+    <t>GDS_01_RT</t>
+  </si>
+  <si>
+    <t>GDS_02_RT</t>
+  </si>
+  <si>
+    <t>GDS_03_RT</t>
+  </si>
+  <si>
+    <t>REVISIT_RT</t>
+  </si>
+  <si>
+    <t>FREQ_RT</t>
+  </si>
+  <si>
     <t>202001 1069094068</t>
   </si>
   <si>
@@ -199,13 +289,16 @@
     <t>202205 1069094068</t>
   </si>
   <si>
+    <t>JDQ4MTg4MSM1MSMkMiMkNCMkMDAkNDgxMTkxIzUxIyQxIyQxIyQxMyQzNjEwMDIjNjEjJDEjJDAjJDgz</t>
+  </si>
+  <si>
+    <t>서울특별시</t>
+  </si>
+  <si>
     <t>초이스내과신경과의원</t>
   </si>
   <si>
-    <t>서울특별시 용산구 이촌로 352, 207 (용산동6가)</t>
-  </si>
-  <si>
-    <t>JDQ4MTg4MSM1MSMkMiMkNCMkMDAkNDgxMTkxIzUxIyQxIyQxIyQxMyQzNjEwMDIjNjEjJDEjJDAjJDgz</t>
+    <t>서울특별시 용산구 이촌로 352 (용산동6가)</t>
   </si>
   <si>
     <t>내과, 신경과</t>
@@ -566,13 +659,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG30"/>
+  <dimension ref="A1:BK30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:63">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -669,43 +762,133 @@
       <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:63">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2">
         <v>202001</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>2020</v>
       </c>
-      <c r="E2">
-        <v>82511163</v>
-      </c>
-      <c r="F2">
+      <c r="G2">
         <v>1069094068</v>
       </c>
-      <c r="G2" t="s">
-        <v>61</v>
-      </c>
       <c r="H2" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I2" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="J2">
+        <v>1117069000</v>
+      </c>
+      <c r="K2">
         <v>41.8939393939394</v>
       </c>
-      <c r="K2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L2">
-        <v>1117069000</v>
+      <c r="L2" t="s">
+        <v>95</v>
       </c>
       <c r="M2">
         <v>41289332</v>
@@ -717,96 +900,186 @@
         <v>39323.17333333333</v>
       </c>
       <c r="P2">
+        <v>87.69653298895705</v>
+      </c>
+      <c r="Q2">
+        <v>12.30346701104295</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>17.7659073193531</v>
+      </c>
+      <c r="T2">
+        <v>15.42189893772077</v>
+      </c>
+      <c r="U2">
+        <v>21.4116582213052</v>
+      </c>
+      <c r="V2">
+        <v>18.8765310393009</v>
+      </c>
+      <c r="W2">
+        <v>14.22053747127708</v>
+      </c>
+      <c r="X2">
+        <v>12.30346701104295</v>
+      </c>
+      <c r="Y2">
+        <v>29.41699444253542</v>
+      </c>
+      <c r="Z2">
+        <v>52.03300555746458</v>
+      </c>
+      <c r="AA2">
+        <v>18.55</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
         <v>3.261046681985555</v>
       </c>
-      <c r="Q2">
+      <c r="AG2">
         <v>2.59698811087571</v>
       </c>
-      <c r="R2">
+      <c r="AH2">
         <v>8.934399183789168</v>
       </c>
-      <c r="S2">
+      <c r="AI2">
         <v>9.386968131622957</v>
       </c>
-      <c r="T2">
+      <c r="AJ2">
         <v>28.3934251028813</v>
       </c>
-      <c r="U2">
+      <c r="AK2">
         <v>1.332386219520335</v>
       </c>
-      <c r="V2">
+      <c r="AL2">
         <v>5.716861903699484</v>
       </c>
-      <c r="W2">
+      <c r="AM2">
         <v>6.451672351589509</v>
       </c>
-      <c r="X2">
+      <c r="AN2">
         <v>8.196948152370204</v>
       </c>
-      <c r="Y2">
+      <c r="AO2">
         <v>25.72092437412163</v>
       </c>
-      <c r="Z2">
+      <c r="AP2">
         <v>0.4860276775608769</v>
       </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
         <v>7.146306402825796</v>
       </c>
-      <c r="AD2">
+      <c r="AT2">
         <v>32.55039470146914</v>
       </c>
-      <c r="AE2">
+      <c r="AU2">
         <v>33.55218789395769</v>
       </c>
-      <c r="AF2">
+      <c r="AV2">
         <v>7.774214988510833</v>
       </c>
-      <c r="AG2">
+      <c r="AW2">
         <v>18.49248854813151</v>
       </c>
+      <c r="AX2">
+        <v>10.96916772351754</v>
+      </c>
+      <c r="AY2">
+        <v>3.636827794162424</v>
+      </c>
+      <c r="AZ2">
+        <v>6.722339929355117</v>
+      </c>
+      <c r="BA2">
+        <v>21.38522561130318</v>
+      </c>
+      <c r="BB2">
+        <v>21.57353717977322</v>
+      </c>
+      <c r="BC2">
+        <v>35.71290176188852</v>
+      </c>
+      <c r="BD2">
+        <v>11.43355131005752</v>
+      </c>
+      <c r="BE2">
+        <v>2.762109443911565</v>
+      </c>
+      <c r="BF2">
+        <v>4.478816879866209</v>
+      </c>
+      <c r="BG2">
+        <v>36.58411899155937</v>
+      </c>
+      <c r="BH2">
+        <v>72.07560471552313</v>
+      </c>
+      <c r="BI2">
+        <v>90.97864048321247</v>
+      </c>
+      <c r="BJ2">
+        <v>35.67020270756621</v>
+      </c>
+      <c r="BK2">
+        <v>33.29598966871152</v>
+      </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:63">
       <c r="A3" s="1">
-        <v>12398</v>
+        <v>13495</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3">
         <v>202002</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>2020</v>
       </c>
-      <c r="E3">
-        <v>82511163</v>
-      </c>
-      <c r="F3">
+      <c r="G3">
         <v>1069094068</v>
       </c>
-      <c r="G3" t="s">
-        <v>61</v>
-      </c>
       <c r="H3" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I3" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="J3">
+        <v>1117069000</v>
+      </c>
+      <c r="K3">
         <v>41.8939393939394</v>
       </c>
-      <c r="K3" t="s">
-        <v>64</v>
-      </c>
-      <c r="L3">
-        <v>1117069000</v>
+      <c r="L3" t="s">
+        <v>95</v>
       </c>
       <c r="M3">
         <v>28040004</v>
@@ -818,96 +1091,186 @@
         <v>40000.00570613409</v>
       </c>
       <c r="P3">
+        <v>83.19777940010279</v>
+      </c>
+      <c r="Q3">
+        <v>16.8022205998972</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>15.23156330291536</v>
+      </c>
+      <c r="T3">
+        <v>15.43353519386089</v>
+      </c>
+      <c r="U3">
+        <v>9.914832902662923</v>
+      </c>
+      <c r="V3">
+        <v>14.13627009682309</v>
+      </c>
+      <c r="W3">
+        <v>28.47817779127278</v>
+      </c>
+      <c r="X3">
+        <v>16.8022205998972</v>
+      </c>
+      <c r="Y3">
+        <v>18.30317726131565</v>
+      </c>
+      <c r="Z3">
+        <v>43.37747669151545</v>
+      </c>
+      <c r="AA3">
+        <v>36.99936856071775</v>
+      </c>
+      <c r="AB3">
+        <v>1.319977486451143</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
         <v>3.700211594477662</v>
       </c>
-      <c r="Q3">
+      <c r="AG3">
         <v>1.982169944412276</v>
       </c>
-      <c r="R3">
+      <c r="AH3">
         <v>6.192042775742827</v>
       </c>
-      <c r="S3">
+      <c r="AI3">
         <v>9.055313435404646</v>
       </c>
-      <c r="T3">
+      <c r="AJ3">
         <v>26.82221497150999</v>
       </c>
-      <c r="U3">
+      <c r="AK3">
         <v>2.043467653214314</v>
       </c>
-      <c r="V3">
+      <c r="AL3">
         <v>9.457175042842362</v>
       </c>
-      <c r="W3">
+      <c r="AM3">
         <v>5.032169944412276</v>
       </c>
-      <c r="X3">
+      <c r="AN3">
         <v>5.234474970117694</v>
       </c>
-      <c r="Y3">
+      <c r="AO3">
         <v>30.47075966786595</v>
       </c>
-      <c r="Z3">
+      <c r="AP3">
         <v>0.05700056283872142</v>
       </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
         <v>11.8812808236404</v>
       </c>
-      <c r="AD3">
+      <c r="AT3">
         <v>24.64678562421032</v>
       </c>
-      <c r="AE3">
+      <c r="AU3">
         <v>32.51583565109334</v>
       </c>
-      <c r="AF3">
+      <c r="AV3">
         <v>20.13554754343117</v>
       </c>
-      <c r="AG3">
+      <c r="AW3">
         <v>10.76035001992154</v>
       </c>
+      <c r="AX3">
+        <v>14.87335736970651</v>
+      </c>
+      <c r="AY3">
+        <v>1.843572308334906</v>
+      </c>
+      <c r="AZ3">
+        <v>8.690324162221946</v>
+      </c>
+      <c r="BA3">
+        <v>15.14961620975518</v>
+      </c>
+      <c r="BB3">
+        <v>12.05869103442353</v>
+      </c>
+      <c r="BC3">
+        <v>47.38443891555792</v>
+      </c>
+      <c r="BD3">
+        <v>6.659286419146017</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>5.017858197523795</v>
+      </c>
+      <c r="BG3">
+        <v>17.8133044299851</v>
+      </c>
+      <c r="BH3">
+        <v>51.39179741094188</v>
+      </c>
+      <c r="BI3">
+        <v>85.13666179969161</v>
+      </c>
+      <c r="BJ3">
+        <v>36.1416769305739</v>
+      </c>
+      <c r="BK3">
+        <v>26.01396735535416</v>
+      </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:63">
       <c r="A4" s="1">
-        <v>24789</v>
+        <v>26980</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4">
         <v>202003</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>2020</v>
       </c>
-      <c r="E4">
-        <v>82511163</v>
-      </c>
-      <c r="F4">
+      <c r="G4">
         <v>1069094068</v>
       </c>
-      <c r="G4" t="s">
-        <v>61</v>
-      </c>
       <c r="H4" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="J4">
+        <v>1117069000</v>
+      </c>
+      <c r="K4">
         <v>41.8939393939394</v>
       </c>
-      <c r="K4" t="s">
-        <v>64</v>
-      </c>
-      <c r="L4">
-        <v>1117069000</v>
+      <c r="L4" t="s">
+        <v>95</v>
       </c>
       <c r="M4">
         <v>25111438</v>
@@ -919,96 +1282,186 @@
         <v>39607.94637223975</v>
       </c>
       <c r="P4">
+        <v>84.95550104378729</v>
+      </c>
+      <c r="Q4">
+        <v>15.0444989562127</v>
+      </c>
+      <c r="R4">
+        <v>2.36745069079676</v>
+      </c>
+      <c r="S4">
+        <v>10.87605583399883</v>
+      </c>
+      <c r="T4">
+        <v>12.51375658534569</v>
+      </c>
+      <c r="U4">
+        <v>13.57680345904524</v>
+      </c>
+      <c r="V4">
+        <v>21.64002555966728</v>
+      </c>
+      <c r="W4">
+        <v>26.35139130702113</v>
+      </c>
+      <c r="X4">
+        <v>12.67704826541594</v>
+      </c>
+      <c r="Y4">
+        <v>30.63460020170888</v>
+      </c>
+      <c r="Z4">
+        <v>42.04546582796254</v>
+      </c>
+      <c r="AA4">
+        <v>27.31740226903772</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
         <v>0.1867074677284511</v>
       </c>
-      <c r="Q4">
+      <c r="AG4">
         <v>2.343908950176409</v>
       </c>
-      <c r="R4">
+      <c r="AH4">
         <v>9.675181403788983</v>
       </c>
-      <c r="S4">
+      <c r="AI4">
         <v>12.10338057183344</v>
       </c>
-      <c r="T4">
+      <c r="AJ4">
         <v>48.66506695235853</v>
       </c>
-      <c r="U4">
+      <c r="AK4">
         <v>0.09708788321879457</v>
       </c>
-      <c r="V4">
+      <c r="AL4">
         <v>1.58530820895243</v>
       </c>
-      <c r="W4">
+      <c r="AM4">
         <v>8.976969882011536</v>
       </c>
-      <c r="X4">
+      <c r="AN4">
         <v>3.547441886840571</v>
       </c>
-      <c r="Y4">
+      <c r="AO4">
         <v>12.82894679309086</v>
       </c>
-      <c r="Z4">
+      <c r="AP4">
         <v>0.08215128580051848</v>
       </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
         <v>7.902479729755023</v>
       </c>
-      <c r="AD4">
+      <c r="AT4">
         <v>29.82965039835632</v>
       </c>
-      <c r="AE4">
+      <c r="AU4">
         <v>42.59269201787647</v>
       </c>
-      <c r="AF4">
+      <c r="AV4">
         <v>5.166541896963447</v>
       </c>
-      <c r="AG4">
+      <c r="AW4">
         <v>14.42648467124822</v>
       </c>
+      <c r="AX4">
+        <v>6.651679280971484</v>
+      </c>
+      <c r="AY4">
+        <v>1.402903312825016</v>
+      </c>
+      <c r="AZ4">
+        <v>3.203664143805703</v>
+      </c>
+      <c r="BA4">
+        <v>20.44656745663072</v>
+      </c>
+      <c r="BB4">
+        <v>11.95536103268956</v>
+      </c>
+      <c r="BC4">
+        <v>56.33235647436837</v>
+      </c>
+      <c r="BD4">
+        <v>11.18539979829112</v>
+      </c>
+      <c r="BE4">
+        <v>0.2837953509472457</v>
+      </c>
+      <c r="BF4">
+        <v>1.560874430209851</v>
+      </c>
+      <c r="BG4">
+        <v>17.26414055061283</v>
+      </c>
+      <c r="BH4">
+        <v>43.91359541655878</v>
+      </c>
+      <c r="BI4">
+        <v>96.53870553649695</v>
+      </c>
+      <c r="BJ4">
+        <v>31.59606378575372</v>
+      </c>
+      <c r="BK4">
+        <v>25.91386052841737</v>
+      </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:63">
       <c r="A5" s="1">
-        <v>37166</v>
+        <v>40435</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5">
         <v>202004</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>2020</v>
       </c>
-      <c r="E5">
-        <v>82511163</v>
-      </c>
-      <c r="F5">
+      <c r="G5">
         <v>1069094068</v>
       </c>
-      <c r="G5" t="s">
-        <v>61</v>
-      </c>
       <c r="H5" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I5" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="J5">
+        <v>1117069000</v>
+      </c>
+      <c r="K5">
         <v>41.8939393939394</v>
       </c>
-      <c r="K5" t="s">
-        <v>64</v>
-      </c>
-      <c r="L5">
-        <v>1117069000</v>
+      <c r="L5" t="s">
+        <v>95</v>
       </c>
       <c r="M5">
         <v>26791668</v>
@@ -1020,96 +1473,186 @@
         <v>42661.89171974522</v>
       </c>
       <c r="P5">
+        <v>90.05366396037752</v>
+      </c>
+      <c r="Q5">
+        <v>9.946336039622466</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>12.67217047591064</v>
+      </c>
+      <c r="T5">
+        <v>12.1243290645435</v>
+      </c>
+      <c r="U5">
+        <v>13.04242694034578</v>
+      </c>
+      <c r="V5">
+        <v>16.42129544528545</v>
+      </c>
+      <c r="W5">
+        <v>35.78757272260914</v>
+      </c>
+      <c r="X5">
+        <v>9.946336039622466</v>
+      </c>
+      <c r="Y5">
+        <v>32.80982472423889</v>
+      </c>
+      <c r="Z5">
+        <v>31.0286346915765</v>
+      </c>
+      <c r="AA5">
+        <v>36.16154058418461</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
         <v>2.94639446487617</v>
       </c>
-      <c r="Q5">
+      <c r="AG5">
         <v>9.410606678912266</v>
       </c>
-      <c r="R5">
+      <c r="AH5">
         <v>10.2947259293449</v>
       </c>
-      <c r="S5">
+      <c r="AI5">
         <v>4.328424765117274</v>
       </c>
-      <c r="T5">
+      <c r="AJ5">
         <v>36.50263709150173</v>
       </c>
-      <c r="U5">
+      <c r="AK5">
         <v>1.193768923607145</v>
       </c>
-      <c r="V5">
+      <c r="AL5">
         <v>3.548447977931049</v>
       </c>
-      <c r="W5">
+      <c r="AM5">
         <v>6.898179626218122</v>
       </c>
-      <c r="X5">
+      <c r="AN5">
         <v>5.894095700573776</v>
       </c>
-      <c r="Y5">
+      <c r="AO5">
         <v>18.98684953023455</v>
       </c>
-      <c r="Z5">
+      <c r="AP5">
         <v>0.1947841299018785</v>
       </c>
-      <c r="AA5">
+      <c r="AQ5">
         <v>3.368984906053628</v>
       </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
         <v>5.187619485281767</v>
       </c>
-      <c r="AD5">
+      <c r="AT5">
         <v>34.93900811886741</v>
       </c>
-      <c r="AE5">
+      <c r="AU5">
         <v>34.48584598652088</v>
       </c>
-      <c r="AF5">
+      <c r="AV5">
         <v>8.434235763894954</v>
       </c>
-      <c r="AG5">
+      <c r="AW5">
         <v>13.39365229779647</v>
       </c>
+      <c r="AX5">
+        <v>15.89920638274556</v>
+      </c>
+      <c r="AY5">
+        <v>3.546266064136059</v>
+      </c>
+      <c r="AZ5">
+        <v>5.010524928496427</v>
+      </c>
+      <c r="BA5">
+        <v>14.08094534315668</v>
+      </c>
+      <c r="BB5">
+        <v>10.2164177900383</v>
+      </c>
+      <c r="BC5">
+        <v>51.24663949142695</v>
+      </c>
+      <c r="BD5">
+        <v>8.072707291684862</v>
+      </c>
+      <c r="BE5">
+        <v>1.968413102536206</v>
+      </c>
+      <c r="BF5">
+        <v>5.03212360088965</v>
+      </c>
+      <c r="BG5">
+        <v>25.24892670549665</v>
+      </c>
+      <c r="BH5">
+        <v>68.28479590483131</v>
+      </c>
+      <c r="BI5">
+        <v>90.095694372967</v>
+      </c>
+      <c r="BJ5">
+        <v>30.58004687502099</v>
+      </c>
+      <c r="BK5">
+        <v>14.20408415034107</v>
+      </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:63">
       <c r="A6" s="1">
-        <v>49587</v>
+        <v>53916</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6">
         <v>202005</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>2020</v>
       </c>
-      <c r="E6">
-        <v>82511163</v>
-      </c>
-      <c r="F6">
+      <c r="G6">
         <v>1069094068</v>
       </c>
-      <c r="G6" t="s">
-        <v>61</v>
-      </c>
       <c r="H6" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I6" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="J6">
+        <v>1117069000</v>
+      </c>
+      <c r="K6">
         <v>41.8939393939394</v>
       </c>
-      <c r="K6" t="s">
-        <v>64</v>
-      </c>
-      <c r="L6">
-        <v>1117069000</v>
+      <c r="L6" t="s">
+        <v>95</v>
       </c>
       <c r="M6">
         <v>23875542</v>
@@ -1121,96 +1664,186 @@
         <v>35582.02980625931</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>86.61740745906418</v>
       </c>
       <c r="Q6">
+        <v>13.38259254093582</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>25.86771081217758</v>
+      </c>
+      <c r="T6">
+        <v>13.21602745688454</v>
+      </c>
+      <c r="U6">
+        <v>11.31174057116693</v>
+      </c>
+      <c r="V6">
+        <v>17.82347242127529</v>
+      </c>
+      <c r="W6">
+        <v>20.10142622856478</v>
+      </c>
+      <c r="X6">
+        <v>11.67962250993087</v>
+      </c>
+      <c r="Y6">
+        <v>33.2426108567504</v>
+      </c>
+      <c r="Z6">
+        <v>45.04691693198002</v>
+      </c>
+      <c r="AA6">
+        <v>21.71047221126959</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
         <v>4.322389840615974</v>
       </c>
-      <c r="R6">
+      <c r="AH6">
         <v>11.56543627700682</v>
       </c>
-      <c r="S6">
+      <c r="AI6">
         <v>21.68657607354003</v>
       </c>
-      <c r="T6">
+      <c r="AJ6">
         <v>22.76462547572742</v>
       </c>
-      <c r="U6">
+      <c r="AK6">
         <v>0.1922187140296124</v>
       </c>
-      <c r="V6">
+      <c r="AL6">
         <v>0.8948112549654372</v>
       </c>
-      <c r="W6">
+      <c r="AM6">
         <v>8.646324878404856</v>
       </c>
-      <c r="X6">
+      <c r="AN6">
         <v>9.757544743486871</v>
       </c>
-      <c r="Y6">
+      <c r="AO6">
         <v>20.16344451070472</v>
       </c>
-      <c r="Z6">
+      <c r="AP6">
         <v>0.1855904825113499</v>
       </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
         <v>12.55543994016974</v>
       </c>
-      <c r="AD6">
+      <c r="AT6">
         <v>39.63619492030799</v>
       </c>
-      <c r="AE6">
+      <c r="AU6">
         <v>24.2138718903219</v>
       </c>
-      <c r="AF6">
+      <c r="AV6">
         <v>8.632058576931993</v>
       </c>
-      <c r="AG6">
+      <c r="AW6">
         <v>14.77021595823877</v>
       </c>
+      <c r="AX6">
+        <v>7.85308167328725</v>
+      </c>
+      <c r="AY6">
+        <v>3.086464431257729</v>
+      </c>
+      <c r="AZ6">
+        <v>3.599129714416535</v>
+      </c>
+      <c r="BA6">
+        <v>37.20694030569024</v>
+      </c>
+      <c r="BB6">
+        <v>8.188651571553853</v>
+      </c>
+      <c r="BC6">
+        <v>40.06573230379441</v>
+      </c>
+      <c r="BD6">
+        <v>9.161952866242785</v>
+      </c>
+      <c r="BE6">
+        <v>0.1922187140296124</v>
+      </c>
+      <c r="BF6">
+        <v>0.9407234064047636</v>
+      </c>
+      <c r="BG6">
+        <v>28.9963161573463</v>
+      </c>
+      <c r="BH6">
+        <v>68.85799131261606</v>
+      </c>
+      <c r="BI6">
+        <v>86.76780919654097</v>
+      </c>
+      <c r="BJ6">
+        <v>30.01928618835124</v>
+      </c>
+      <c r="BK6">
+        <v>22.22735756951612</v>
+      </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:63">
       <c r="A7" s="1">
-        <v>62075</v>
+        <v>67502</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7">
         <v>202006</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>2020</v>
       </c>
-      <c r="E7">
-        <v>82511163</v>
-      </c>
-      <c r="F7">
+      <c r="G7">
         <v>1069094068</v>
       </c>
-      <c r="G7" t="s">
-        <v>61</v>
-      </c>
       <c r="H7" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I7" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="J7">
+        <v>1117069000</v>
+      </c>
+      <c r="K7">
         <v>41.8939393939394</v>
       </c>
-      <c r="K7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L7">
-        <v>1117069000</v>
+      <c r="L7" t="s">
+        <v>95</v>
       </c>
       <c r="M7">
         <v>29072138</v>
@@ -1222,96 +1855,186 @@
         <v>34858.67865707434</v>
       </c>
       <c r="P7">
+        <v>92.00005074824563</v>
+      </c>
+      <c r="Q7">
+        <v>7.999949251754377</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>33.42444191342239</v>
+      </c>
+      <c r="T7">
+        <v>18.09130013554558</v>
+      </c>
+      <c r="U7">
+        <v>18.41206337765733</v>
+      </c>
+      <c r="V7">
+        <v>9.593856290170333</v>
+      </c>
+      <c r="W7">
+        <v>12.47838903144998</v>
+      </c>
+      <c r="X7">
+        <v>7.999949251754377</v>
+      </c>
+      <c r="Y7">
+        <v>29.8179893890157</v>
+      </c>
+      <c r="Z7">
+        <v>38.26396845529558</v>
+      </c>
+      <c r="AA7">
+        <v>31.92804215568872</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
         <v>3.676684928366809</v>
       </c>
-      <c r="Q7">
+      <c r="AG7">
         <v>5.259465124993558</v>
       </c>
-      <c r="R7">
+      <c r="AH7">
         <v>2.387517949316284</v>
       </c>
-      <c r="S7">
+      <c r="AI7">
         <v>5.379205040234742</v>
       </c>
-      <c r="T7">
+      <c r="AJ7">
         <v>37.15454773501694</v>
       </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
         <v>3.675232548084355</v>
       </c>
-      <c r="W7">
+      <c r="AM7">
         <v>4.971610968550025</v>
       </c>
-      <c r="X7">
+      <c r="AN7">
         <v>5.453190219446536</v>
       </c>
-      <c r="Y7">
+      <c r="AO7">
         <v>32.03842709263419</v>
       </c>
-      <c r="Z7">
+      <c r="AP7">
         <v>1.736562382856053</v>
       </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
         <v>9.451803292898514</v>
       </c>
-      <c r="AD7">
+      <c r="AT7">
         <v>36.13352440814639</v>
       </c>
-      <c r="AE7">
+      <c r="AU7">
         <v>29.3462198321981</v>
       </c>
-      <c r="AF7">
+      <c r="AV7">
         <v>10.14598944666539</v>
       </c>
-      <c r="AG7">
+      <c r="AW7">
         <v>13.171782243879</v>
       </c>
+      <c r="AX7">
+        <v>10.22558346070041</v>
+      </c>
+      <c r="AY7">
+        <v>1.898923906456415</v>
+      </c>
+      <c r="AZ7">
+        <v>3.724105706295148</v>
+      </c>
+      <c r="BA7">
+        <v>11.34951789166658</v>
+      </c>
+      <c r="BB7">
+        <v>13.68942706380934</v>
+      </c>
+      <c r="BC7">
+        <v>59.11244197107209</v>
+      </c>
+      <c r="BD7">
+        <v>4.739649087383942</v>
+      </c>
+      <c r="BE7">
+        <v>2.897372048110118</v>
+      </c>
+      <c r="BF7">
+        <v>1.743323433591296</v>
+      </c>
+      <c r="BG7">
+        <v>34.58368299641396</v>
+      </c>
+      <c r="BH7">
+        <v>76.28946512499355</v>
+      </c>
+      <c r="BI7">
+        <v>97.16849687147192</v>
+      </c>
+      <c r="BJ7">
+        <v>24.53615236003627</v>
+      </c>
+      <c r="BK7">
+        <v>20.79433407340045</v>
+      </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:63">
       <c r="A8" s="1">
-        <v>74594</v>
+        <v>81107</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8">
+        <v>68</v>
+      </c>
+      <c r="C8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8">
         <v>202007</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>2020</v>
       </c>
-      <c r="E8">
-        <v>82511163</v>
-      </c>
-      <c r="F8">
+      <c r="G8">
         <v>1069094068</v>
       </c>
-      <c r="G8" t="s">
-        <v>61</v>
-      </c>
       <c r="H8" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I8" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="J8">
+        <v>1117069000</v>
+      </c>
+      <c r="K8">
         <v>41.8939393939394</v>
       </c>
-      <c r="K8" t="s">
-        <v>64</v>
-      </c>
-      <c r="L8">
-        <v>1117069000</v>
+      <c r="L8" t="s">
+        <v>95</v>
       </c>
       <c r="M8">
         <v>37211200</v>
@@ -1323,96 +2046,186 @@
         <v>42919.49250288351</v>
       </c>
       <c r="P8">
+        <v>89.68240934181107</v>
+      </c>
+      <c r="Q8">
+        <v>10.31759065818893</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>24.38522667342091</v>
+      </c>
+      <c r="T8">
+        <v>13.0843788569033</v>
+      </c>
+      <c r="U8">
+        <v>16.87985150223589</v>
+      </c>
+      <c r="V8">
+        <v>17.00472796953605</v>
+      </c>
+      <c r="W8">
+        <v>18.32179397708217</v>
+      </c>
+      <c r="X8">
+        <v>10.31759065818893</v>
+      </c>
+      <c r="Y8">
+        <v>20.57573780394075</v>
+      </c>
+      <c r="Z8">
+        <v>38.06952833636109</v>
+      </c>
+      <c r="AA8">
+        <v>41.35473385969816</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
         <v>2.962799014812745</v>
       </c>
-      <c r="Q8">
+      <c r="AG8">
         <v>5.886813275572946</v>
       </c>
-      <c r="R8">
+      <c r="AH8">
         <v>8.986872152738961</v>
       </c>
-      <c r="S8">
+      <c r="AI8">
         <v>11.13964892397988</v>
       </c>
-      <c r="T8">
+      <c r="AJ8">
         <v>30.84660590064281</v>
       </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
         <v>1.328174185997764</v>
       </c>
-      <c r="W8">
+      <c r="AM8">
         <v>8.378958328675239</v>
       </c>
-      <c r="X8">
+      <c r="AN8">
         <v>4.075495758803801</v>
       </c>
-      <c r="Y8">
+      <c r="AO8">
         <v>26.40106282140861</v>
       </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
         <v>3.999988443264393</v>
       </c>
-      <c r="AD8">
+      <c r="AT8">
         <v>34.81648247973728</v>
       </c>
-      <c r="AE8">
+      <c r="AU8">
         <v>34.31293115916713</v>
       </c>
-      <c r="AF8">
+      <c r="AV8">
         <v>9.914616105366127</v>
       </c>
-      <c r="AG8">
+      <c r="AW8">
         <v>16.95241217509782</v>
       </c>
+      <c r="AX8">
+        <v>11.52151333496367</v>
+      </c>
+      <c r="AY8">
+        <v>3.478807867523757</v>
+      </c>
+      <c r="AZ8">
+        <v>0.5436699448015651</v>
+      </c>
+      <c r="BA8">
+        <v>24.46428051285635</v>
+      </c>
+      <c r="BB8">
+        <v>14.00071370877585</v>
+      </c>
+      <c r="BC8">
+        <v>45.99744499371157</v>
+      </c>
+      <c r="BD8">
+        <v>13.13599925936277</v>
+      </c>
+      <c r="BE8">
+        <v>1.599197540525433</v>
+      </c>
+      <c r="BF8">
+        <v>3.264944067915036</v>
+      </c>
+      <c r="BG8">
+        <v>23.48777578954723</v>
+      </c>
+      <c r="BH8">
+        <v>68.90910202976522</v>
+      </c>
+      <c r="BI8">
+        <v>86.5327536577697</v>
+      </c>
+      <c r="BJ8">
+        <v>32.45363614449413</v>
+      </c>
+      <c r="BK8">
+        <v>29.66355132057015</v>
+      </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:63">
       <c r="A9" s="1">
-        <v>87131</v>
+        <v>94721</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9">
         <v>202008</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>2020</v>
       </c>
-      <c r="E9">
-        <v>82511163</v>
-      </c>
-      <c r="F9">
+      <c r="G9">
         <v>1069094068</v>
       </c>
-      <c r="G9" t="s">
-        <v>61</v>
-      </c>
       <c r="H9" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I9" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="J9">
+        <v>1117069000</v>
+      </c>
+      <c r="K9">
         <v>41.8939393939394</v>
       </c>
-      <c r="K9" t="s">
-        <v>64</v>
-      </c>
-      <c r="L9">
-        <v>1117069000</v>
+      <c r="L9" t="s">
+        <v>95</v>
       </c>
       <c r="M9">
         <v>28707196</v>
@@ -1424,96 +2237,186 @@
         <v>41665.01596516691</v>
       </c>
       <c r="P9">
+        <v>82.56015792277309</v>
+      </c>
+      <c r="Q9">
+        <v>17.43984207722691</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>26.84084739868011</v>
+      </c>
+      <c r="T9">
+        <v>14.62847586228902</v>
+      </c>
+      <c r="U9">
+        <v>16.55007989913052</v>
+      </c>
+      <c r="V9">
+        <v>15.46077527460362</v>
+      </c>
+      <c r="W9">
+        <v>15.87627498554718</v>
+      </c>
+      <c r="X9">
+        <v>10.63923746227252</v>
+      </c>
+      <c r="Y9">
+        <v>34.28104540756959</v>
+      </c>
+      <c r="Z9">
+        <v>33.34920917528832</v>
+      </c>
+      <c r="AA9">
+        <v>32.37405453461912</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
         <v>0.7928776157727144</v>
       </c>
-      <c r="Q9">
+      <c r="AG9">
         <v>4.441111632079984</v>
       </c>
-      <c r="R9">
+      <c r="AH9">
         <v>2.484942957159592</v>
       </c>
-      <c r="S9">
+      <c r="AI9">
         <v>9.890597777644322</v>
       </c>
-      <c r="T9">
+      <c r="AJ9">
         <v>22.62818334190493</v>
       </c>
-      <c r="U9">
+      <c r="AK9">
         <v>2.477977557961425</v>
       </c>
-      <c r="V9">
+      <c r="AL9">
         <v>6.67313407411856</v>
       </c>
-      <c r="W9">
+      <c r="AM9">
         <v>5.726731328270445</v>
       </c>
-      <c r="X9">
+      <c r="AN9">
         <v>5.54225838845424</v>
       </c>
-      <c r="Y9">
+      <c r="AO9">
         <v>39.34787620915676</v>
       </c>
-      <c r="Z9">
+      <c r="AP9">
         <v>2.294244768454571</v>
       </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
         <v>7.560135535354968</v>
       </c>
-      <c r="AD9">
+      <c r="AT9">
         <v>27.08966551801158</v>
       </c>
-      <c r="AE9">
+      <c r="AU9">
         <v>23.03621063652473</v>
       </c>
-      <c r="AF9">
+      <c r="AV9">
         <v>14.29603997687549</v>
       </c>
-      <c r="AG9">
+      <c r="AW9">
         <v>25.7280126822557</v>
       </c>
+      <c r="AX9">
+        <v>9.911182818412497</v>
+      </c>
+      <c r="AY9">
+        <v>1.817279369256406</v>
+      </c>
+      <c r="AZ9">
+        <v>6.948505087017207</v>
+      </c>
+      <c r="BA9">
+        <v>13.24446610250614</v>
+      </c>
+      <c r="BB9">
+        <v>22.90212875266536</v>
+      </c>
+      <c r="BC9">
+        <v>45.18643787014238</v>
+      </c>
+      <c r="BD9">
+        <v>5.663247222055404</v>
+      </c>
+      <c r="BE9">
+        <v>3.270855173734139</v>
+      </c>
+      <c r="BF9">
+        <v>1.516809351913019</v>
+      </c>
+      <c r="BG9">
+        <v>25.05175914638268</v>
+      </c>
+      <c r="BH9">
+        <v>57.49626721049314</v>
+      </c>
+      <c r="BI9">
+        <v>94.48300537607365</v>
+      </c>
+      <c r="BJ9">
+        <v>35.35014143492106</v>
+      </c>
+      <c r="BK9">
+        <v>21.32414435739388</v>
+      </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:63">
       <c r="A10" s="1">
-        <v>99655</v>
+        <v>108316</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10">
         <v>202009</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>2020</v>
       </c>
-      <c r="E10">
-        <v>82511163</v>
-      </c>
-      <c r="F10">
+      <c r="G10">
         <v>1069094068</v>
       </c>
-      <c r="G10" t="s">
-        <v>61</v>
-      </c>
       <c r="H10" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I10" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="J10">
+        <v>1117069000</v>
+      </c>
+      <c r="K10">
         <v>41.8939393939394</v>
       </c>
-      <c r="K10" t="s">
-        <v>64</v>
-      </c>
-      <c r="L10">
-        <v>1117069000</v>
+      <c r="L10" t="s">
+        <v>95</v>
       </c>
       <c r="M10">
         <v>50902012</v>
@@ -1525,96 +2428,186 @@
         <v>45816.39243924392</v>
       </c>
       <c r="P10">
+        <v>83.35643813470477</v>
+      </c>
+      <c r="Q10">
+        <v>16.64356186529523</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>13.17204818013873</v>
+      </c>
+      <c r="T10">
+        <v>23.17204387637958</v>
+      </c>
+      <c r="U10">
+        <v>17.61052123420976</v>
+      </c>
+      <c r="V10">
+        <v>15.45141958160711</v>
+      </c>
+      <c r="W10">
+        <v>13.94718072794451</v>
+      </c>
+      <c r="X10">
+        <v>16.64356186529523</v>
+      </c>
+      <c r="Y10">
+        <v>38.77566273902887</v>
+      </c>
+      <c r="Z10">
+        <v>36.39513917819201</v>
+      </c>
+      <c r="AA10">
+        <v>24.82242261720421</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
         <v>1.615491746966701</v>
       </c>
-      <c r="Q10">
+      <c r="AG10">
         <v>2.241277088221974</v>
       </c>
-      <c r="R10">
+      <c r="AH10">
         <v>5.113763333166476</v>
       </c>
-      <c r="S10">
+      <c r="AI10">
         <v>13.63879747366371</v>
       </c>
-      <c r="T10">
+      <c r="AJ10">
         <v>25.64348963003663</v>
       </c>
-      <c r="U10">
+      <c r="AK10">
         <v>1.944394258325192</v>
       </c>
-      <c r="V10">
+      <c r="AL10">
         <v>2.774946317839067</v>
       </c>
-      <c r="W10">
+      <c r="AM10">
         <v>5.758801777422864</v>
       </c>
-      <c r="X10">
+      <c r="AN10">
         <v>6.618199350941177</v>
       </c>
-      <c r="Y10">
+      <c r="AO10">
         <v>34.64083902341621</v>
       </c>
-      <c r="Z10">
+      <c r="AP10">
         <v>2.425616675820201</v>
       </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
         <v>7.609329642018866</v>
       </c>
-      <c r="AD10">
+      <c r="AT10">
         <v>35.45194744620311</v>
       </c>
-      <c r="AE10">
+      <c r="AU10">
         <v>22.38707336362264</v>
       </c>
-      <c r="AF10">
+      <c r="AV10">
         <v>8.09292663637736</v>
       </c>
-      <c r="AG10">
+      <c r="AW10">
         <v>24.02310623595783</v>
       </c>
+      <c r="AX10">
+        <v>10.32150042438401</v>
+      </c>
+      <c r="AY10">
+        <v>1.658368016376249</v>
+      </c>
+      <c r="AZ10">
+        <v>3.27996056717758</v>
+      </c>
+      <c r="BA10">
+        <v>16.13578534125527</v>
+      </c>
+      <c r="BB10">
+        <v>18.76441414948392</v>
+      </c>
+      <c r="BC10">
+        <v>49.84352243247281</v>
+      </c>
+      <c r="BD10">
+        <v>7.330839023416207</v>
+      </c>
+      <c r="BE10">
+        <v>1.035075550451719</v>
+      </c>
+      <c r="BF10">
+        <v>3.704050297068807</v>
+      </c>
+      <c r="BG10">
+        <v>28.86776128613541</v>
+      </c>
+      <c r="BH10">
+        <v>70.86158394328302</v>
+      </c>
+      <c r="BI10">
+        <v>94.37656306355827</v>
+      </c>
+      <c r="BJ10">
+        <v>35.29178541115427</v>
+      </c>
+      <c r="BK10">
+        <v>21.2207667881576</v>
+      </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:63">
       <c r="A11" s="1">
-        <v>112213</v>
+        <v>121953</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11">
         <v>202010</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>2020</v>
       </c>
-      <c r="E11">
-        <v>82511163</v>
-      </c>
-      <c r="F11">
+      <c r="G11">
         <v>1069094068</v>
       </c>
-      <c r="G11" t="s">
-        <v>61</v>
-      </c>
       <c r="H11" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I11" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="J11">
+        <v>1117069000</v>
+      </c>
+      <c r="K11">
         <v>41.8939393939394</v>
       </c>
-      <c r="K11" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11">
-        <v>1117069000</v>
+      <c r="L11" t="s">
+        <v>95</v>
       </c>
       <c r="M11">
         <v>41556408</v>
@@ -1626,96 +2619,186 @@
         <v>41807.25150905432</v>
       </c>
       <c r="P11">
+        <v>81.89671699897643</v>
+      </c>
+      <c r="Q11">
+        <v>18.10328300102357</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>17.756934805578</v>
+      </c>
+      <c r="T11">
+        <v>16.17661658028769</v>
+      </c>
+      <c r="U11">
+        <v>22.84934067785647</v>
+      </c>
+      <c r="V11">
+        <v>15.26812278168989</v>
+      </c>
+      <c r="W11">
+        <v>9.853497856455737</v>
+      </c>
+      <c r="X11">
+        <v>18.10328300102357</v>
+      </c>
+      <c r="Y11">
+        <v>19.58387403791011</v>
+      </c>
+      <c r="Z11">
+        <v>51.00528719854709</v>
+      </c>
+      <c r="AA11">
+        <v>27.96041126605552</v>
+      </c>
+      <c r="AB11">
+        <v>1.450427497487271</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
         <v>3.401020009958512</v>
       </c>
-      <c r="Q11">
+      <c r="AG11">
         <v>6.880482502481929</v>
       </c>
-      <c r="R11">
+      <c r="AH11">
         <v>5.41526801594594</v>
       </c>
-      <c r="S11">
+      <c r="AI11">
         <v>15.6753758125582</v>
       </c>
-      <c r="T11">
+      <c r="AJ11">
         <v>30.97500405785794</v>
       </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
         <v>3.995324496525301</v>
       </c>
-      <c r="W11">
+      <c r="AM11">
         <v>4.553170777657202</v>
       </c>
-      <c r="X11">
+      <c r="AN11">
         <v>6.634509012906024</v>
       </c>
-      <c r="Y11">
+      <c r="AO11">
         <v>22.47984531410896</v>
       </c>
-      <c r="Z11">
+      <c r="AP11">
         <v>0.5612906081776846</v>
       </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
         <v>13.00312462617077</v>
       </c>
-      <c r="AD11">
+      <c r="AT11">
         <v>36.21220208373158</v>
       </c>
-      <c r="AE11">
+      <c r="AU11">
         <v>27.55773700893494</v>
       </c>
-      <c r="AF11">
+      <c r="AV11">
         <v>9.770431924241381</v>
       </c>
-      <c r="AG11">
+      <c r="AW11">
         <v>12.88741804585228</v>
       </c>
+      <c r="AX11">
+        <v>9.585000368896177</v>
+      </c>
+      <c r="AY11">
+        <v>5.541608833467993</v>
+      </c>
+      <c r="AZ11">
+        <v>9.869193369888947</v>
+      </c>
+      <c r="BA11">
+        <v>10.46284591223573</v>
+      </c>
+      <c r="BB11">
+        <v>19.12322504485951</v>
+      </c>
+      <c r="BC11">
+        <v>45.41812647065165</v>
+      </c>
+      <c r="BD11">
+        <v>4.769408963113462</v>
+      </c>
+      <c r="BE11">
+        <v>2.550431186449031</v>
+      </c>
+      <c r="BF11">
+        <v>2.473815343953693</v>
+      </c>
+      <c r="BG11">
+        <v>30.64672068793818</v>
+      </c>
+      <c r="BH11">
+        <v>61.59934953136469</v>
+      </c>
+      <c r="BI11">
+        <v>89.19844100698019</v>
+      </c>
+      <c r="BJ11">
+        <v>36.35967587237088</v>
+      </c>
+      <c r="BK11">
+        <v>20.7322578265186</v>
+      </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:63">
       <c r="A12" s="1">
-        <v>124805</v>
+        <v>135625</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12">
+        <v>72</v>
+      </c>
+      <c r="C12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12">
         <v>202011</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <v>2020</v>
       </c>
-      <c r="E12">
-        <v>82511163</v>
-      </c>
-      <c r="F12">
+      <c r="G12">
         <v>1069094068</v>
       </c>
-      <c r="G12" t="s">
-        <v>61</v>
-      </c>
       <c r="H12" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I12" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="J12">
+        <v>1117069000</v>
+      </c>
+      <c r="K12">
         <v>41.8939393939394</v>
       </c>
-      <c r="K12" t="s">
-        <v>64</v>
-      </c>
-      <c r="L12">
-        <v>1117069000</v>
+      <c r="L12" t="s">
+        <v>95</v>
       </c>
       <c r="M12">
         <v>40578820</v>
@@ -1727,96 +2810,186 @@
         <v>43680.10764262648</v>
       </c>
       <c r="P12">
+        <v>85.07951713184366</v>
+      </c>
+      <c r="Q12">
+        <v>14.92048286815634</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>21.84757025610898</v>
+      </c>
+      <c r="T12">
+        <v>14.69280426956722</v>
+      </c>
+      <c r="U12">
+        <v>11.10807017182855</v>
+      </c>
+      <c r="V12">
+        <v>17.97412363321555</v>
+      </c>
+      <c r="W12">
+        <v>19.45694880112335</v>
+      </c>
+      <c r="X12">
+        <v>14.92048286815634</v>
+      </c>
+      <c r="Y12">
+        <v>26.27832700901604</v>
+      </c>
+      <c r="Z12">
+        <v>44.9460133091598</v>
+      </c>
+      <c r="AA12">
+        <v>28.77565968182416</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
         <v>1.034273772376821</v>
       </c>
-      <c r="Q12">
+      <c r="AG12">
         <v>1.925439146086555</v>
       </c>
-      <c r="R12">
+      <c r="AH12">
         <v>14.8710702280155</v>
       </c>
-      <c r="S12">
+      <c r="AI12">
         <v>5.936009458382476</v>
       </c>
-      <c r="T12">
+      <c r="AJ12">
         <v>39.15732332679954</v>
       </c>
-      <c r="U12">
+      <c r="AK12">
         <v>0.4300665457990154</v>
       </c>
-      <c r="V12">
+      <c r="AL12">
         <v>8.236745312948972</v>
       </c>
-      <c r="W12">
+      <c r="AM12">
         <v>2.689296596106047</v>
       </c>
-      <c r="X12">
+      <c r="AN12">
         <v>4.548207114203912</v>
       </c>
-      <c r="Y12">
+      <c r="AO12">
         <v>21.16938789102295</v>
       </c>
-      <c r="Z12">
+      <c r="AP12">
         <v>1.68898861622886</v>
       </c>
-      <c r="AA12">
+      <c r="AQ12">
         <v>0.5102623324187346</v>
       </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
         <v>7.66951328106633</v>
       </c>
-      <c r="AD12">
+      <c r="AT12">
         <v>37.16606280739558</v>
       </c>
-      <c r="AE12">
+      <c r="AU12">
         <v>34.70066930876749</v>
       </c>
-      <c r="AF12">
+      <c r="AV12">
         <v>7.2750189729519</v>
       </c>
-      <c r="AG12">
+      <c r="AW12">
         <v>10.97948468117111</v>
       </c>
+      <c r="AX12">
+        <v>14.65498487782543</v>
+      </c>
+      <c r="AY12">
+        <v>0.06105703122959219</v>
+      </c>
+      <c r="AZ12">
+        <v>2.537998130798284</v>
+      </c>
+      <c r="BA12">
+        <v>18.65258152750622</v>
+      </c>
+      <c r="BB12">
+        <v>14.92534400039232</v>
+      </c>
+      <c r="BC12">
+        <v>49.16021504050635</v>
+      </c>
+      <c r="BD12">
+        <v>6.432380245655247</v>
+      </c>
+      <c r="BE12">
+        <v>1.034273772376821</v>
+      </c>
+      <c r="BF12">
+        <v>1.73101138377114</v>
+      </c>
+      <c r="BG12">
+        <v>33.79915030772211</v>
+      </c>
+      <c r="BH12">
+        <v>66.42706263883474</v>
+      </c>
+      <c r="BI12">
+        <v>95.27984215928407</v>
+      </c>
+      <c r="BJ12">
+        <v>45.33262388605682</v>
+      </c>
+      <c r="BK12">
+        <v>23.4449430811443</v>
+      </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:63">
       <c r="A13" s="1">
-        <v>137417</v>
+        <v>149306</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13">
         <v>202012</v>
       </c>
-      <c r="D13">
+      <c r="F13">
         <v>2020</v>
       </c>
-      <c r="E13">
-        <v>82511163</v>
-      </c>
-      <c r="F13">
+      <c r="G13">
         <v>1069094068</v>
       </c>
-      <c r="G13" t="s">
-        <v>61</v>
-      </c>
       <c r="H13" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I13" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="J13">
+        <v>1117069000</v>
+      </c>
+      <c r="K13">
         <v>41.8939393939394</v>
       </c>
-      <c r="K13" t="s">
-        <v>64</v>
-      </c>
-      <c r="L13">
-        <v>1117069000</v>
+      <c r="L13" t="s">
+        <v>95</v>
       </c>
       <c r="M13">
         <v>27857072</v>
@@ -1828,96 +3001,186 @@
         <v>37900.77823129252</v>
       </c>
       <c r="P13">
+        <v>89.23735646158362</v>
+      </c>
+      <c r="Q13">
+        <v>10.76264353841638</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>16.91362150013469</v>
+      </c>
+      <c r="T13">
+        <v>20.0077419227692</v>
+      </c>
+      <c r="U13">
+        <v>15.8187236153175</v>
+      </c>
+      <c r="V13">
+        <v>15.50691099983516</v>
+      </c>
+      <c r="W13">
+        <v>20.9940480004503</v>
+      </c>
+      <c r="X13">
+        <v>10.76264353841638</v>
+      </c>
+      <c r="Y13">
+        <v>30.86535111550848</v>
+      </c>
+      <c r="Z13">
+        <v>41.9997618848815</v>
+      </c>
+      <c r="AA13">
+        <v>27.13488699961001</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
         <v>0.3403814230727479</v>
       </c>
-      <c r="Q13">
+      <c r="AG13">
         <v>4.423889769176029</v>
       </c>
-      <c r="R13">
+      <c r="AH13">
         <v>6.609935654041458</v>
       </c>
-      <c r="S13">
+      <c r="AI13">
         <v>7.676023499885415</v>
       </c>
-      <c r="T13">
+      <c r="AJ13">
         <v>32.3975945767021</v>
       </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
         <v>1.216642730793818</v>
       </c>
-      <c r="W13">
+      <c r="AM13">
         <v>10.04679753852092</v>
       </c>
-      <c r="X13">
+      <c r="AN13">
         <v>7.333107961597688</v>
       </c>
-      <c r="Y13">
+      <c r="AO13">
         <v>29.95931642313305</v>
       </c>
-      <c r="Z13">
+      <c r="AP13">
         <v>2.517858807630609</v>
       </c>
-      <c r="AA13">
+      <c r="AQ13">
         <v>0.02951661538585247</v>
       </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
         <v>12.59531349992562</v>
       </c>
-      <c r="AD13">
+      <c r="AT13">
         <v>24.24163138466239</v>
       </c>
-      <c r="AE13">
+      <c r="AU13">
         <v>25.9176474228878</v>
       </c>
-      <c r="AF13">
+      <c r="AV13">
         <v>15.4703624616399</v>
       </c>
-      <c r="AG13">
+      <c r="AW13">
         <v>19.22766980786782</v>
       </c>
+      <c r="AX13">
+        <v>5.689206999931651</v>
+      </c>
+      <c r="AY13">
+        <v>5.076899500062318</v>
+      </c>
+      <c r="AZ13">
+        <v>2.258750038410354</v>
+      </c>
+      <c r="BA13">
+        <v>21.18538126943133</v>
+      </c>
+      <c r="BB13">
+        <v>13.94293046160774</v>
+      </c>
+      <c r="BC13">
+        <v>51.84683173055661</v>
+      </c>
+      <c r="BD13">
+        <v>11.59679007686091</v>
+      </c>
+      <c r="BE13">
+        <v>3.672284807606485</v>
+      </c>
+      <c r="BF13">
+        <v>1.12829680771906</v>
+      </c>
+      <c r="BG13">
+        <v>28.29111411529539</v>
+      </c>
+      <c r="BH13">
+        <v>64.98246603842642</v>
+      </c>
+      <c r="BI13">
+        <v>90.37548726908557</v>
+      </c>
+      <c r="BJ13">
+        <v>45.76461499973867</v>
+      </c>
+      <c r="BK13">
+        <v>19.76997730773715</v>
+      </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:63">
       <c r="A14" s="1">
-        <v>150071</v>
+        <v>163029</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14">
+        <v>74</v>
+      </c>
+      <c r="C14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14">
         <v>202101</v>
       </c>
-      <c r="D14">
+      <c r="F14">
         <v>2021</v>
       </c>
-      <c r="E14">
-        <v>82511163</v>
-      </c>
-      <c r="F14">
+      <c r="G14">
         <v>1069094068</v>
       </c>
-      <c r="G14" t="s">
-        <v>61</v>
-      </c>
       <c r="H14" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I14" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="J14">
+        <v>1117069000</v>
+      </c>
+      <c r="K14">
         <v>41.8939393939394</v>
       </c>
-      <c r="K14" t="s">
-        <v>64</v>
-      </c>
-      <c r="L14">
-        <v>1117069000</v>
+      <c r="L14" t="s">
+        <v>95</v>
       </c>
       <c r="M14">
         <v>31754262</v>
@@ -1929,96 +3192,186 @@
         <v>32468.57055214724</v>
       </c>
       <c r="P14">
+        <v>90.27443885674306</v>
+      </c>
+      <c r="Q14">
+        <v>9.725561143256927</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>19.25231634795984</v>
+      </c>
+      <c r="T14">
+        <v>18.79841110840491</v>
+      </c>
+      <c r="U14">
+        <v>15.16537687507901</v>
+      </c>
+      <c r="V14">
+        <v>15.63373535054916</v>
+      </c>
+      <c r="W14">
+        <v>21.41670733459338</v>
+      </c>
+      <c r="X14">
+        <v>9.725561143256927</v>
+      </c>
+      <c r="Y14">
+        <v>22.01505623906485</v>
+      </c>
+      <c r="Z14">
+        <v>43.0153218531736</v>
+      </c>
+      <c r="AA14">
+        <v>34.96962190776155</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
         <v>1.079734385891254</v>
       </c>
-      <c r="Q14">
+      <c r="AG14">
         <v>3.345297918118834</v>
       </c>
-      <c r="R14">
+      <c r="AH14">
         <v>6.635869819301737</v>
       </c>
-      <c r="S14">
+      <c r="AI14">
         <v>14.96991384589571</v>
       </c>
-      <c r="T14">
+      <c r="AJ14">
         <v>31.68981335796751</v>
       </c>
-      <c r="U14">
+      <c r="AK14">
         <v>0.2606508732591549</v>
       </c>
-      <c r="V14">
+      <c r="AL14">
         <v>5.013536733431247</v>
       </c>
-      <c r="W14">
+      <c r="AM14">
         <v>2.842136872839306</v>
       </c>
-      <c r="X14">
+      <c r="AN14">
         <v>5.044077532647428</v>
       </c>
-      <c r="Y14">
+      <c r="AO14">
         <v>29.11896866064783</v>
       </c>
-      <c r="Z14">
+      <c r="AP14">
         <v>0.7655084952060923</v>
       </c>
-      <c r="AA14">
+      <c r="AQ14">
         <v>2.264958124991221</v>
       </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
         <v>22.0924455640002</v>
       </c>
-      <c r="AD14">
+      <c r="AT14">
         <v>25.61409665952873</v>
       </c>
-      <c r="AE14">
+      <c r="AU14">
         <v>28.62506819903419</v>
       </c>
-      <c r="AF14">
+      <c r="AV14">
         <v>10.94506581006354</v>
       </c>
-      <c r="AG14">
+      <c r="AW14">
         <v>9.700748987332785</v>
       </c>
+      <c r="AX14">
+        <v>9.895417563160498</v>
+      </c>
+      <c r="AY14">
+        <v>0.9950514460074682</v>
+      </c>
+      <c r="AZ14">
+        <v>3.22776262411641</v>
+      </c>
+      <c r="BA14">
+        <v>11.61218472783276</v>
+      </c>
+      <c r="BB14">
+        <v>21.07694423570606</v>
+      </c>
+      <c r="BC14">
+        <v>53.19474756302004</v>
+      </c>
+      <c r="BD14">
+        <v>16.0199688829172</v>
+      </c>
+      <c r="BE14">
+        <v>1.411411820561284</v>
+      </c>
+      <c r="BF14">
+        <v>3.454702081881166</v>
+      </c>
+      <c r="BG14">
+        <v>25.36831299433128</v>
+      </c>
+      <c r="BH14">
+        <v>54.69516629799175</v>
+      </c>
+      <c r="BI14">
+        <v>94.49411581664219</v>
+      </c>
+      <c r="BJ14">
+        <v>40.66369945552506</v>
+      </c>
+      <c r="BK14">
+        <v>25.50421154174517</v>
+      </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:63">
       <c r="A15" s="1">
-        <v>162714</v>
+        <v>176724</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15">
+        <v>75</v>
+      </c>
+      <c r="C15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15">
         <v>202102</v>
       </c>
-      <c r="D15">
+      <c r="F15">
         <v>2021</v>
       </c>
-      <c r="E15">
-        <v>82511163</v>
-      </c>
-      <c r="F15">
+      <c r="G15">
         <v>1069094068</v>
       </c>
-      <c r="G15" t="s">
-        <v>61</v>
-      </c>
       <c r="H15" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I15" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="J15">
+        <v>1117069000</v>
+      </c>
+      <c r="K15">
         <v>41.8939393939394</v>
       </c>
-      <c r="K15" t="s">
-        <v>64</v>
-      </c>
-      <c r="L15">
-        <v>1117069000</v>
+      <c r="L15" t="s">
+        <v>95</v>
       </c>
       <c r="M15">
         <v>27297200</v>
@@ -2030,96 +3383,186 @@
         <v>44098.86914378029</v>
       </c>
       <c r="P15">
+        <v>90.61231273097609</v>
+      </c>
+      <c r="Q15">
+        <v>9.38768726902393</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>12.31285165218411</v>
+      </c>
+      <c r="T15">
+        <v>27.67401359663262</v>
+      </c>
+      <c r="U15">
+        <v>20.39903684370558</v>
+      </c>
+      <c r="V15">
+        <v>25.11216684275311</v>
+      </c>
+      <c r="W15">
+        <v>5.114243795700657</v>
+      </c>
+      <c r="X15">
+        <v>9.38768726902393</v>
+      </c>
+      <c r="Y15">
+        <v>14.62579711948478</v>
+      </c>
+      <c r="Z15">
+        <v>61.54438658543734</v>
+      </c>
+      <c r="AA15">
+        <v>23.83722046510265</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
         <v>4.19344905228375</v>
       </c>
-      <c r="Q15">
+      <c r="AG15">
         <v>0.1074041700247644</v>
       </c>
-      <c r="R15">
+      <c r="AH15">
         <v>3.481042506191111</v>
       </c>
-      <c r="S15">
+      <c r="AI15">
         <v>13.54237369034186</v>
       </c>
-      <c r="T15">
+      <c r="AJ15">
         <v>40.11608579744442</v>
       </c>
-      <c r="U15">
+      <c r="AK15">
         <v>1.125433843764196</v>
       </c>
-      <c r="V15">
+      <c r="AL15">
         <v>1.628917405448178</v>
       </c>
-      <c r="W15">
+      <c r="AM15">
         <v>10.58321410107996</v>
       </c>
-      <c r="X15">
+      <c r="AN15">
         <v>8.122374517166598</v>
       </c>
-      <c r="Y15">
+      <c r="AO15">
         <v>17.11230074623038</v>
       </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-      <c r="AC15">
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
         <v>13.58839935524523</v>
       </c>
-      <c r="AD15">
+      <c r="AT15">
         <v>24.86906412049587</v>
       </c>
-      <c r="AE15">
+      <c r="AU15">
         <v>32.32248197067831</v>
       </c>
-      <c r="AF15">
+      <c r="AV15">
         <v>9.610403364081298</v>
       </c>
-      <c r="AG15">
+      <c r="AW15">
         <v>19.61445952954882</v>
       </c>
+      <c r="AX15">
+        <v>6.836912569787377</v>
+      </c>
+      <c r="AY15">
+        <v>0.8478211725012089</v>
+      </c>
+      <c r="AZ15">
+        <v>3.870927820069457</v>
+      </c>
+      <c r="BA15">
+        <v>19.81919244501267</v>
+      </c>
+      <c r="BB15">
+        <v>15.41051164441774</v>
+      </c>
+      <c r="BC15">
+        <v>53.21463434821154</v>
+      </c>
+      <c r="BD15">
+        <v>3.289509226587342</v>
+      </c>
+      <c r="BE15">
+        <v>1.28689975821696</v>
+      </c>
+      <c r="BF15">
+        <v>4.666145929985492</v>
+      </c>
+      <c r="BG15">
+        <v>27.99829190173351</v>
+      </c>
+      <c r="BH15">
+        <v>58.81775463417493</v>
+      </c>
+      <c r="BI15">
+        <v>94.57823176919244</v>
+      </c>
+      <c r="BJ15">
+        <v>40.59408178860836</v>
+      </c>
+      <c r="BK15">
+        <v>21.03308743021262</v>
+      </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:63">
       <c r="A16" s="1">
-        <v>175374</v>
+        <v>190430</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16">
+        <v>76</v>
+      </c>
+      <c r="C16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16">
         <v>202103</v>
       </c>
-      <c r="D16">
+      <c r="F16">
         <v>2021</v>
       </c>
-      <c r="E16">
-        <v>82511163</v>
-      </c>
-      <c r="F16">
+      <c r="G16">
         <v>1069094068</v>
       </c>
-      <c r="G16" t="s">
-        <v>61</v>
-      </c>
       <c r="H16" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I16" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="J16">
+        <v>1117069000</v>
+      </c>
+      <c r="K16">
         <v>41.8939393939394</v>
       </c>
-      <c r="K16" t="s">
-        <v>64</v>
-      </c>
-      <c r="L16">
-        <v>1117069000</v>
+      <c r="L16" t="s">
+        <v>95</v>
       </c>
       <c r="M16">
         <v>30171831</v>
@@ -2131,96 +3574,186 @@
         <v>38731.49037227214</v>
       </c>
       <c r="P16">
+        <v>87.42281403074279</v>
+      </c>
+      <c r="Q16">
+        <v>12.57718596925722</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>10.74752565497268</v>
+      </c>
+      <c r="T16">
+        <v>28.04874352139915</v>
+      </c>
+      <c r="U16">
+        <v>20.94176279192336</v>
+      </c>
+      <c r="V16">
+        <v>12.20797332419103</v>
+      </c>
+      <c r="W16">
+        <v>15.47680873825656</v>
+      </c>
+      <c r="X16">
+        <v>12.57718596925722</v>
+      </c>
+      <c r="Y16">
+        <v>25.94773590273656</v>
+      </c>
+      <c r="Z16">
+        <v>48.61426431064127</v>
+      </c>
+      <c r="AA16">
+        <v>25.43799978662216</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
         <v>6.081520006856727</v>
       </c>
-      <c r="Q16">
+      <c r="AG16">
         <v>8.968927306731898</v>
       </c>
-      <c r="R16">
+      <c r="AH16">
         <v>2.823105088318969</v>
       </c>
-      <c r="S16">
+      <c r="AI16">
         <v>15.66832302587138</v>
       </c>
-      <c r="T16">
+      <c r="AJ16">
         <v>18.98122966053999</v>
       </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
         <v>1.507665820148602</v>
       </c>
-      <c r="W16">
+      <c r="AM16">
         <v>4.637498481282094</v>
       </c>
-      <c r="X16">
+      <c r="AN16">
         <v>15.41222619634851</v>
       </c>
-      <c r="Y16">
+      <c r="AO16">
         <v>25.92063109892138</v>
       </c>
-      <c r="Z16">
+      <c r="AP16">
         <v>0.2503504129398047</v>
       </c>
-      <c r="AA16">
+      <c r="AQ16">
         <v>2.42685164715393</v>
       </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
         <v>5.62059284237672</v>
       </c>
-      <c r="AD16">
+      <c r="AT16">
         <v>29.60626953200155</v>
       </c>
-      <c r="AE16">
+      <c r="AU16">
         <v>34.64703507685695</v>
       </c>
-      <c r="AF16">
+      <c r="AV16">
         <v>11.0629166506335</v>
       </c>
-      <c r="AG16">
+      <c r="AW16">
         <v>16.38154718054731</v>
       </c>
+      <c r="AX16">
+        <v>19.63389745123522</v>
+      </c>
+      <c r="AY16">
+        <v>0</v>
+      </c>
+      <c r="AZ16">
+        <v>6.076005292486228</v>
+      </c>
+      <c r="BA16">
+        <v>20.02514785496445</v>
+      </c>
+      <c r="BB16">
+        <v>16.22661422569946</v>
+      </c>
+      <c r="BC16">
+        <v>38.04389851812441</v>
+      </c>
+      <c r="BD16">
+        <v>5.350878536340734</v>
+      </c>
+      <c r="BE16">
+        <v>5.742156113760547</v>
+      </c>
+      <c r="BF16">
+        <v>9.803428683197914</v>
+      </c>
+      <c r="BG16">
+        <v>18.83502985549667</v>
+      </c>
+      <c r="BH16">
+        <v>59.33760074554309</v>
+      </c>
+      <c r="BI16">
+        <v>93.04606464784983</v>
+      </c>
+      <c r="BJ16">
+        <v>35.66894911681031</v>
+      </c>
+      <c r="BK16">
+        <v>24.59293810508218</v>
+      </c>
     </row>
-    <row r="17" spans="1:33">
+    <row r="17" spans="1:63">
       <c r="A17" s="1">
-        <v>188126</v>
+        <v>204232</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17">
         <v>202104</v>
       </c>
-      <c r="D17">
+      <c r="F17">
         <v>2021</v>
       </c>
-      <c r="E17">
-        <v>82511163</v>
-      </c>
-      <c r="F17">
+      <c r="G17">
         <v>1069094068</v>
       </c>
-      <c r="G17" t="s">
-        <v>61</v>
-      </c>
       <c r="H17" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I17" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="J17">
+        <v>1117069000</v>
+      </c>
+      <c r="K17">
         <v>41.8939393939394</v>
       </c>
-      <c r="K17" t="s">
-        <v>64</v>
-      </c>
-      <c r="L17">
-        <v>1117069000</v>
+      <c r="L17" t="s">
+        <v>95</v>
       </c>
       <c r="M17">
         <v>36984878</v>
@@ -2232,96 +3765,186 @@
         <v>39556.0192513369</v>
       </c>
       <c r="P17">
+        <v>90.40485119891432</v>
+      </c>
+      <c r="Q17">
+        <v>9.595148801085676</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>16.88329949770282</v>
+      </c>
+      <c r="T17">
+        <v>16.81635850630628</v>
+      </c>
+      <c r="U17">
+        <v>18.73578601070416</v>
+      </c>
+      <c r="V17">
+        <v>20.99407637197019</v>
+      </c>
+      <c r="W17">
+        <v>16.97533081223088</v>
+      </c>
+      <c r="X17">
+        <v>9.595148801085676</v>
+      </c>
+      <c r="Y17">
+        <v>26.74663237607543</v>
+      </c>
+      <c r="Z17">
+        <v>41.32990882381713</v>
+      </c>
+      <c r="AA17">
+        <v>31.92785377688687</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
         <v>0.1362442801622869</v>
       </c>
-      <c r="Q17">
+      <c r="AG17">
         <v>1.461415448768007</v>
       </c>
-      <c r="R17">
+      <c r="AH17">
         <v>4.935741616884608</v>
       </c>
-      <c r="S17">
+      <c r="AI17">
         <v>12.02302426305151</v>
       </c>
-      <c r="T17">
+      <c r="AJ17">
         <v>26.42252330587653</v>
       </c>
-      <c r="U17">
+      <c r="AK17">
         <v>1.687671083300586</v>
       </c>
-      <c r="V17">
+      <c r="AL17">
         <v>7.746301734454823</v>
       </c>
-      <c r="W17">
+      <c r="AM17">
         <v>3.03007982181258</v>
       </c>
-      <c r="X17">
+      <c r="AN17">
         <v>8.381289527033182</v>
       </c>
-      <c r="Y17">
+      <c r="AO17">
         <v>34.18131394187646</v>
       </c>
-      <c r="Z17">
+      <c r="AP17">
         <v>0.6277626007039958</v>
       </c>
-      <c r="AA17">
+      <c r="AQ17">
         <v>1.687671083300586</v>
       </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17">
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
         <v>10.56030827410057</v>
       </c>
-      <c r="AD17">
+      <c r="AT17">
         <v>44.66630173445482</v>
       </c>
-      <c r="AE17">
+      <c r="AU17">
         <v>19.89093617667199</v>
       </c>
-      <c r="AF17">
+      <c r="AV17">
         <v>4.662146223113133</v>
       </c>
-      <c r="AG17">
+      <c r="AW17">
         <v>17.90366386121377</v>
       </c>
+      <c r="AX17">
+        <v>7.987385859161142</v>
+      </c>
+      <c r="AY17">
+        <v>1.186643730445724</v>
+      </c>
+      <c r="AZ17">
+        <v>4.025662136292567</v>
+      </c>
+      <c r="BA17">
+        <v>17.30970205660811</v>
+      </c>
+      <c r="BB17">
+        <v>15.99441768552001</v>
+      </c>
+      <c r="BC17">
+        <v>53.50058350875187</v>
+      </c>
+      <c r="BD17">
+        <v>9.805102701163431</v>
+      </c>
+      <c r="BE17">
+        <v>1.820856013638871</v>
+      </c>
+      <c r="BF17">
+        <v>0.7014725618400039</v>
+      </c>
+      <c r="BG17">
+        <v>16.22493136194744</v>
+      </c>
+      <c r="BH17">
+        <v>69.22022776984691</v>
+      </c>
+      <c r="BI17">
+        <v>91.93517150982626</v>
+      </c>
+      <c r="BJ17">
+        <v>23.54646137807998</v>
+      </c>
+      <c r="BK17">
+        <v>25.98276277131427</v>
+      </c>
     </row>
-    <row r="18" spans="1:33">
+    <row r="18" spans="1:63">
       <c r="A18" s="1">
-        <v>200914</v>
+        <v>218074</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18">
+        <v>78</v>
+      </c>
+      <c r="C18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18">
         <v>202105</v>
       </c>
-      <c r="D18">
+      <c r="F18">
         <v>2021</v>
       </c>
-      <c r="E18">
-        <v>82511163</v>
-      </c>
-      <c r="F18">
+      <c r="G18">
         <v>1069094068</v>
       </c>
-      <c r="G18" t="s">
-        <v>61</v>
-      </c>
       <c r="H18" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I18" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="J18">
+        <v>1117069000</v>
+      </c>
+      <c r="K18">
         <v>41.8939393939394</v>
       </c>
-      <c r="K18" t="s">
-        <v>64</v>
-      </c>
-      <c r="L18">
-        <v>1117069000</v>
+      <c r="L18" t="s">
+        <v>95</v>
       </c>
       <c r="M18">
         <v>27985888</v>
@@ -2333,96 +3956,186 @@
         <v>32353.62774566474</v>
       </c>
       <c r="P18">
+        <v>78.10764277767423</v>
+      </c>
+      <c r="Q18">
+        <v>21.89235722232576</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>21.74056858942621</v>
+      </c>
+      <c r="T18">
+        <v>11.40337360029455</v>
+      </c>
+      <c r="U18">
+        <v>9.963085809533718</v>
+      </c>
+      <c r="V18">
+        <v>12.50316363161319</v>
+      </c>
+      <c r="W18">
+        <v>22.49180571007788</v>
+      </c>
+      <c r="X18">
+        <v>21.89235722232576</v>
+      </c>
+      <c r="Y18">
+        <v>32.18258426818545</v>
+      </c>
+      <c r="Z18">
+        <v>41.60298907792384</v>
+      </c>
+      <c r="AA18">
+        <v>26.21878121716202</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
         <v>0.2862823348682021</v>
       </c>
-      <c r="Q18">
+      <c r="AG18">
         <v>2.167194989131665</v>
       </c>
-      <c r="R18">
+      <c r="AH18">
         <v>3.461325027814018</v>
       </c>
-      <c r="S18">
+      <c r="AI18">
         <v>7.045940791301673</v>
       </c>
-      <c r="T18">
+      <c r="AJ18">
         <v>26.30469358556712</v>
       </c>
-      <c r="U18">
+      <c r="AK18">
         <v>2.410601483147506</v>
       </c>
-      <c r="V18">
+      <c r="AL18">
         <v>8.552996641736007</v>
       </c>
-      <c r="W18">
+      <c r="AM18">
         <v>4.815871221953007</v>
       </c>
-      <c r="X18">
+      <c r="AN18">
         <v>22.62304535200027</v>
       </c>
-      <c r="Y18">
+      <c r="AO18">
         <v>22.34204857248053</v>
       </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
-      <c r="AC18">
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
         <v>12.63406172996905</v>
       </c>
-      <c r="AD18">
+      <c r="AT18">
         <v>27.43120800883646</v>
       </c>
-      <c r="AE18">
+      <c r="AU18">
         <v>26.47053191379884</v>
       </c>
-      <c r="AF18">
+      <c r="AV18">
         <v>15.04619442770585</v>
       </c>
-      <c r="AG18">
+      <c r="AW18">
         <v>18.42364935641849</v>
       </c>
+      <c r="AX18">
+        <v>10.86661184379785</v>
+      </c>
+      <c r="AY18">
+        <v>4.926869262108103</v>
+      </c>
+      <c r="AZ18">
+        <v>5.035457587767092</v>
+      </c>
+      <c r="BA18">
+        <v>23.66746948462024</v>
+      </c>
+      <c r="BB18">
+        <v>18.72816139620083</v>
+      </c>
+      <c r="BC18">
+        <v>36.78543042550589</v>
+      </c>
+      <c r="BD18">
+        <v>1.147676932030886</v>
+      </c>
+      <c r="BE18">
+        <v>2.696883818015709</v>
+      </c>
+      <c r="BF18">
+        <v>3.207763578557879</v>
+      </c>
+      <c r="BG18">
+        <v>32.53964837135059</v>
+      </c>
+      <c r="BH18">
+        <v>71.33457152404813</v>
+      </c>
+      <c r="BI18">
+        <v>87.79424831829529</v>
+      </c>
+      <c r="BJ18">
+        <v>37.34664473751914</v>
+      </c>
+      <c r="BK18">
+        <v>22.24216685209345</v>
+      </c>
     </row>
-    <row r="19" spans="1:33">
+    <row r="19" spans="1:63">
       <c r="A19" s="1">
-        <v>213693</v>
+        <v>231911</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19">
+        <v>79</v>
+      </c>
+      <c r="C19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19">
         <v>202106</v>
       </c>
-      <c r="D19">
+      <c r="F19">
         <v>2021</v>
       </c>
-      <c r="E19">
-        <v>82511163</v>
-      </c>
-      <c r="F19">
+      <c r="G19">
         <v>1069094068</v>
       </c>
-      <c r="G19" t="s">
-        <v>61</v>
-      </c>
       <c r="H19" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I19" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="J19">
+        <v>1117069000</v>
+      </c>
+      <c r="K19">
         <v>41.8939393939394</v>
       </c>
-      <c r="K19" t="s">
-        <v>64</v>
-      </c>
-      <c r="L19">
-        <v>1117069000</v>
+      <c r="L19" t="s">
+        <v>95</v>
       </c>
       <c r="M19">
         <v>39002187</v>
@@ -2434,96 +4147,186 @@
         <v>47914.23464373464</v>
       </c>
       <c r="P19">
+        <v>92.09338954505294</v>
+      </c>
+      <c r="Q19">
+        <v>7.906610454947052</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>18.90111316398744</v>
+      </c>
+      <c r="T19">
+        <v>13.57577177531096</v>
+      </c>
+      <c r="U19">
+        <v>7.916104426656895</v>
+      </c>
+      <c r="V19">
+        <v>28.52073520133627</v>
+      </c>
+      <c r="W19">
+        <v>23.17966497776137</v>
+      </c>
+      <c r="X19">
+        <v>7.906610454947052</v>
+      </c>
+      <c r="Y19">
+        <v>40.78683263812873</v>
+      </c>
+      <c r="Z19">
+        <v>36.35196694739195</v>
+      </c>
+      <c r="AA19">
+        <v>22.86120041447932</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
         <v>2.099540529868236</v>
       </c>
-      <c r="Q19">
+      <c r="AG19">
         <v>5.488212172563554</v>
       </c>
-      <c r="R19">
+      <c r="AH19">
         <v>5.182539256580663</v>
       </c>
-      <c r="S19">
+      <c r="AI19">
         <v>13.7089647257473</v>
       </c>
-      <c r="T19">
+      <c r="AJ19">
         <v>31.23987904703908</v>
       </c>
-      <c r="U19">
+      <c r="AK19">
         <v>0.3429149711527715</v>
       </c>
-      <c r="V19">
+      <c r="AL19">
         <v>3.601463289994482</v>
       </c>
-      <c r="W19">
+      <c r="AM19">
         <v>6.059697556190887</v>
       </c>
-      <c r="X19">
+      <c r="AN19">
         <v>14.77368387495809</v>
       </c>
-      <c r="Y19">
+      <c r="AO19">
         <v>17.5111527322814</v>
       </c>
-      <c r="Z19">
+      <c r="AP19">
         <v>1.991313253536269</v>
       </c>
-      <c r="AA19">
+      <c r="AQ19">
         <v>1.725049429664034</v>
       </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
-      <c r="AC19">
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
         <v>5.722221709003139</v>
       </c>
-      <c r="AD19">
+      <c r="AT19">
         <v>31.03407931227036</v>
       </c>
-      <c r="AE19">
+      <c r="AU19">
         <v>37.08721184763306</v>
       </c>
-      <c r="AF19">
+      <c r="AV19">
         <v>6.244060713569728</v>
       </c>
-      <c r="AG19">
+      <c r="AW19">
         <v>16.20004768219793</v>
       </c>
+      <c r="AX19">
+        <v>5.164972663968817</v>
+      </c>
+      <c r="AY19">
+        <v>1.282831215593115</v>
+      </c>
+      <c r="AZ19">
+        <v>8.781517962056846</v>
+      </c>
+      <c r="BA19">
+        <v>23.9581900789307</v>
+      </c>
+      <c r="BB19">
+        <v>22.35268579810666</v>
+      </c>
+      <c r="BC19">
+        <v>38.45378622921837</v>
+      </c>
+      <c r="BD19">
+        <v>8.749694061258666</v>
+      </c>
+      <c r="BE19">
+        <v>2.442455501021007</v>
+      </c>
+      <c r="BF19">
+        <v>1.090215193317236</v>
+      </c>
+      <c r="BG19">
+        <v>28.64463189871891</v>
+      </c>
+      <c r="BH19">
+        <v>60.4774270409503</v>
+      </c>
+      <c r="BI19">
+        <v>88.37034201210307</v>
+      </c>
+      <c r="BJ19">
+        <v>23.74359662446621</v>
+      </c>
+      <c r="BK19">
+        <v>21.98770502023387</v>
+      </c>
     </row>
-    <row r="20" spans="1:33">
+    <row r="20" spans="1:63">
       <c r="A20" s="1">
-        <v>226509</v>
+        <v>245770</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20">
+        <v>80</v>
+      </c>
+      <c r="C20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20">
         <v>202107</v>
       </c>
-      <c r="D20">
+      <c r="F20">
         <v>2021</v>
       </c>
-      <c r="E20">
-        <v>82511163</v>
-      </c>
-      <c r="F20">
+      <c r="G20">
         <v>1069094068</v>
       </c>
-      <c r="G20" t="s">
-        <v>61</v>
-      </c>
       <c r="H20" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I20" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="J20">
+        <v>1117069000</v>
+      </c>
+      <c r="K20">
         <v>41.8939393939394</v>
       </c>
-      <c r="K20" t="s">
-        <v>64</v>
-      </c>
-      <c r="L20">
-        <v>1117069000</v>
+      <c r="L20" t="s">
+        <v>95</v>
       </c>
       <c r="M20">
         <v>30847602</v>
@@ -2535,96 +4338,186 @@
         <v>37076.44471153846</v>
       </c>
       <c r="P20">
+        <v>78.63579853889453</v>
+      </c>
+      <c r="Q20">
+        <v>21.36420146110547</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>13.92818553740417</v>
+      </c>
+      <c r="T20">
+        <v>15.58053979430881</v>
+      </c>
+      <c r="U20">
+        <v>15.73963214579856</v>
+      </c>
+      <c r="V20">
+        <v>10.92610174431063</v>
+      </c>
+      <c r="W20">
+        <v>22.46377516022153</v>
+      </c>
+      <c r="X20">
+        <v>21.36420146110547</v>
+      </c>
+      <c r="Y20">
+        <v>30.91931707171273</v>
+      </c>
+      <c r="Z20">
+        <v>51.49826825696208</v>
+      </c>
+      <c r="AA20">
+        <v>17.58826939027546</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
         <v>2.436107111988802</v>
       </c>
-      <c r="Q20">
+      <c r="AG20">
         <v>4.637973520275578</v>
       </c>
-      <c r="R20">
+      <c r="AH20">
         <v>4.881626718342645</v>
       </c>
-      <c r="S20">
+      <c r="AI20">
         <v>10.03264052486154</v>
       </c>
-      <c r="T20">
+      <c r="AJ20">
         <v>31.61637107480834</v>
       </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
         <v>8.744993648452803</v>
       </c>
-      <c r="W20">
+      <c r="AM20">
         <v>8.041040346021063</v>
       </c>
-      <c r="X20">
+      <c r="AN20">
         <v>7.214197226740672</v>
       </c>
-      <c r="Y20">
+      <c r="AO20">
         <v>22.38504982850855</v>
       </c>
-      <c r="Z20">
+      <c r="AP20">
         <v>2.248212076906335</v>
       </c>
-      <c r="AA20">
+      <c r="AQ20">
         <v>0.8414920530937866</v>
       </c>
-      <c r="AB20">
-        <v>0</v>
-      </c>
-      <c r="AC20">
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
         <v>3.081400864806282</v>
       </c>
-      <c r="AD20">
+      <c r="AT20">
         <v>19.92946133900457</v>
       </c>
-      <c r="AE20">
+      <c r="AU20">
         <v>8.537168629833852</v>
       </c>
-      <c r="AF20">
+      <c r="AV20">
         <v>18.32756302353745</v>
       </c>
-      <c r="AG20">
+      <c r="AW20">
         <v>47.03641145071828</v>
       </c>
+      <c r="AX20">
+        <v>20.78251546165566</v>
+      </c>
+      <c r="AY20">
+        <v>2.47058750563496</v>
+      </c>
+      <c r="AZ20">
+        <v>4.847851558121114</v>
+      </c>
+      <c r="BA20">
+        <v>15.48327037414448</v>
+      </c>
+      <c r="BB20">
+        <v>19.37498941408801</v>
+      </c>
+      <c r="BC20">
+        <v>37.03664040530606</v>
+      </c>
+      <c r="BD20">
+        <v>9.073423110165905</v>
+      </c>
+      <c r="BE20">
+        <v>2.289739138231879</v>
+      </c>
+      <c r="BF20">
+        <v>8.752810198342159</v>
+      </c>
+      <c r="BG20">
+        <v>35.55331385110584</v>
+      </c>
+      <c r="BH20">
+        <v>68.73238276414484</v>
+      </c>
+      <c r="BI20">
+        <v>86.44684622033181</v>
+      </c>
+      <c r="BJ20">
+        <v>32.01496287458584</v>
+      </c>
+      <c r="BK20">
+        <v>28.78721097348183</v>
+      </c>
     </row>
-    <row r="21" spans="1:33">
+    <row r="21" spans="1:63">
       <c r="A21" s="1">
-        <v>239337</v>
+        <v>259643</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21">
         <v>202108</v>
       </c>
-      <c r="D21">
+      <c r="F21">
         <v>2021</v>
       </c>
-      <c r="E21">
-        <v>82511163</v>
-      </c>
-      <c r="F21">
+      <c r="G21">
         <v>1069094068</v>
       </c>
-      <c r="G21" t="s">
-        <v>61</v>
-      </c>
       <c r="H21" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I21" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="J21">
+        <v>1117069000</v>
+      </c>
+      <c r="K21">
         <v>41.8939393939394</v>
       </c>
-      <c r="K21" t="s">
-        <v>64</v>
-      </c>
-      <c r="L21">
-        <v>1117069000</v>
+      <c r="L21" t="s">
+        <v>95</v>
       </c>
       <c r="M21">
         <v>36231527</v>
@@ -2636,96 +4529,186 @@
         <v>36820.65752032521</v>
       </c>
       <c r="P21">
+        <v>83.5619592781723</v>
+      </c>
+      <c r="Q21">
+        <v>16.43804072182771</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>28.99742426864868</v>
+      </c>
+      <c r="T21">
+        <v>20.27809578933838</v>
+      </c>
+      <c r="U21">
+        <v>12.29075936904343</v>
+      </c>
+      <c r="V21">
+        <v>15.69591093993913</v>
+      </c>
+      <c r="W21">
+        <v>9.614523974382863</v>
+      </c>
+      <c r="X21">
+        <v>13.11915797559402</v>
+      </c>
+      <c r="Y21">
+        <v>27.83610892331422</v>
+      </c>
+      <c r="Z21">
+        <v>35.35048987363961</v>
+      </c>
+      <c r="AA21">
+        <v>36.81340120304617</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
         <v>1.894474424442558</v>
       </c>
-      <c r="Q21">
+      <c r="AG21">
         <v>9.359295482081116</v>
       </c>
-      <c r="R21">
+      <c r="AH21">
         <v>1.624001103514075</v>
       </c>
-      <c r="S21">
+      <c r="AI21">
         <v>10.43305446165711</v>
       </c>
-      <c r="T21">
+      <c r="AJ21">
         <v>40.23537692573652</v>
       </c>
-      <c r="U21">
+      <c r="AK21">
         <v>0.5167638912927959</v>
       </c>
-      <c r="V21">
+      <c r="AL21">
         <v>0.3554045135884005</v>
       </c>
-      <c r="W21">
+      <c r="AM21">
         <v>6.080170611909345</v>
       </c>
-      <c r="X21">
+      <c r="AN21">
         <v>6.844705513239892</v>
       </c>
-      <c r="Y21">
+      <c r="AO21">
         <v>22.66675307253817</v>
       </c>
-      <c r="Z21">
+      <c r="AP21">
         <v>1.420726480007315</v>
       </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-      <c r="AB21">
-        <v>0</v>
-      </c>
-      <c r="AC21">
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
         <v>12.08602085857436</v>
       </c>
-      <c r="AD21">
+      <c r="AT21">
         <v>20.40824433096623</v>
       </c>
-      <c r="AE21">
+      <c r="AU21">
         <v>9.731381339792827</v>
       </c>
-      <c r="AF21">
+      <c r="AV21">
         <v>20.19076488661381</v>
       </c>
-      <c r="AG21">
+      <c r="AW21">
         <v>36.17047905488499</v>
       </c>
+      <c r="AX21">
+        <v>11.24915234983058</v>
+      </c>
+      <c r="AY21">
+        <v>0.1115740219836718</v>
+      </c>
+      <c r="AZ21">
+        <v>4.74013209710979</v>
+      </c>
+      <c r="BA21">
+        <v>13.29453490133055</v>
+      </c>
+      <c r="BB21">
+        <v>18.01582839276965</v>
+      </c>
+      <c r="BC21">
+        <v>52.58877823697576</v>
+      </c>
+      <c r="BD21">
+        <v>3.742559178640194</v>
+      </c>
+      <c r="BE21">
+        <v>1.044975225029848</v>
+      </c>
+      <c r="BF21">
+        <v>7.922526073217946</v>
+      </c>
+      <c r="BG21">
+        <v>23.95530552190086</v>
+      </c>
+      <c r="BH21">
+        <v>62.0699779297185</v>
+      </c>
+      <c r="BI21">
+        <v>81.7520142374899</v>
+      </c>
+      <c r="BJ21">
+        <v>27.06730894063615</v>
+      </c>
+      <c r="BK21">
+        <v>24.2672537649324</v>
+      </c>
     </row>
-    <row r="22" spans="1:33">
+    <row r="22" spans="1:63">
       <c r="A22" s="1">
-        <v>252215</v>
+        <v>273563</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22">
+        <v>82</v>
+      </c>
+      <c r="C22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22">
         <v>202109</v>
       </c>
-      <c r="D22">
+      <c r="F22">
         <v>2021</v>
       </c>
-      <c r="E22">
-        <v>82511163</v>
-      </c>
-      <c r="F22">
+      <c r="G22">
         <v>1069094068</v>
       </c>
-      <c r="G22" t="s">
-        <v>61</v>
-      </c>
       <c r="H22" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I22" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="J22">
+        <v>1117069000</v>
+      </c>
+      <c r="K22">
         <v>41.8939393939394</v>
       </c>
-      <c r="K22" t="s">
-        <v>64</v>
-      </c>
-      <c r="L22">
-        <v>1117069000</v>
+      <c r="L22" t="s">
+        <v>95</v>
       </c>
       <c r="M22">
         <v>35086923</v>
@@ -2737,96 +4720,186 @@
         <v>40237.29701834862</v>
       </c>
       <c r="P22">
+        <v>88.5885238973506</v>
+      </c>
+      <c r="Q22">
+        <v>11.41147610264941</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>17.61576905903091</v>
+      </c>
+      <c r="T22">
+        <v>11.50622477097806</v>
+      </c>
+      <c r="U22">
+        <v>9.396322417044095</v>
+      </c>
+      <c r="V22">
+        <v>19.48535001516092</v>
+      </c>
+      <c r="W22">
+        <v>30.5798691136296</v>
+      </c>
+      <c r="X22">
+        <v>11.41147610264941</v>
+      </c>
+      <c r="Y22">
+        <v>42.58827240792817</v>
+      </c>
+      <c r="Z22">
+        <v>29.34989103319205</v>
+      </c>
+      <c r="AA22">
+        <v>28.06183655887979</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
         <v>3.405336304069753</v>
       </c>
-      <c r="Q22">
+      <c r="AG22">
         <v>3.886290214163265</v>
       </c>
-      <c r="R22">
+      <c r="AH22">
         <v>5.068435497179391</v>
       </c>
-      <c r="S22">
+      <c r="AI22">
         <v>6.397113237886377</v>
       </c>
-      <c r="T22">
+      <c r="AJ22">
         <v>17.91580572710807</v>
       </c>
-      <c r="U22">
+      <c r="AK22">
         <v>4.508199071773834</v>
       </c>
-      <c r="V22">
+      <c r="AL22">
         <v>3.325601504583346</v>
       </c>
-      <c r="W22">
+      <c r="AM22">
         <v>17.82100086148905</v>
       </c>
-      <c r="X22">
+      <c r="AN22">
         <v>5.226717151002384</v>
       </c>
-      <c r="Y22">
+      <c r="AO22">
         <v>32.45299469149803</v>
       </c>
-      <c r="Z22">
+      <c r="AP22">
         <v>1.071679287750596</v>
       </c>
-      <c r="AA22">
+      <c r="AQ22">
         <v>0.04496556452100402</v>
       </c>
-      <c r="AB22">
-        <v>0</v>
-      </c>
-      <c r="AC22">
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
         <v>3.158507795910174</v>
       </c>
-      <c r="AD22">
+      <c r="AT22">
         <v>34.17645195048879</v>
       </c>
-      <c r="AE22">
+      <c r="AU22">
         <v>6.743111866777261</v>
       </c>
-      <c r="AF22">
+      <c r="AV22">
         <v>11.706821652614</v>
       </c>
-      <c r="AG22">
+      <c r="AW22">
         <v>43.10096762118468</v>
       </c>
+      <c r="AX22">
+        <v>9.351232821698272</v>
+      </c>
+      <c r="AY22">
+        <v>19.00237828064889</v>
+      </c>
+      <c r="AZ22">
+        <v>4.462518412914122</v>
+      </c>
+      <c r="BA22">
+        <v>14.9468182248412</v>
+      </c>
+      <c r="BB22">
+        <v>5.481174234058654</v>
+      </c>
+      <c r="BC22">
+        <v>46.76337228659236</v>
+      </c>
+      <c r="BD22">
+        <v>4.240478668933152</v>
+      </c>
+      <c r="BE22">
+        <v>4.721951343809772</v>
+      </c>
+      <c r="BF22">
+        <v>3.74987835952443</v>
+      </c>
+      <c r="BG22">
+        <v>39.29212232603013</v>
+      </c>
+      <c r="BH22">
+        <v>76.90214528301613</v>
+      </c>
+      <c r="BI22">
+        <v>92.34499194927977</v>
+      </c>
+      <c r="BJ22">
+        <v>28.54414596857069</v>
+      </c>
+      <c r="BK22">
+        <v>25.16461196383622</v>
+      </c>
     </row>
-    <row r="23" spans="1:33">
+    <row r="23" spans="1:63">
       <c r="A23" s="1">
-        <v>265148</v>
+        <v>287541</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23">
+        <v>83</v>
+      </c>
+      <c r="C23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23">
         <v>202110</v>
       </c>
-      <c r="D23">
+      <c r="F23">
         <v>2021</v>
       </c>
-      <c r="E23">
-        <v>82511163</v>
-      </c>
-      <c r="F23">
+      <c r="G23">
         <v>1069094068</v>
       </c>
-      <c r="G23" t="s">
-        <v>61</v>
-      </c>
       <c r="H23" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I23" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="J23">
+        <v>1117069000</v>
+      </c>
+      <c r="K23">
         <v>41.8939393939394</v>
       </c>
-      <c r="K23" t="s">
-        <v>64</v>
-      </c>
-      <c r="L23">
-        <v>1117069000</v>
+      <c r="L23" t="s">
+        <v>95</v>
       </c>
       <c r="M23">
         <v>48428924</v>
@@ -2838,96 +4911,186 @@
         <v>45430.51031894935</v>
       </c>
       <c r="P23">
+        <v>80.58701333112418</v>
+      </c>
+      <c r="Q23">
+        <v>19.41298666887581</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>13.1916982049818</v>
+      </c>
+      <c r="T23">
+        <v>20.34445779798865</v>
+      </c>
+      <c r="U23">
+        <v>9.673080433502919</v>
+      </c>
+      <c r="V23">
+        <v>14.04653778473377</v>
+      </c>
+      <c r="W23">
+        <v>27.19608031101414</v>
+      </c>
+      <c r="X23">
+        <v>15.54814546777872</v>
+      </c>
+      <c r="Y23">
+        <v>41.15537436677305</v>
+      </c>
+      <c r="Z23">
+        <v>31.0739246323127</v>
+      </c>
+      <c r="AA23">
+        <v>27.76697054181919</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
         <v>3.713839053702701</v>
       </c>
-      <c r="Q23">
+      <c r="AG23">
         <v>6.74093958478202</v>
       </c>
-      <c r="R23">
+      <c r="AH23">
         <v>11.32377981307204</v>
       </c>
-      <c r="S23">
+      <c r="AI23">
         <v>7.001267069241512</v>
       </c>
-      <c r="T23">
+      <c r="AJ23">
         <v>31.14271680370185</v>
       </c>
-      <c r="U23">
+      <c r="AK23">
         <v>0.07523449085922289</v>
       </c>
-      <c r="V23">
+      <c r="AL23">
         <v>2.753078812157792</v>
       </c>
-      <c r="W23">
+      <c r="AM23">
         <v>16.22884484734784</v>
       </c>
-      <c r="X23">
+      <c r="AN23">
         <v>6.409967097348683</v>
       </c>
-      <c r="Y23">
+      <c r="AO23">
         <v>14.6140628868814</v>
       </c>
-      <c r="Z23">
+      <c r="AP23">
         <v>0.5015632723948193</v>
       </c>
-      <c r="AA23">
+      <c r="AQ23">
         <v>0.5148033551189367</v>
       </c>
-      <c r="AB23">
-        <v>0</v>
-      </c>
-      <c r="AC23">
+      <c r="AR23">
+        <v>0</v>
+      </c>
+      <c r="AS23">
         <v>17.98311503679082</v>
       </c>
-      <c r="AD23">
+      <c r="AT23">
         <v>18.07910806855837</v>
       </c>
-      <c r="AE23">
+      <c r="AU23">
         <v>15.83311665813595</v>
       </c>
-      <c r="AF23">
+      <c r="AV23">
         <v>9.488344584323203</v>
       </c>
-      <c r="AG23">
+      <c r="AW23">
         <v>37.60367948377296</v>
       </c>
+      <c r="AX23">
+        <v>13.74161919104376</v>
+      </c>
+      <c r="AY23">
+        <v>14.60366465379243</v>
+      </c>
+      <c r="AZ23">
+        <v>3.637240406993143</v>
+      </c>
+      <c r="BA23">
+        <v>16.30895011997376</v>
+      </c>
+      <c r="BB23">
+        <v>15.11810762180056</v>
+      </c>
+      <c r="BC23">
+        <v>36.59041800639635</v>
+      </c>
+      <c r="BD23">
+        <v>10.14913278519258</v>
+      </c>
+      <c r="BE23">
+        <v>1.842027310786422</v>
+      </c>
+      <c r="BF23">
+        <v>4.744890555074071</v>
+      </c>
+      <c r="BG23">
+        <v>30.36292742824515</v>
+      </c>
+      <c r="BH23">
+        <v>73.98551424268688</v>
+      </c>
+      <c r="BI23">
+        <v>95.92152542641664</v>
+      </c>
+      <c r="BJ23">
+        <v>34.36388022166258</v>
+      </c>
+      <c r="BK23">
+        <v>21.63574131855583</v>
+      </c>
     </row>
-    <row r="24" spans="1:33">
+    <row r="24" spans="1:63">
       <c r="A24" s="1">
-        <v>278112</v>
+        <v>301556</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24">
+        <v>84</v>
+      </c>
+      <c r="C24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24">
         <v>202111</v>
       </c>
-      <c r="D24">
+      <c r="F24">
         <v>2021</v>
       </c>
-      <c r="E24">
-        <v>82511163</v>
-      </c>
-      <c r="F24">
+      <c r="G24">
         <v>1069094068</v>
       </c>
-      <c r="G24" t="s">
-        <v>61</v>
-      </c>
       <c r="H24" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I24" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="J24">
+        <v>1117069000</v>
+      </c>
+      <c r="K24">
         <v>41.8939393939394</v>
       </c>
-      <c r="K24" t="s">
-        <v>64</v>
-      </c>
-      <c r="L24">
-        <v>1117069000</v>
+      <c r="L24" t="s">
+        <v>95</v>
       </c>
       <c r="M24">
         <v>31734471</v>
@@ -2939,96 +5102,186 @@
         <v>36602.61937716263</v>
       </c>
       <c r="P24">
+        <v>83.19779760784417</v>
+      </c>
+      <c r="Q24">
+        <v>16.80220239215583</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>23.92835917069486</v>
+      </c>
+      <c r="T24">
+        <v>19.04205469156867</v>
+      </c>
+      <c r="U24">
+        <v>9.854002645262309</v>
+      </c>
+      <c r="V24">
+        <v>13.03941941776814</v>
+      </c>
+      <c r="W24">
+        <v>17.33396168255018</v>
+      </c>
+      <c r="X24">
+        <v>16.80220239215583</v>
+      </c>
+      <c r="Y24">
+        <v>29.29663644338045</v>
+      </c>
+      <c r="Z24">
+        <v>45.07616262643862</v>
+      </c>
+      <c r="AA24">
+        <v>25.62720093018093</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
         <v>0.1425446039418776</v>
       </c>
-      <c r="Q24">
+      <c r="AG24">
         <v>9.621455117370635</v>
       </c>
-      <c r="R24">
+      <c r="AH24">
         <v>5.507274056340817</v>
       </c>
-      <c r="S24">
+      <c r="AI24">
         <v>14.52004825887912</v>
       </c>
-      <c r="T24">
+      <c r="AJ24">
         <v>16.02746416790751</v>
       </c>
-      <c r="U24">
+      <c r="AK24">
         <v>0.9821790005574695</v>
       </c>
-      <c r="V24">
+      <c r="AL24">
         <v>2.833179292952449</v>
       </c>
-      <c r="W24">
+      <c r="AM24">
         <v>5.194632934640694</v>
       </c>
-      <c r="X24">
+      <c r="AN24">
         <v>7.349994152100408</v>
       </c>
-      <c r="Y24">
+      <c r="AO24">
         <v>37.82345567474561</v>
       </c>
-      <c r="Z24">
+      <c r="AP24">
         <v>0.917183386482163</v>
       </c>
-      <c r="AA24">
-        <v>0</v>
-      </c>
-      <c r="AB24">
-        <v>0</v>
-      </c>
-      <c r="AC24">
+      <c r="AQ24">
+        <v>0</v>
+      </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
+      <c r="AS24">
         <v>3.053544896336857</v>
       </c>
-      <c r="AD24">
+      <c r="AT24">
         <v>25.16615385458923</v>
       </c>
-      <c r="AE24">
+      <c r="AU24">
         <v>8.427322315219937</v>
       </c>
-      <c r="AF24">
+      <c r="AV24">
         <v>17.39645802761294</v>
       </c>
-      <c r="AG24">
+      <c r="AW24">
         <v>45.04156477919546</v>
       </c>
+      <c r="AX24">
+        <v>11.69223165906878</v>
+      </c>
+      <c r="AY24">
+        <v>4.31917227547294</v>
+      </c>
+      <c r="AZ24">
+        <v>0.9918616560521839</v>
+      </c>
+      <c r="BA24">
+        <v>19.78677244816843</v>
+      </c>
+      <c r="BB24">
+        <v>35.01873939382824</v>
+      </c>
+      <c r="BC24">
+        <v>28.19122256740943</v>
+      </c>
+      <c r="BD24">
+        <v>11.64446621467237</v>
+      </c>
+      <c r="BE24">
+        <v>1.124723604499347</v>
+      </c>
+      <c r="BF24">
+        <v>3.436083652379143</v>
+      </c>
+      <c r="BG24">
+        <v>33.47822169022449</v>
+      </c>
+      <c r="BH24">
+        <v>72.1155513290264</v>
+      </c>
+      <c r="BI24">
+        <v>91.20336355661955</v>
+      </c>
+      <c r="BJ24">
+        <v>29.89045042534347</v>
+      </c>
+      <c r="BK24">
+        <v>17.34363849014531</v>
+      </c>
     </row>
-    <row r="25" spans="1:33">
+    <row r="25" spans="1:63">
       <c r="A25" s="1">
-        <v>291125</v>
+        <v>315612</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25">
+        <v>85</v>
+      </c>
+      <c r="C25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25">
         <v>202112</v>
       </c>
-      <c r="D25">
+      <c r="F25">
         <v>2021</v>
       </c>
-      <c r="E25">
-        <v>82511163</v>
-      </c>
-      <c r="F25">
+      <c r="G25">
         <v>1069094068</v>
       </c>
-      <c r="G25" t="s">
-        <v>61</v>
-      </c>
       <c r="H25" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I25" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="J25">
+        <v>1117069000</v>
+      </c>
+      <c r="K25">
         <v>41.8939393939394</v>
       </c>
-      <c r="K25" t="s">
-        <v>64</v>
-      </c>
-      <c r="L25">
-        <v>1117069000</v>
+      <c r="L25" t="s">
+        <v>95</v>
       </c>
       <c r="M25">
         <v>28495406</v>
@@ -3040,96 +5293,186 @@
         <v>31417.20617420066</v>
       </c>
       <c r="P25">
+        <v>87.33405456795387</v>
+      </c>
+      <c r="Q25">
+        <v>12.66594543204613</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>9.089434648869364</v>
+      </c>
+      <c r="T25">
+        <v>20.12221648851046</v>
+      </c>
+      <c r="U25">
+        <v>25.18062147947638</v>
+      </c>
+      <c r="V25">
+        <v>18.04874130377367</v>
+      </c>
+      <c r="W25">
+        <v>14.90304064732399</v>
+      </c>
+      <c r="X25">
+        <v>12.66594543204613</v>
+      </c>
+      <c r="Y25">
+        <v>29.77668257858828</v>
+      </c>
+      <c r="Z25">
+        <v>36.15295081529985</v>
+      </c>
+      <c r="AA25">
+        <v>34.07271502290579</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
         <v>1.314475073280233</v>
       </c>
-      <c r="Q25">
+      <c r="AG25">
         <v>9.658150117601414</v>
       </c>
-      <c r="R25">
+      <c r="AH25">
         <v>6.527036267179348</v>
       </c>
-      <c r="S25">
+      <c r="AI25">
         <v>10.9883707633434</v>
       </c>
-      <c r="T25">
+      <c r="AJ25">
         <v>31.30312149614573</v>
       </c>
-      <c r="U25">
+      <c r="AK25">
         <v>1.217923308409784</v>
       </c>
-      <c r="V25">
+      <c r="AL25">
         <v>2.384108467168357</v>
       </c>
-      <c r="W25">
+      <c r="AM25">
         <v>13.58008589770575</v>
       </c>
-      <c r="X25">
+      <c r="AN25">
         <v>9.685099372509379</v>
       </c>
-      <c r="Y25">
+      <c r="AO25">
         <v>13.34693240306876</v>
       </c>
-      <c r="Z25">
+      <c r="AP25">
         <v>2.609189873272906</v>
       </c>
-      <c r="AA25">
+      <c r="AQ25">
         <v>1.650239726712439</v>
       </c>
-      <c r="AB25">
-        <v>0</v>
-      </c>
-      <c r="AC25">
+      <c r="AR25">
+        <v>0</v>
+      </c>
+      <c r="AS25">
         <v>6.823091726785712</v>
       </c>
-      <c r="AD25">
+      <c r="AT25">
         <v>27.49973220911469</v>
       </c>
-      <c r="AE25">
+      <c r="AU25">
         <v>8.65491859389545</v>
       </c>
-      <c r="AF25">
+      <c r="AV25">
         <v>12.87335728853977</v>
       </c>
-      <c r="AG25">
+      <c r="AW25">
         <v>39.88181899847294</v>
       </c>
+      <c r="AX25">
+        <v>12.66480181226405</v>
+      </c>
+      <c r="AY25">
+        <v>3.877352908395129</v>
+      </c>
+      <c r="AZ25">
+        <v>4.697995174029104</v>
+      </c>
+      <c r="BA25">
+        <v>20.73413148245721</v>
+      </c>
+      <c r="BB25">
+        <v>22.25346508696876</v>
+      </c>
+      <c r="BC25">
+        <v>35.78225353588575</v>
+      </c>
+      <c r="BD25">
+        <v>6.485809569444282</v>
+      </c>
+      <c r="BE25">
+        <v>1.882280485492994</v>
+      </c>
+      <c r="BF25">
+        <v>3.971045919121138</v>
+      </c>
+      <c r="BG25">
+        <v>30.91953346409593</v>
+      </c>
+      <c r="BH25">
+        <v>76.51836178014098</v>
+      </c>
+      <c r="BI25">
+        <v>91.0998411221093</v>
+      </c>
+      <c r="BJ25">
+        <v>37.56900404577495</v>
+      </c>
+      <c r="BK25">
+        <v>14.66977319080837</v>
+      </c>
     </row>
-    <row r="26" spans="1:33">
+    <row r="26" spans="1:63">
       <c r="A26" s="1">
-        <v>304141</v>
+        <v>329670</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26">
+        <v>86</v>
+      </c>
+      <c r="C26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26">
         <v>202201</v>
       </c>
-      <c r="D26">
+      <c r="F26">
         <v>2022</v>
       </c>
-      <c r="E26">
-        <v>82511163</v>
-      </c>
-      <c r="F26">
+      <c r="G26">
         <v>1069094068</v>
       </c>
-      <c r="G26" t="s">
-        <v>61</v>
-      </c>
       <c r="H26" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I26" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="J26">
+        <v>1117069000</v>
+      </c>
+      <c r="K26">
         <v>41.8939393939394</v>
       </c>
-      <c r="K26" t="s">
-        <v>64</v>
-      </c>
-      <c r="L26">
-        <v>1117069000</v>
+      <c r="L26" t="s">
+        <v>95</v>
       </c>
       <c r="M26">
         <v>21721915</v>
@@ -3141,96 +5484,186 @@
         <v>30594.24647887324</v>
       </c>
       <c r="P26">
+        <v>89.04552829941561</v>
+      </c>
+      <c r="Q26">
+        <v>10.95447170058441</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>19.28211995121056</v>
+      </c>
+      <c r="T26">
+        <v>22.57848542543325</v>
+      </c>
+      <c r="U26">
+        <v>8.052024312773527</v>
+      </c>
+      <c r="V26">
+        <v>16.06335545277661</v>
+      </c>
+      <c r="W26">
+        <v>23.07427253720494</v>
+      </c>
+      <c r="X26">
+        <v>10.95447170058441</v>
+      </c>
+      <c r="Y26">
+        <v>38.00664341426619</v>
+      </c>
+      <c r="Z26">
+        <v>42.0672082696208</v>
+      </c>
+      <c r="AA26">
+        <v>19.92878362612136</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
         <v>5.262501416196501</v>
       </c>
-      <c r="Q26">
+      <c r="AG26">
         <v>0.310141780317251</v>
       </c>
-      <c r="R26">
+      <c r="AH26">
         <v>0.1546584898246771</v>
       </c>
-      <c r="S26">
+      <c r="AI26">
         <v>7.411321031778276</v>
       </c>
-      <c r="T26">
+      <c r="AJ26">
         <v>28.36885225036559</v>
       </c>
-      <c r="U26">
+      <c r="AK26">
         <v>8.313453357128044</v>
       </c>
-      <c r="V26">
+      <c r="AL26">
         <v>5.752757962638193</v>
       </c>
-      <c r="W26">
+      <c r="AM26">
         <v>6.344021611354248</v>
       </c>
-      <c r="X26">
+      <c r="AN26">
         <v>8.52364014636831</v>
       </c>
-      <c r="Y26">
+      <c r="AO26">
         <v>29.55865195402891</v>
       </c>
-      <c r="Z26">
+      <c r="AP26">
         <v>7.025914252035329</v>
       </c>
-      <c r="AA26">
+      <c r="AQ26">
         <v>1.723479238363653</v>
       </c>
-      <c r="AB26">
-        <v>0</v>
-      </c>
-      <c r="AC26">
+      <c r="AR26">
+        <v>0</v>
+      </c>
+      <c r="AS26">
         <v>10.82431754612795</v>
       </c>
-      <c r="AD26">
+      <c r="AT26">
         <v>21.54426691661394</v>
       </c>
-      <c r="AE26">
+      <c r="AU26">
         <v>15.44873073069294</v>
       </c>
-      <c r="AF26">
+      <c r="AV26">
         <v>10.14663779367519</v>
       </c>
-      <c r="AG26">
+      <c r="AW26">
         <v>33.28928883249935</v>
       </c>
+      <c r="AX26">
+        <v>20.14701812570393</v>
+      </c>
+      <c r="AY26">
+        <v>0</v>
+      </c>
+      <c r="AZ26">
+        <v>8.656463378574127</v>
+      </c>
+      <c r="BA26">
+        <v>8.25122426038404</v>
+      </c>
+      <c r="BB26">
+        <v>20.10635872067449</v>
+      </c>
+      <c r="BC26">
+        <v>42.83893551466341</v>
+      </c>
+      <c r="BD26">
+        <v>3.132552045710518</v>
+      </c>
+      <c r="BE26">
+        <v>7.690457975735564</v>
+      </c>
+      <c r="BF26">
+        <v>11.66853832086167</v>
+      </c>
+      <c r="BG26">
+        <v>25.97127375694086</v>
+      </c>
+      <c r="BH26">
+        <v>68.26874872542315</v>
+      </c>
+      <c r="BI26">
+        <v>86.48241588598428</v>
+      </c>
+      <c r="BJ26">
+        <v>33.53621018680904</v>
+      </c>
+      <c r="BK26">
+        <v>23.38659840534317</v>
+      </c>
     </row>
-    <row r="27" spans="1:33">
+    <row r="27" spans="1:63">
       <c r="A27" s="1">
-        <v>317145</v>
+        <v>343702</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27">
+        <v>87</v>
+      </c>
+      <c r="C27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27">
         <v>202202</v>
       </c>
-      <c r="D27">
+      <c r="F27">
         <v>2022</v>
       </c>
-      <c r="E27">
-        <v>82511163</v>
-      </c>
-      <c r="F27">
+      <c r="G27">
         <v>1069094068</v>
       </c>
-      <c r="G27" t="s">
-        <v>61</v>
-      </c>
       <c r="H27" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I27" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="J27">
+        <v>1117069000</v>
+      </c>
+      <c r="K27">
         <v>41.8939393939394</v>
       </c>
-      <c r="K27" t="s">
-        <v>64</v>
-      </c>
-      <c r="L27">
-        <v>1117069000</v>
+      <c r="L27" t="s">
+        <v>95</v>
       </c>
       <c r="M27">
         <v>27695552</v>
@@ -3242,96 +5675,186 @@
         <v>38200.76137931034</v>
       </c>
       <c r="P27">
+        <v>80.89958420037991</v>
+      </c>
+      <c r="Q27">
+        <v>19.10041579962009</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>20.04718678508376</v>
+      </c>
+      <c r="T27">
+        <v>8.421349074392886</v>
+      </c>
+      <c r="U27">
+        <v>3.916069144243812</v>
+      </c>
+      <c r="V27">
+        <v>17.52745683350164</v>
+      </c>
+      <c r="W27">
+        <v>30.98752236315781</v>
+      </c>
+      <c r="X27">
+        <v>19.10041579962009</v>
+      </c>
+      <c r="Y27">
+        <v>32.85677306522</v>
+      </c>
+      <c r="Z27">
+        <v>33.21312317949106</v>
+      </c>
+      <c r="AA27">
+        <v>33.92805453020037</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
         <v>0.6775442063765329</v>
       </c>
-      <c r="Q27">
+      <c r="AG27">
         <v>6.78098996257594</v>
       </c>
-      <c r="R27">
+      <c r="AH27">
         <v>7.79649586547327</v>
       </c>
-      <c r="S27">
+      <c r="AI27">
         <v>3.532681766371727</v>
       </c>
-      <c r="T27">
+      <c r="AJ27">
         <v>25.49598554164943</v>
       </c>
-      <c r="U27">
-        <v>0</v>
-      </c>
-      <c r="V27">
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
         <v>8.785606277137932</v>
       </c>
-      <c r="W27">
+      <c r="AM27">
         <v>9.252811135159899</v>
       </c>
-      <c r="X27">
+      <c r="AN27">
         <v>3.963141252429272</v>
       </c>
-      <c r="Y27">
+      <c r="AO27">
         <v>33.72269476773743</v>
       </c>
-      <c r="Z27">
+      <c r="AP27">
         <v>0.4531941699519114</v>
       </c>
-      <c r="AA27">
+      <c r="AQ27">
         <v>0.02868915123988141</v>
       </c>
-      <c r="AB27">
-        <v>0</v>
-      </c>
-      <c r="AC27">
+      <c r="AR27">
+        <v>0</v>
+      </c>
+      <c r="AS27">
         <v>4.477190555364269</v>
       </c>
-      <c r="AD27">
+      <c r="AT27">
         <v>21.67582132827683</v>
       </c>
-      <c r="AE27">
+      <c r="AU27">
         <v>9.479584200379902</v>
       </c>
-      <c r="AF27">
+      <c r="AV27">
         <v>9.072284428922016</v>
       </c>
-      <c r="AG27">
+      <c r="AW27">
         <v>54.80733461604231</v>
       </c>
+      <c r="AX27">
+        <v>15.88635557507574</v>
+      </c>
+      <c r="AY27">
+        <v>7.182948044509097</v>
+      </c>
+      <c r="AZ27">
+        <v>0</v>
+      </c>
+      <c r="BA27">
+        <v>23.98825150840106</v>
+      </c>
+      <c r="BB27">
+        <v>20.01476375628837</v>
+      </c>
+      <c r="BC27">
+        <v>32.91973034081429</v>
+      </c>
+      <c r="BD27">
+        <v>2.471686342991106</v>
+      </c>
+      <c r="BE27">
+        <v>1.38433911481526</v>
+      </c>
+      <c r="BF27">
+        <v>4.453258009083914</v>
+      </c>
+      <c r="BG27">
+        <v>19.7558360201667</v>
+      </c>
+      <c r="BH27">
+        <v>80.7975278239625</v>
+      </c>
+      <c r="BI27">
+        <v>95.6713801486968</v>
+      </c>
+      <c r="BJ27">
+        <v>34.82776679807645</v>
+      </c>
+      <c r="BK27">
+        <v>17.71225166409393</v>
+      </c>
     </row>
-    <row r="28" spans="1:33">
+    <row r="28" spans="1:63">
       <c r="A28" s="1">
-        <v>330151</v>
+        <v>357738</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28">
+        <v>88</v>
+      </c>
+      <c r="C28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28">
         <v>202203</v>
       </c>
-      <c r="D28">
+      <c r="F28">
         <v>2022</v>
       </c>
-      <c r="E28">
-        <v>82511163</v>
-      </c>
-      <c r="F28">
+      <c r="G28">
         <v>1069094068</v>
       </c>
-      <c r="G28" t="s">
-        <v>61</v>
-      </c>
       <c r="H28" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I28" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="J28">
+        <v>1117069000</v>
+      </c>
+      <c r="K28">
         <v>41.8939393939394</v>
       </c>
-      <c r="K28" t="s">
-        <v>64</v>
-      </c>
-      <c r="L28">
-        <v>1117069000</v>
+      <c r="L28" t="s">
+        <v>95</v>
       </c>
       <c r="M28">
         <v>27582424</v>
@@ -3343,96 +5866,186 @@
         <v>30310.35604395604</v>
       </c>
       <c r="P28">
+        <v>89.43508355103236</v>
+      </c>
+      <c r="Q28">
+        <v>10.56491644896765</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>12.9599456559728</v>
+      </c>
+      <c r="T28">
+        <v>23.61946141426874</v>
+      </c>
+      <c r="U28">
+        <v>12.2960906256825</v>
+      </c>
+      <c r="V28">
+        <v>21.66037240309263</v>
+      </c>
+      <c r="W28">
+        <v>18.89256310612875</v>
+      </c>
+      <c r="X28">
+        <v>10.56491644896765</v>
+      </c>
+      <c r="Y28">
+        <v>28.17429162136004</v>
+      </c>
+      <c r="Z28">
+        <v>44.23683858242482</v>
+      </c>
+      <c r="AA28">
+        <v>25.61922421539166</v>
+      </c>
+      <c r="AB28">
+        <v>1.97629592671043</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
         <v>6.260918601642844</v>
       </c>
-      <c r="Q28">
+      <c r="AG28">
         <v>4.550221446091903</v>
       </c>
-      <c r="R28">
+      <c r="AH28">
         <v>6.137586012019828</v>
       </c>
-      <c r="S28">
+      <c r="AI28">
         <v>11.01040338151571</v>
       </c>
-      <c r="T28">
+      <c r="AJ28">
         <v>16.91970399483381</v>
       </c>
-      <c r="U28">
+      <c r="AK28">
         <v>0.1928600307210127</v>
       </c>
-      <c r="V28">
+      <c r="AL28">
         <v>12.32775088295358</v>
       </c>
-      <c r="W28">
+      <c r="AM28">
         <v>12.88399154621073</v>
       </c>
-      <c r="X28">
+      <c r="AN28">
         <v>7.53719746386322</v>
       </c>
-      <c r="Y28">
+      <c r="AO28">
         <v>22.1860659483735</v>
       </c>
-      <c r="Z28">
+      <c r="AP28">
         <v>5.126169254739902</v>
       </c>
-      <c r="AA28">
+      <c r="AQ28">
         <v>1.11434911594427</v>
       </c>
-      <c r="AB28">
-        <v>0</v>
-      </c>
-      <c r="AC28">
+      <c r="AR28">
+        <v>0</v>
+      </c>
+      <c r="AS28">
         <v>1.811056956415434</v>
       </c>
-      <c r="AD28">
+      <c r="AT28">
         <v>15.89016395150767</v>
       </c>
-      <c r="AE28">
+      <c r="AU28">
         <v>10.55639385138884</v>
       </c>
-      <c r="AF28">
+      <c r="AV28">
         <v>16.2631219069071</v>
       </c>
-      <c r="AG28">
+      <c r="AW28">
         <v>49.24204565487065</v>
       </c>
+      <c r="AX28">
+        <v>26.04251414378954</v>
+      </c>
+      <c r="AY28">
+        <v>0.1868951575829594</v>
+      </c>
+      <c r="AZ28">
+        <v>5.358726979180655</v>
+      </c>
+      <c r="BA28">
+        <v>28.53431091698105</v>
+      </c>
+      <c r="BB28">
+        <v>5.559522059410006</v>
+      </c>
+      <c r="BC28">
+        <v>34.31468108894273</v>
+      </c>
+      <c r="BD28">
+        <v>0.3862096848340813</v>
+      </c>
+      <c r="BE28">
+        <v>6.314806841487173</v>
+      </c>
+      <c r="BF28">
+        <v>7.235581706669435</v>
+      </c>
+      <c r="BG28">
+        <v>25.30085257481358</v>
+      </c>
+      <c r="BH28">
+        <v>56.9722607998485</v>
+      </c>
+      <c r="BI28">
+        <v>80.06543166909478</v>
+      </c>
+      <c r="BJ28">
+        <v>24.29265564911917</v>
+      </c>
+      <c r="BK28">
+        <v>20.65769023781231</v>
+      </c>
     </row>
-    <row r="29" spans="1:33">
+    <row r="29" spans="1:63">
       <c r="A29" s="1">
-        <v>343195</v>
+        <v>371795</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29">
+        <v>89</v>
+      </c>
+      <c r="C29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29">
         <v>202204</v>
       </c>
-      <c r="D29">
+      <c r="F29">
         <v>2022</v>
       </c>
-      <c r="E29">
-        <v>82511163</v>
-      </c>
-      <c r="F29">
+      <c r="G29">
         <v>1069094068</v>
       </c>
-      <c r="G29" t="s">
-        <v>61</v>
-      </c>
       <c r="H29" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I29" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="J29">
+        <v>1117069000</v>
+      </c>
+      <c r="K29">
         <v>41.8939393939394</v>
       </c>
-      <c r="K29" t="s">
-        <v>64</v>
-      </c>
-      <c r="L29">
-        <v>1117069000</v>
+      <c r="L29" t="s">
+        <v>95</v>
       </c>
       <c r="M29">
         <v>29631039</v>
@@ -3444,96 +6057,186 @@
         <v>29750.03915662651</v>
       </c>
       <c r="P29">
+        <v>85.91989502966804</v>
+      </c>
+      <c r="Q29">
+        <v>14.08010497033196</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>19.13408397626556</v>
+      </c>
+      <c r="T29">
+        <v>25.95695230835477</v>
+      </c>
+      <c r="U29">
+        <v>16.45689740444134</v>
+      </c>
+      <c r="V29">
+        <v>9.79868099798998</v>
+      </c>
+      <c r="W29">
+        <v>14.57328034261641</v>
+      </c>
+      <c r="X29">
+        <v>14.08010497033196</v>
+      </c>
+      <c r="Y29">
+        <v>37.33960605397604</v>
+      </c>
+      <c r="Z29">
+        <v>32.47822982515057</v>
+      </c>
+      <c r="AA29">
+        <v>30.18216412087338</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
         <v>5.264213979806783</v>
       </c>
-      <c r="Q29">
+      <c r="AG29">
         <v>3.532064698440038</v>
       </c>
-      <c r="R29">
+      <c r="AH29">
         <v>3.822757103454928</v>
       </c>
-      <c r="S29">
+      <c r="AI29">
         <v>12.61682856311586</v>
       </c>
-      <c r="T29">
+      <c r="AJ29">
         <v>28.15034387960543</v>
       </c>
-      <c r="U29">
+      <c r="AK29">
         <v>4.139342821896998</v>
       </c>
-      <c r="V29">
+      <c r="AL29">
         <v>7.099091396018885</v>
       </c>
-      <c r="W29">
+      <c r="AM29">
         <v>11.37997335429244</v>
       </c>
-      <c r="X29">
+      <c r="AN29">
         <v>8.453282665518412</v>
       </c>
-      <c r="Y29">
+      <c r="AO29">
         <v>15.54210153785022</v>
       </c>
-      <c r="Z29">
+      <c r="AP29">
         <v>2.396769013398416</v>
       </c>
-      <c r="AA29">
+      <c r="AQ29">
         <v>0.7522934140108959</v>
       </c>
-      <c r="AB29">
-        <v>0</v>
-      </c>
-      <c r="AC29">
+      <c r="AR29">
+        <v>0</v>
+      </c>
+      <c r="AS29">
         <v>10.15969921810706</v>
       </c>
-      <c r="AD29">
+      <c r="AT29">
         <v>27.49215786257107</v>
       </c>
-      <c r="AE29">
+      <c r="AU29">
         <v>18.01577350358858</v>
       </c>
-      <c r="AF29">
+      <c r="AV29">
         <v>12.28144042434691</v>
       </c>
-      <c r="AG29">
+      <c r="AW29">
         <v>28.90809982160936</v>
       </c>
+      <c r="AX29">
+        <v>19.72873106440851</v>
+      </c>
+      <c r="AY29">
+        <v>2.963828614987143</v>
+      </c>
+      <c r="AZ29">
+        <v>3.883387635850366</v>
+      </c>
+      <c r="BA29">
+        <v>26.4897939947364</v>
+      </c>
+      <c r="BB29">
+        <v>8.868709966599551</v>
+      </c>
+      <c r="BC29">
+        <v>38.06178198105034</v>
+      </c>
+      <c r="BD29">
+        <v>7.998860357546017</v>
+      </c>
+      <c r="BE29">
+        <v>5.025837699110045</v>
+      </c>
+      <c r="BF29">
+        <v>9.783651578333112</v>
+      </c>
+      <c r="BG29">
+        <v>31.84928720757986</v>
+      </c>
+      <c r="BH29">
+        <v>64.53247670896725</v>
+      </c>
+      <c r="BI29">
+        <v>89.49179449765498</v>
+      </c>
+      <c r="BJ29">
+        <v>22.3409023456788</v>
+      </c>
+      <c r="BK29">
+        <v>16.42466515264619</v>
+      </c>
     </row>
-    <row r="30" spans="1:33">
+    <row r="30" spans="1:63">
       <c r="A30" s="1">
-        <v>356262</v>
+        <v>385900</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30">
+        <v>90</v>
+      </c>
+      <c r="C30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30">
         <v>202205</v>
       </c>
-      <c r="D30">
+      <c r="F30">
         <v>2022</v>
       </c>
-      <c r="E30">
-        <v>82511163</v>
-      </c>
-      <c r="F30">
+      <c r="G30">
         <v>1069094068</v>
       </c>
-      <c r="G30" t="s">
-        <v>61</v>
-      </c>
       <c r="H30" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I30" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="J30">
+        <v>1117069000</v>
+      </c>
+      <c r="K30">
         <v>41.8939393939394</v>
       </c>
-      <c r="K30" t="s">
-        <v>64</v>
-      </c>
-      <c r="L30">
-        <v>1117069000</v>
+      <c r="L30" t="s">
+        <v>95</v>
       </c>
       <c r="M30">
         <v>34428016</v>
@@ -3545,58 +6248,148 @@
         <v>37381.12486427796</v>
       </c>
       <c r="P30">
+        <v>81.86516929468141</v>
+      </c>
+      <c r="Q30">
+        <v>18.1348307053186</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>17.17908298172047</v>
+      </c>
+      <c r="T30">
+        <v>19.79211014889734</v>
+      </c>
+      <c r="U30">
+        <v>9.571706122130301</v>
+      </c>
+      <c r="V30">
+        <v>11.53228529114196</v>
+      </c>
+      <c r="W30">
+        <v>23.78998475079133</v>
+      </c>
+      <c r="X30">
+        <v>18.1348307053186</v>
+      </c>
+      <c r="Y30">
+        <v>23.38200769861383</v>
+      </c>
+      <c r="Z30">
+        <v>52.20652305843008</v>
+      </c>
+      <c r="AA30">
+        <v>24.41512932142242</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
         <v>0.4101976460101564</v>
       </c>
-      <c r="Q30">
+      <c r="AG30">
         <v>4.345201273288591</v>
       </c>
-      <c r="R30">
+      <c r="AH30">
         <v>3.098695684351954</v>
       </c>
-      <c r="S30">
+      <c r="AI30">
         <v>10.69888607580524</v>
       </c>
-      <c r="T30">
+      <c r="AJ30">
         <v>42.52284625056523</v>
       </c>
-      <c r="U30">
+      <c r="AK30">
         <v>0.4501344288907034</v>
       </c>
-      <c r="V30">
+      <c r="AL30">
         <v>3.877762676768827</v>
       </c>
-      <c r="W30">
+      <c r="AM30">
         <v>6.353524909480697</v>
       </c>
-      <c r="X30">
+      <c r="AN30">
         <v>11.23381849131242</v>
       </c>
-      <c r="Y30">
+      <c r="AO30">
         <v>16.99991279892516</v>
       </c>
-      <c r="Z30">
+      <c r="AP30">
         <v>5.453304019610075</v>
       </c>
-      <c r="AA30">
+      <c r="AQ30">
         <v>0.02196047079796872</v>
       </c>
-      <c r="AB30">
-        <v>0</v>
-      </c>
-      <c r="AC30">
+      <c r="AR30">
+        <v>0</v>
+      </c>
+      <c r="AS30">
         <v>3.947968317430781</v>
       </c>
-      <c r="AD30">
+      <c r="AT30">
         <v>27.16596935356368</v>
       </c>
-      <c r="AE30">
+      <c r="AU30">
         <v>14.93773943290836</v>
       </c>
-      <c r="AF30">
+      <c r="AV30">
         <v>10.622735065535</v>
       </c>
-      <c r="AG30">
+      <c r="AW30">
         <v>37.85300318322147</v>
+      </c>
+      <c r="AX30">
+        <v>9.72275904949039</v>
+      </c>
+      <c r="AY30">
+        <v>0.09509882300507819</v>
+      </c>
+      <c r="AZ30">
+        <v>6.354307498869524</v>
+      </c>
+      <c r="BA30">
+        <v>16.37753379224641</v>
+      </c>
+      <c r="BB30">
+        <v>16.90764423718172</v>
+      </c>
+      <c r="BC30">
+        <v>50.54265659920688</v>
+      </c>
+      <c r="BD30">
+        <v>6.048411577361879</v>
+      </c>
+      <c r="BE30">
+        <v>1.697185728041953</v>
+      </c>
+      <c r="BF30">
+        <v>0.7544506625069536</v>
+      </c>
+      <c r="BG30">
+        <v>23.95257813287876</v>
+      </c>
+      <c r="BH30">
+        <v>40.61235650291321</v>
+      </c>
+      <c r="BI30">
+        <v>94.01230128044556</v>
+      </c>
+      <c r="BJ30">
+        <v>22.97786660724219</v>
+      </c>
+      <c r="BK30">
+        <v>19.64505884974609</v>
       </c>
     </row>
   </sheetData>

--- a/시장분석용_정보/시장분석용_1117069000.xlsx
+++ b/시장분석용_정보/시장분석용_1117069000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="36">
   <si>
     <t>sim_cd</t>
   </si>
@@ -53,54 +53,6 @@
   </si>
   <si>
     <t>AVG_AMT</t>
-  </si>
-  <si>
-    <t>WK_RT</t>
-  </si>
-  <si>
-    <t>WE_RT</t>
-  </si>
-  <si>
-    <t>WK_1_RT</t>
-  </si>
-  <si>
-    <t>WK_2_RT</t>
-  </si>
-  <si>
-    <t>WK_3_RT</t>
-  </si>
-  <si>
-    <t>WK_4_RT</t>
-  </si>
-  <si>
-    <t>WK_5_RT</t>
-  </si>
-  <si>
-    <t>WK_6_RT</t>
-  </si>
-  <si>
-    <t>WK_7_RT</t>
-  </si>
-  <si>
-    <t>TIME_0510_RT</t>
-  </si>
-  <si>
-    <t>TIME_1114_RT</t>
-  </si>
-  <si>
-    <t>TIME_1517_RT</t>
-  </si>
-  <si>
-    <t>TIME_1819_RT</t>
-  </si>
-  <si>
-    <t>TIME_2021_RT</t>
-  </si>
-  <si>
-    <t>TIME_2224_RT</t>
-  </si>
-  <si>
-    <t>TIME_0104_RT</t>
   </si>
   <si>
     <t>F20_RT</t>
@@ -527,13 +479,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV30"/>
+  <dimension ref="A1:AF30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:32">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -627,64 +579,16 @@
       <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:32">
       <c r="A2" s="1">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D2">
         <v>202001</v>
@@ -696,10 +600,10 @@
         <v>1069094068</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I2">
         <v>1117069000</v>
@@ -708,7 +612,7 @@
         <v>41.8939393939394</v>
       </c>
       <c r="K2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L2">
         <v>41289332</v>
@@ -720,117 +624,69 @@
         <v>39323.17333333333</v>
       </c>
       <c r="O2">
-        <v>87.69653298895705</v>
+        <v>3.261046681985555</v>
       </c>
       <c r="P2">
-        <v>12.30346701104295</v>
+        <v>2.59698811087571</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>8.934399183789168</v>
       </c>
       <c r="R2">
-        <v>17.7659073193531</v>
+        <v>9.386968131622957</v>
       </c>
       <c r="S2">
-        <v>15.42189893772077</v>
+        <v>28.3934251028813</v>
       </c>
       <c r="T2">
-        <v>21.4116582213052</v>
+        <v>1.332386219520335</v>
       </c>
       <c r="U2">
-        <v>18.8765310393009</v>
+        <v>5.716861903699484</v>
       </c>
       <c r="V2">
-        <v>14.22053747127708</v>
+        <v>6.451672351589509</v>
       </c>
       <c r="W2">
-        <v>12.30346701104295</v>
+        <v>8.196948152370204</v>
       </c>
       <c r="X2">
-        <v>29.41699444253542</v>
+        <v>25.72092437412163</v>
       </c>
       <c r="Y2">
-        <v>52.03300555746458</v>
+        <v>0.4860276775608769</v>
       </c>
       <c r="Z2">
-        <v>18.55</v>
+        <v>0</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>7.146306402825796</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>32.55039470146914</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>33.55218789395769</v>
       </c>
       <c r="AE2">
-        <v>3.261046681985555</v>
+        <v>7.774214988510833</v>
       </c>
       <c r="AF2">
-        <v>2.59698811087571</v>
-      </c>
-      <c r="AG2">
-        <v>8.934399183789168</v>
-      </c>
-      <c r="AH2">
-        <v>9.386968131622957</v>
-      </c>
-      <c r="AI2">
-        <v>28.3934251028813</v>
-      </c>
-      <c r="AJ2">
-        <v>1.332386219520335</v>
-      </c>
-      <c r="AK2">
-        <v>5.716861903699484</v>
-      </c>
-      <c r="AL2">
-        <v>6.451672351589509</v>
-      </c>
-      <c r="AM2">
-        <v>8.196948152370204</v>
-      </c>
-      <c r="AN2">
-        <v>25.72092437412163</v>
-      </c>
-      <c r="AO2">
-        <v>0.4860276775608769</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>7.146306402825796</v>
-      </c>
-      <c r="AS2">
-        <v>32.55039470146914</v>
-      </c>
-      <c r="AT2">
-        <v>33.55218789395769</v>
-      </c>
-      <c r="AU2">
-        <v>7.774214988510833</v>
-      </c>
-      <c r="AV2">
         <v>18.49248854813151</v>
       </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:32">
       <c r="A3" s="1">
         <v>13495</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>202002</v>
@@ -842,10 +698,10 @@
         <v>1069094068</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I3">
         <v>1117069000</v>
@@ -854,7 +710,7 @@
         <v>41.8939393939394</v>
       </c>
       <c r="K3" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L3">
         <v>28040004</v>
@@ -866,117 +722,69 @@
         <v>40000.00570613409</v>
       </c>
       <c r="O3">
-        <v>83.19777940010279</v>
+        <v>3.700211594477662</v>
       </c>
       <c r="P3">
-        <v>16.8022205998972</v>
+        <v>1.982169944412276</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>6.192042775742827</v>
       </c>
       <c r="R3">
-        <v>15.23156330291536</v>
+        <v>9.055313435404646</v>
       </c>
       <c r="S3">
-        <v>15.43353519386089</v>
+        <v>26.82221497150999</v>
       </c>
       <c r="T3">
-        <v>9.914832902662923</v>
+        <v>2.043467653214314</v>
       </c>
       <c r="U3">
-        <v>14.13627009682309</v>
+        <v>9.457175042842362</v>
       </c>
       <c r="V3">
-        <v>28.47817779127278</v>
+        <v>5.032169944412276</v>
       </c>
       <c r="W3">
-        <v>16.8022205998972</v>
+        <v>5.234474970117694</v>
       </c>
       <c r="X3">
-        <v>18.30317726131565</v>
+        <v>30.47075966786595</v>
       </c>
       <c r="Y3">
-        <v>43.37747669151545</v>
+        <v>0.05700056283872142</v>
       </c>
       <c r="Z3">
-        <v>36.99936856071775</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>1.319977486451143</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>11.8812808236404</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>24.64678562421032</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>32.51583565109334</v>
       </c>
       <c r="AE3">
-        <v>3.700211594477662</v>
+        <v>20.13554754343117</v>
       </c>
       <c r="AF3">
-        <v>1.982169944412276</v>
-      </c>
-      <c r="AG3">
-        <v>6.192042775742827</v>
-      </c>
-      <c r="AH3">
-        <v>9.055313435404646</v>
-      </c>
-      <c r="AI3">
-        <v>26.82221497150999</v>
-      </c>
-      <c r="AJ3">
-        <v>2.043467653214314</v>
-      </c>
-      <c r="AK3">
-        <v>9.457175042842362</v>
-      </c>
-      <c r="AL3">
-        <v>5.032169944412276</v>
-      </c>
-      <c r="AM3">
-        <v>5.234474970117694</v>
-      </c>
-      <c r="AN3">
-        <v>30.47075966786595</v>
-      </c>
-      <c r="AO3">
-        <v>0.05700056283872142</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>11.8812808236404</v>
-      </c>
-      <c r="AS3">
-        <v>24.64678562421032</v>
-      </c>
-      <c r="AT3">
-        <v>32.51583565109334</v>
-      </c>
-      <c r="AU3">
-        <v>20.13554754343117</v>
-      </c>
-      <c r="AV3">
         <v>10.76035001992154</v>
       </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:32">
       <c r="A4" s="1">
         <v>26980</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D4">
         <v>202003</v>
@@ -988,10 +796,10 @@
         <v>1069094068</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I4">
         <v>1117069000</v>
@@ -1000,7 +808,7 @@
         <v>41.8939393939394</v>
       </c>
       <c r="K4" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L4">
         <v>25111438</v>
@@ -1012,117 +820,69 @@
         <v>39607.94637223975</v>
       </c>
       <c r="O4">
-        <v>84.95550104378729</v>
+        <v>0.1867074677284511</v>
       </c>
       <c r="P4">
-        <v>15.0444989562127</v>
+        <v>2.343908950176409</v>
       </c>
       <c r="Q4">
-        <v>2.36745069079676</v>
+        <v>9.675181403788983</v>
       </c>
       <c r="R4">
-        <v>10.87605583399883</v>
+        <v>12.10338057183344</v>
       </c>
       <c r="S4">
-        <v>12.51375658534569</v>
+        <v>48.66506695235853</v>
       </c>
       <c r="T4">
-        <v>13.57680345904524</v>
+        <v>0.09708788321879457</v>
       </c>
       <c r="U4">
-        <v>21.64002555966728</v>
+        <v>1.58530820895243</v>
       </c>
       <c r="V4">
-        <v>26.35139130702113</v>
+        <v>8.976969882011536</v>
       </c>
       <c r="W4">
-        <v>12.67704826541594</v>
+        <v>3.547441886840571</v>
       </c>
       <c r="X4">
-        <v>30.63460020170888</v>
+        <v>12.82894679309086</v>
       </c>
       <c r="Y4">
-        <v>42.04546582796254</v>
+        <v>0.08215128580051848</v>
       </c>
       <c r="Z4">
-        <v>27.31740226903772</v>
+        <v>0</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>7.902479729755023</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>29.82965039835632</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>42.59269201787647</v>
       </c>
       <c r="AE4">
-        <v>0.1867074677284511</v>
+        <v>5.166541896963447</v>
       </c>
       <c r="AF4">
-        <v>2.343908950176409</v>
-      </c>
-      <c r="AG4">
-        <v>9.675181403788983</v>
-      </c>
-      <c r="AH4">
-        <v>12.10338057183344</v>
-      </c>
-      <c r="AI4">
-        <v>48.66506695235853</v>
-      </c>
-      <c r="AJ4">
-        <v>0.09708788321879457</v>
-      </c>
-      <c r="AK4">
-        <v>1.58530820895243</v>
-      </c>
-      <c r="AL4">
-        <v>8.976969882011536</v>
-      </c>
-      <c r="AM4">
-        <v>3.547441886840571</v>
-      </c>
-      <c r="AN4">
-        <v>12.82894679309086</v>
-      </c>
-      <c r="AO4">
-        <v>0.08215128580051848</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>7.902479729755023</v>
-      </c>
-      <c r="AS4">
-        <v>29.82965039835632</v>
-      </c>
-      <c r="AT4">
-        <v>42.59269201787647</v>
-      </c>
-      <c r="AU4">
-        <v>5.166541896963447</v>
-      </c>
-      <c r="AV4">
         <v>14.42648467124822</v>
       </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:32">
       <c r="A5" s="1">
         <v>40435</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>202004</v>
@@ -1134,10 +894,10 @@
         <v>1069094068</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I5">
         <v>1117069000</v>
@@ -1146,7 +906,7 @@
         <v>41.8939393939394</v>
       </c>
       <c r="K5" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L5">
         <v>26791668</v>
@@ -1158,117 +918,69 @@
         <v>42661.89171974522</v>
       </c>
       <c r="O5">
-        <v>90.05366396037752</v>
+        <v>2.94639446487617</v>
       </c>
       <c r="P5">
-        <v>9.946336039622466</v>
+        <v>9.410606678912266</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>10.2947259293449</v>
       </c>
       <c r="R5">
-        <v>12.67217047591064</v>
+        <v>4.328424765117274</v>
       </c>
       <c r="S5">
-        <v>12.1243290645435</v>
+        <v>36.50263709150173</v>
       </c>
       <c r="T5">
-        <v>13.04242694034578</v>
+        <v>1.193768923607145</v>
       </c>
       <c r="U5">
-        <v>16.42129544528545</v>
+        <v>3.548447977931049</v>
       </c>
       <c r="V5">
-        <v>35.78757272260914</v>
+        <v>6.898179626218122</v>
       </c>
       <c r="W5">
-        <v>9.946336039622466</v>
+        <v>5.894095700573776</v>
       </c>
       <c r="X5">
-        <v>32.80982472423889</v>
+        <v>18.98684953023455</v>
       </c>
       <c r="Y5">
-        <v>31.0286346915765</v>
+        <v>0.1947841299018785</v>
       </c>
       <c r="Z5">
-        <v>36.16154058418461</v>
+        <v>3.368984906053628</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>5.187619485281767</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>34.93900811886741</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>34.48584598652088</v>
       </c>
       <c r="AE5">
-        <v>2.94639446487617</v>
+        <v>8.434235763894954</v>
       </c>
       <c r="AF5">
-        <v>9.410606678912266</v>
-      </c>
-      <c r="AG5">
-        <v>10.2947259293449</v>
-      </c>
-      <c r="AH5">
-        <v>4.328424765117274</v>
-      </c>
-      <c r="AI5">
-        <v>36.50263709150173</v>
-      </c>
-      <c r="AJ5">
-        <v>1.193768923607145</v>
-      </c>
-      <c r="AK5">
-        <v>3.548447977931049</v>
-      </c>
-      <c r="AL5">
-        <v>6.898179626218122</v>
-      </c>
-      <c r="AM5">
-        <v>5.894095700573776</v>
-      </c>
-      <c r="AN5">
-        <v>18.98684953023455</v>
-      </c>
-      <c r="AO5">
-        <v>0.1947841299018785</v>
-      </c>
-      <c r="AP5">
-        <v>3.368984906053628</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>5.187619485281767</v>
-      </c>
-      <c r="AS5">
-        <v>34.93900811886741</v>
-      </c>
-      <c r="AT5">
-        <v>34.48584598652088</v>
-      </c>
-      <c r="AU5">
-        <v>8.434235763894954</v>
-      </c>
-      <c r="AV5">
         <v>13.39365229779647</v>
       </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:32">
       <c r="A6" s="1">
         <v>53916</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D6">
         <v>202005</v>
@@ -1280,10 +992,10 @@
         <v>1069094068</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I6">
         <v>1117069000</v>
@@ -1292,7 +1004,7 @@
         <v>41.8939393939394</v>
       </c>
       <c r="K6" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L6">
         <v>23875542</v>
@@ -1304,117 +1016,69 @@
         <v>35582.02980625931</v>
       </c>
       <c r="O6">
-        <v>86.61740745906418</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>13.38259254093582</v>
+        <v>4.322389840615974</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>11.56543627700682</v>
       </c>
       <c r="R6">
-        <v>25.86771081217758</v>
+        <v>21.68657607354003</v>
       </c>
       <c r="S6">
-        <v>13.21602745688454</v>
+        <v>22.76462547572742</v>
       </c>
       <c r="T6">
-        <v>11.31174057116693</v>
+        <v>0.1922187140296124</v>
       </c>
       <c r="U6">
-        <v>17.82347242127529</v>
+        <v>0.8948112549654372</v>
       </c>
       <c r="V6">
-        <v>20.10142622856478</v>
+        <v>8.646324878404856</v>
       </c>
       <c r="W6">
-        <v>11.67962250993087</v>
+        <v>9.757544743486871</v>
       </c>
       <c r="X6">
-        <v>33.2426108567504</v>
+        <v>20.16344451070472</v>
       </c>
       <c r="Y6">
-        <v>45.04691693198002</v>
+        <v>0.1855904825113499</v>
       </c>
       <c r="Z6">
-        <v>21.71047221126959</v>
+        <v>0</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>12.55543994016974</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>39.63619492030799</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>24.2138718903219</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>8.632058576931993</v>
       </c>
       <c r="AF6">
-        <v>4.322389840615974</v>
-      </c>
-      <c r="AG6">
-        <v>11.56543627700682</v>
-      </c>
-      <c r="AH6">
-        <v>21.68657607354003</v>
-      </c>
-      <c r="AI6">
-        <v>22.76462547572742</v>
-      </c>
-      <c r="AJ6">
-        <v>0.1922187140296124</v>
-      </c>
-      <c r="AK6">
-        <v>0.8948112549654372</v>
-      </c>
-      <c r="AL6">
-        <v>8.646324878404856</v>
-      </c>
-      <c r="AM6">
-        <v>9.757544743486871</v>
-      </c>
-      <c r="AN6">
-        <v>20.16344451070472</v>
-      </c>
-      <c r="AO6">
-        <v>0.1855904825113499</v>
-      </c>
-      <c r="AP6">
-        <v>0</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>12.55543994016974</v>
-      </c>
-      <c r="AS6">
-        <v>39.63619492030799</v>
-      </c>
-      <c r="AT6">
-        <v>24.2138718903219</v>
-      </c>
-      <c r="AU6">
-        <v>8.632058576931993</v>
-      </c>
-      <c r="AV6">
         <v>14.77021595823877</v>
       </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:32">
       <c r="A7" s="1">
         <v>67502</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D7">
         <v>202006</v>
@@ -1426,10 +1090,10 @@
         <v>1069094068</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I7">
         <v>1117069000</v>
@@ -1438,7 +1102,7 @@
         <v>41.8939393939394</v>
       </c>
       <c r="K7" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L7">
         <v>29072138</v>
@@ -1450,117 +1114,69 @@
         <v>34858.67865707434</v>
       </c>
       <c r="O7">
-        <v>92.00005074824563</v>
+        <v>3.676684928366809</v>
       </c>
       <c r="P7">
-        <v>7.999949251754377</v>
+        <v>5.259465124993558</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>2.387517949316284</v>
       </c>
       <c r="R7">
-        <v>33.42444191342239</v>
+        <v>5.379205040234742</v>
       </c>
       <c r="S7">
-        <v>18.09130013554558</v>
+        <v>37.15454773501694</v>
       </c>
       <c r="T7">
-        <v>18.41206337765733</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>9.593856290170333</v>
+        <v>3.675232548084355</v>
       </c>
       <c r="V7">
-        <v>12.47838903144998</v>
+        <v>4.971610968550025</v>
       </c>
       <c r="W7">
-        <v>7.999949251754377</v>
+        <v>5.453190219446536</v>
       </c>
       <c r="X7">
-        <v>29.8179893890157</v>
+        <v>32.03842709263419</v>
       </c>
       <c r="Y7">
-        <v>38.26396845529558</v>
+        <v>1.736562382856053</v>
       </c>
       <c r="Z7">
-        <v>31.92804215568872</v>
+        <v>0</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>9.451803292898514</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>36.13352440814639</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>29.3462198321981</v>
       </c>
       <c r="AE7">
-        <v>3.676684928366809</v>
+        <v>10.14598944666539</v>
       </c>
       <c r="AF7">
-        <v>5.259465124993558</v>
-      </c>
-      <c r="AG7">
-        <v>2.387517949316284</v>
-      </c>
-      <c r="AH7">
-        <v>5.379205040234742</v>
-      </c>
-      <c r="AI7">
-        <v>37.15454773501694</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-      <c r="AK7">
-        <v>3.675232548084355</v>
-      </c>
-      <c r="AL7">
-        <v>4.971610968550025</v>
-      </c>
-      <c r="AM7">
-        <v>5.453190219446536</v>
-      </c>
-      <c r="AN7">
-        <v>32.03842709263419</v>
-      </c>
-      <c r="AO7">
-        <v>1.736562382856053</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>9.451803292898514</v>
-      </c>
-      <c r="AS7">
-        <v>36.13352440814639</v>
-      </c>
-      <c r="AT7">
-        <v>29.3462198321981</v>
-      </c>
-      <c r="AU7">
-        <v>10.14598944666539</v>
-      </c>
-      <c r="AV7">
         <v>13.171782243879</v>
       </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:32">
       <c r="A8" s="1">
         <v>81107</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D8">
         <v>202007</v>
@@ -1572,10 +1188,10 @@
         <v>1069094068</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I8">
         <v>1117069000</v>
@@ -1584,7 +1200,7 @@
         <v>41.8939393939394</v>
       </c>
       <c r="K8" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L8">
         <v>37211200</v>
@@ -1596,117 +1212,69 @@
         <v>42919.49250288351</v>
       </c>
       <c r="O8">
-        <v>89.68240934181107</v>
+        <v>2.962799014812745</v>
       </c>
       <c r="P8">
-        <v>10.31759065818893</v>
+        <v>5.886813275572946</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>8.986872152738961</v>
       </c>
       <c r="R8">
-        <v>24.38522667342091</v>
+        <v>11.13964892397988</v>
       </c>
       <c r="S8">
-        <v>13.0843788569033</v>
+        <v>30.84660590064281</v>
       </c>
       <c r="T8">
-        <v>16.87985150223589</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>17.00472796953605</v>
+        <v>1.328174185997764</v>
       </c>
       <c r="V8">
-        <v>18.32179397708217</v>
+        <v>8.378958328675239</v>
       </c>
       <c r="W8">
-        <v>10.31759065818893</v>
+        <v>4.075495758803801</v>
       </c>
       <c r="X8">
-        <v>20.57573780394075</v>
+        <v>26.40106282140861</v>
       </c>
       <c r="Y8">
-        <v>38.06952833636109</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>41.35473385969816</v>
+        <v>0</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>3.999988443264393</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>34.81648247973728</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>34.31293115916713</v>
       </c>
       <c r="AE8">
-        <v>2.962799014812745</v>
+        <v>9.914616105366127</v>
       </c>
       <c r="AF8">
-        <v>5.886813275572946</v>
-      </c>
-      <c r="AG8">
-        <v>8.986872152738961</v>
-      </c>
-      <c r="AH8">
-        <v>11.13964892397988</v>
-      </c>
-      <c r="AI8">
-        <v>30.84660590064281</v>
-      </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
-      <c r="AK8">
-        <v>1.328174185997764</v>
-      </c>
-      <c r="AL8">
-        <v>8.378958328675239</v>
-      </c>
-      <c r="AM8">
-        <v>4.075495758803801</v>
-      </c>
-      <c r="AN8">
-        <v>26.40106282140861</v>
-      </c>
-      <c r="AO8">
-        <v>0</v>
-      </c>
-      <c r="AP8">
-        <v>0</v>
-      </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>3.999988443264393</v>
-      </c>
-      <c r="AS8">
-        <v>34.81648247973728</v>
-      </c>
-      <c r="AT8">
-        <v>34.31293115916713</v>
-      </c>
-      <c r="AU8">
-        <v>9.914616105366127</v>
-      </c>
-      <c r="AV8">
         <v>16.95241217509782</v>
       </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:32">
       <c r="A9" s="1">
         <v>94721</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D9">
         <v>202008</v>
@@ -1718,10 +1286,10 @@
         <v>1069094068</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I9">
         <v>1117069000</v>
@@ -1730,7 +1298,7 @@
         <v>41.8939393939394</v>
       </c>
       <c r="K9" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L9">
         <v>28707196</v>
@@ -1742,117 +1310,69 @@
         <v>41665.01596516691</v>
       </c>
       <c r="O9">
-        <v>82.56015792277309</v>
+        <v>0.7928776157727144</v>
       </c>
       <c r="P9">
-        <v>17.43984207722691</v>
+        <v>4.441111632079984</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>2.484942957159592</v>
       </c>
       <c r="R9">
-        <v>26.84084739868011</v>
+        <v>9.890597777644322</v>
       </c>
       <c r="S9">
-        <v>14.62847586228902</v>
+        <v>22.62818334190493</v>
       </c>
       <c r="T9">
-        <v>16.55007989913052</v>
+        <v>2.477977557961425</v>
       </c>
       <c r="U9">
-        <v>15.46077527460362</v>
+        <v>6.67313407411856</v>
       </c>
       <c r="V9">
-        <v>15.87627498554718</v>
+        <v>5.726731328270445</v>
       </c>
       <c r="W9">
-        <v>10.63923746227252</v>
+        <v>5.54225838845424</v>
       </c>
       <c r="X9">
-        <v>34.28104540756959</v>
+        <v>39.34787620915676</v>
       </c>
       <c r="Y9">
-        <v>33.34920917528832</v>
+        <v>2.294244768454571</v>
       </c>
       <c r="Z9">
-        <v>32.37405453461912</v>
+        <v>0</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>7.560135535354968</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>27.08966551801158</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>23.03621063652473</v>
       </c>
       <c r="AE9">
-        <v>0.7928776157727144</v>
+        <v>14.29603997687549</v>
       </c>
       <c r="AF9">
-        <v>4.441111632079984</v>
-      </c>
-      <c r="AG9">
-        <v>2.484942957159592</v>
-      </c>
-      <c r="AH9">
-        <v>9.890597777644322</v>
-      </c>
-      <c r="AI9">
-        <v>22.62818334190493</v>
-      </c>
-      <c r="AJ9">
-        <v>2.477977557961425</v>
-      </c>
-      <c r="AK9">
-        <v>6.67313407411856</v>
-      </c>
-      <c r="AL9">
-        <v>5.726731328270445</v>
-      </c>
-      <c r="AM9">
-        <v>5.54225838845424</v>
-      </c>
-      <c r="AN9">
-        <v>39.34787620915676</v>
-      </c>
-      <c r="AO9">
-        <v>2.294244768454571</v>
-      </c>
-      <c r="AP9">
-        <v>0</v>
-      </c>
-      <c r="AQ9">
-        <v>0</v>
-      </c>
-      <c r="AR9">
-        <v>7.560135535354968</v>
-      </c>
-      <c r="AS9">
-        <v>27.08966551801158</v>
-      </c>
-      <c r="AT9">
-        <v>23.03621063652473</v>
-      </c>
-      <c r="AU9">
-        <v>14.29603997687549</v>
-      </c>
-      <c r="AV9">
         <v>25.7280126822557</v>
       </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:32">
       <c r="A10" s="1">
         <v>108316</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D10">
         <v>202009</v>
@@ -1864,10 +1384,10 @@
         <v>1069094068</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I10">
         <v>1117069000</v>
@@ -1876,7 +1396,7 @@
         <v>41.8939393939394</v>
       </c>
       <c r="K10" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L10">
         <v>50902012</v>
@@ -1888,117 +1408,69 @@
         <v>45816.39243924392</v>
       </c>
       <c r="O10">
-        <v>83.35643813470477</v>
+        <v>1.615491746966701</v>
       </c>
       <c r="P10">
-        <v>16.64356186529523</v>
+        <v>2.241277088221974</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>5.113763333166476</v>
       </c>
       <c r="R10">
-        <v>13.17204818013873</v>
+        <v>13.63879747366371</v>
       </c>
       <c r="S10">
-        <v>23.17204387637958</v>
+        <v>25.64348963003663</v>
       </c>
       <c r="T10">
-        <v>17.61052123420976</v>
+        <v>1.944394258325192</v>
       </c>
       <c r="U10">
-        <v>15.45141958160711</v>
+        <v>2.774946317839067</v>
       </c>
       <c r="V10">
-        <v>13.94718072794451</v>
+        <v>5.758801777422864</v>
       </c>
       <c r="W10">
-        <v>16.64356186529523</v>
+        <v>6.618199350941177</v>
       </c>
       <c r="X10">
-        <v>38.77566273902887</v>
+        <v>34.64083902341621</v>
       </c>
       <c r="Y10">
-        <v>36.39513917819201</v>
+        <v>2.425616675820201</v>
       </c>
       <c r="Z10">
-        <v>24.82242261720421</v>
+        <v>0</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>7.609329642018866</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>35.45194744620311</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>22.38707336362264</v>
       </c>
       <c r="AE10">
-        <v>1.615491746966701</v>
+        <v>8.09292663637736</v>
       </c>
       <c r="AF10">
-        <v>2.241277088221974</v>
-      </c>
-      <c r="AG10">
-        <v>5.113763333166476</v>
-      </c>
-      <c r="AH10">
-        <v>13.63879747366371</v>
-      </c>
-      <c r="AI10">
-        <v>25.64348963003663</v>
-      </c>
-      <c r="AJ10">
-        <v>1.944394258325192</v>
-      </c>
-      <c r="AK10">
-        <v>2.774946317839067</v>
-      </c>
-      <c r="AL10">
-        <v>5.758801777422864</v>
-      </c>
-      <c r="AM10">
-        <v>6.618199350941177</v>
-      </c>
-      <c r="AN10">
-        <v>34.64083902341621</v>
-      </c>
-      <c r="AO10">
-        <v>2.425616675820201</v>
-      </c>
-      <c r="AP10">
-        <v>0</v>
-      </c>
-      <c r="AQ10">
-        <v>0</v>
-      </c>
-      <c r="AR10">
-        <v>7.609329642018866</v>
-      </c>
-      <c r="AS10">
-        <v>35.45194744620311</v>
-      </c>
-      <c r="AT10">
-        <v>22.38707336362264</v>
-      </c>
-      <c r="AU10">
-        <v>8.09292663637736</v>
-      </c>
-      <c r="AV10">
         <v>24.02310623595783</v>
       </c>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:32">
       <c r="A11" s="1">
         <v>121953</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D11">
         <v>202010</v>
@@ -2010,10 +1482,10 @@
         <v>1069094068</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H11" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I11">
         <v>1117069000</v>
@@ -2022,7 +1494,7 @@
         <v>41.8939393939394</v>
       </c>
       <c r="K11" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L11">
         <v>41556408</v>
@@ -2034,117 +1506,69 @@
         <v>41807.25150905432</v>
       </c>
       <c r="O11">
-        <v>81.89671699897643</v>
+        <v>3.401020009958512</v>
       </c>
       <c r="P11">
-        <v>18.10328300102357</v>
+        <v>6.880482502481929</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>5.41526801594594</v>
       </c>
       <c r="R11">
-        <v>17.756934805578</v>
+        <v>15.6753758125582</v>
       </c>
       <c r="S11">
-        <v>16.17661658028769</v>
+        <v>30.97500405785794</v>
       </c>
       <c r="T11">
-        <v>22.84934067785647</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>15.26812278168989</v>
+        <v>3.995324496525301</v>
       </c>
       <c r="V11">
-        <v>9.853497856455737</v>
+        <v>4.553170777657202</v>
       </c>
       <c r="W11">
-        <v>18.10328300102357</v>
+        <v>6.634509012906024</v>
       </c>
       <c r="X11">
-        <v>19.58387403791011</v>
+        <v>22.47984531410896</v>
       </c>
       <c r="Y11">
-        <v>51.00528719854709</v>
+        <v>0.5612906081776846</v>
       </c>
       <c r="Z11">
-        <v>27.96041126605552</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>1.450427497487271</v>
+        <v>0</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>13.00312462617077</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>36.21220208373158</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>27.55773700893494</v>
       </c>
       <c r="AE11">
-        <v>3.401020009958512</v>
+        <v>9.770431924241381</v>
       </c>
       <c r="AF11">
-        <v>6.880482502481929</v>
-      </c>
-      <c r="AG11">
-        <v>5.41526801594594</v>
-      </c>
-      <c r="AH11">
-        <v>15.6753758125582</v>
-      </c>
-      <c r="AI11">
-        <v>30.97500405785794</v>
-      </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
-      <c r="AK11">
-        <v>3.995324496525301</v>
-      </c>
-      <c r="AL11">
-        <v>4.553170777657202</v>
-      </c>
-      <c r="AM11">
-        <v>6.634509012906024</v>
-      </c>
-      <c r="AN11">
-        <v>22.47984531410896</v>
-      </c>
-      <c r="AO11">
-        <v>0.5612906081776846</v>
-      </c>
-      <c r="AP11">
-        <v>0</v>
-      </c>
-      <c r="AQ11">
-        <v>0</v>
-      </c>
-      <c r="AR11">
-        <v>13.00312462617077</v>
-      </c>
-      <c r="AS11">
-        <v>36.21220208373158</v>
-      </c>
-      <c r="AT11">
-        <v>27.55773700893494</v>
-      </c>
-      <c r="AU11">
-        <v>9.770431924241381</v>
-      </c>
-      <c r="AV11">
         <v>12.88741804585228</v>
       </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:32">
       <c r="A12" s="1">
         <v>135625</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D12">
         <v>202011</v>
@@ -2156,10 +1580,10 @@
         <v>1069094068</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H12" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I12">
         <v>1117069000</v>
@@ -2168,7 +1592,7 @@
         <v>41.8939393939394</v>
       </c>
       <c r="K12" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L12">
         <v>40578820</v>
@@ -2180,117 +1604,69 @@
         <v>43680.10764262648</v>
       </c>
       <c r="O12">
-        <v>85.07951713184366</v>
+        <v>1.034273772376821</v>
       </c>
       <c r="P12">
-        <v>14.92048286815634</v>
+        <v>1.925439146086555</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>14.8710702280155</v>
       </c>
       <c r="R12">
-        <v>21.84757025610898</v>
+        <v>5.936009458382476</v>
       </c>
       <c r="S12">
-        <v>14.69280426956722</v>
+        <v>39.15732332679954</v>
       </c>
       <c r="T12">
-        <v>11.10807017182855</v>
+        <v>0.4300665457990154</v>
       </c>
       <c r="U12">
-        <v>17.97412363321555</v>
+        <v>8.236745312948972</v>
       </c>
       <c r="V12">
-        <v>19.45694880112335</v>
+        <v>2.689296596106047</v>
       </c>
       <c r="W12">
-        <v>14.92048286815634</v>
+        <v>4.548207114203912</v>
       </c>
       <c r="X12">
-        <v>26.27832700901604</v>
+        <v>21.16938789102295</v>
       </c>
       <c r="Y12">
-        <v>44.9460133091598</v>
+        <v>1.68898861622886</v>
       </c>
       <c r="Z12">
-        <v>28.77565968182416</v>
+        <v>0.5102623324187346</v>
       </c>
       <c r="AA12">
         <v>0</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>7.66951328106633</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>37.16606280739558</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>34.70066930876749</v>
       </c>
       <c r="AE12">
-        <v>1.034273772376821</v>
+        <v>7.2750189729519</v>
       </c>
       <c r="AF12">
-        <v>1.925439146086555</v>
-      </c>
-      <c r="AG12">
-        <v>14.8710702280155</v>
-      </c>
-      <c r="AH12">
-        <v>5.936009458382476</v>
-      </c>
-      <c r="AI12">
-        <v>39.15732332679954</v>
-      </c>
-      <c r="AJ12">
-        <v>0.4300665457990154</v>
-      </c>
-      <c r="AK12">
-        <v>8.236745312948972</v>
-      </c>
-      <c r="AL12">
-        <v>2.689296596106047</v>
-      </c>
-      <c r="AM12">
-        <v>4.548207114203912</v>
-      </c>
-      <c r="AN12">
-        <v>21.16938789102295</v>
-      </c>
-      <c r="AO12">
-        <v>1.68898861622886</v>
-      </c>
-      <c r="AP12">
-        <v>0.5102623324187346</v>
-      </c>
-      <c r="AQ12">
-        <v>0</v>
-      </c>
-      <c r="AR12">
-        <v>7.66951328106633</v>
-      </c>
-      <c r="AS12">
-        <v>37.16606280739558</v>
-      </c>
-      <c r="AT12">
-        <v>34.70066930876749</v>
-      </c>
-      <c r="AU12">
-        <v>7.2750189729519</v>
-      </c>
-      <c r="AV12">
         <v>10.97948468117111</v>
       </c>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:32">
       <c r="A13" s="1">
         <v>149306</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D13">
         <v>202012</v>
@@ -2302,10 +1678,10 @@
         <v>1069094068</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H13" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I13">
         <v>1117069000</v>
@@ -2314,7 +1690,7 @@
         <v>41.8939393939394</v>
       </c>
       <c r="K13" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L13">
         <v>27857072</v>
@@ -2326,117 +1702,69 @@
         <v>37900.77823129252</v>
       </c>
       <c r="O13">
-        <v>89.23735646158362</v>
+        <v>0.3403814230727479</v>
       </c>
       <c r="P13">
-        <v>10.76264353841638</v>
+        <v>4.423889769176029</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>6.609935654041458</v>
       </c>
       <c r="R13">
-        <v>16.91362150013469</v>
+        <v>7.676023499885415</v>
       </c>
       <c r="S13">
-        <v>20.0077419227692</v>
+        <v>32.3975945767021</v>
       </c>
       <c r="T13">
-        <v>15.8187236153175</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>15.50691099983516</v>
+        <v>1.216642730793818</v>
       </c>
       <c r="V13">
-        <v>20.9940480004503</v>
+        <v>10.04679753852092</v>
       </c>
       <c r="W13">
-        <v>10.76264353841638</v>
+        <v>7.333107961597688</v>
       </c>
       <c r="X13">
-        <v>30.86535111550848</v>
+        <v>29.95931642313305</v>
       </c>
       <c r="Y13">
-        <v>41.9997618848815</v>
+        <v>2.517858807630609</v>
       </c>
       <c r="Z13">
-        <v>27.13488699961001</v>
+        <v>0.02951661538585247</v>
       </c>
       <c r="AA13">
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>12.59531349992562</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>24.24163138466239</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>25.9176474228878</v>
       </c>
       <c r="AE13">
-        <v>0.3403814230727479</v>
+        <v>15.4703624616399</v>
       </c>
       <c r="AF13">
-        <v>4.423889769176029</v>
-      </c>
-      <c r="AG13">
-        <v>6.609935654041458</v>
-      </c>
-      <c r="AH13">
-        <v>7.676023499885415</v>
-      </c>
-      <c r="AI13">
-        <v>32.3975945767021</v>
-      </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
-      <c r="AK13">
-        <v>1.216642730793818</v>
-      </c>
-      <c r="AL13">
-        <v>10.04679753852092</v>
-      </c>
-      <c r="AM13">
-        <v>7.333107961597688</v>
-      </c>
-      <c r="AN13">
-        <v>29.95931642313305</v>
-      </c>
-      <c r="AO13">
-        <v>2.517858807630609</v>
-      </c>
-      <c r="AP13">
-        <v>0.02951661538585247</v>
-      </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
-      <c r="AR13">
-        <v>12.59531349992562</v>
-      </c>
-      <c r="AS13">
-        <v>24.24163138466239</v>
-      </c>
-      <c r="AT13">
-        <v>25.9176474228878</v>
-      </c>
-      <c r="AU13">
-        <v>15.4703624616399</v>
-      </c>
-      <c r="AV13">
         <v>19.22766980786782</v>
       </c>
     </row>
-    <row r="14" spans="1:48">
+    <row r="14" spans="1:32">
       <c r="A14" s="1">
         <v>163029</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D14">
         <v>202101</v>
@@ -2448,10 +1776,10 @@
         <v>1069094068</v>
       </c>
       <c r="G14" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H14" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I14">
         <v>1117069000</v>
@@ -2460,7 +1788,7 @@
         <v>41.8939393939394</v>
       </c>
       <c r="K14" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L14">
         <v>31754262</v>
@@ -2472,117 +1800,69 @@
         <v>32468.57055214724</v>
       </c>
       <c r="O14">
-        <v>90.27443885674306</v>
+        <v>1.079734385891254</v>
       </c>
       <c r="P14">
-        <v>9.725561143256927</v>
+        <v>3.345297918118834</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>6.635869819301737</v>
       </c>
       <c r="R14">
-        <v>19.25231634795984</v>
+        <v>14.96991384589571</v>
       </c>
       <c r="S14">
-        <v>18.79841110840491</v>
+        <v>31.68981335796751</v>
       </c>
       <c r="T14">
-        <v>15.16537687507901</v>
+        <v>0.2606508732591549</v>
       </c>
       <c r="U14">
-        <v>15.63373535054916</v>
+        <v>5.013536733431247</v>
       </c>
       <c r="V14">
-        <v>21.41670733459338</v>
+        <v>2.842136872839306</v>
       </c>
       <c r="W14">
-        <v>9.725561143256927</v>
+        <v>5.044077532647428</v>
       </c>
       <c r="X14">
-        <v>22.01505623906485</v>
+        <v>29.11896866064783</v>
       </c>
       <c r="Y14">
-        <v>43.0153218531736</v>
+        <v>0.7655084952060923</v>
       </c>
       <c r="Z14">
-        <v>34.96962190776155</v>
+        <v>2.264958124991221</v>
       </c>
       <c r="AA14">
         <v>0</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>22.0924455640002</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>25.61409665952873</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>28.62506819903419</v>
       </c>
       <c r="AE14">
-        <v>1.079734385891254</v>
+        <v>10.94506581006354</v>
       </c>
       <c r="AF14">
-        <v>3.345297918118834</v>
-      </c>
-      <c r="AG14">
-        <v>6.635869819301737</v>
-      </c>
-      <c r="AH14">
-        <v>14.96991384589571</v>
-      </c>
-      <c r="AI14">
-        <v>31.68981335796751</v>
-      </c>
-      <c r="AJ14">
-        <v>0.2606508732591549</v>
-      </c>
-      <c r="AK14">
-        <v>5.013536733431247</v>
-      </c>
-      <c r="AL14">
-        <v>2.842136872839306</v>
-      </c>
-      <c r="AM14">
-        <v>5.044077532647428</v>
-      </c>
-      <c r="AN14">
-        <v>29.11896866064783</v>
-      </c>
-      <c r="AO14">
-        <v>0.7655084952060923</v>
-      </c>
-      <c r="AP14">
-        <v>2.264958124991221</v>
-      </c>
-      <c r="AQ14">
-        <v>0</v>
-      </c>
-      <c r="AR14">
-        <v>22.0924455640002</v>
-      </c>
-      <c r="AS14">
-        <v>25.61409665952873</v>
-      </c>
-      <c r="AT14">
-        <v>28.62506819903419</v>
-      </c>
-      <c r="AU14">
-        <v>10.94506581006354</v>
-      </c>
-      <c r="AV14">
         <v>9.700748987332785</v>
       </c>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:32">
       <c r="A15" s="1">
         <v>176724</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D15">
         <v>202102</v>
@@ -2594,10 +1874,10 @@
         <v>1069094068</v>
       </c>
       <c r="G15" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H15" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I15">
         <v>1117069000</v>
@@ -2606,7 +1886,7 @@
         <v>41.8939393939394</v>
       </c>
       <c r="K15" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L15">
         <v>27297200</v>
@@ -2618,117 +1898,69 @@
         <v>44098.86914378029</v>
       </c>
       <c r="O15">
-        <v>90.61231273097609</v>
+        <v>4.19344905228375</v>
       </c>
       <c r="P15">
-        <v>9.38768726902393</v>
+        <v>0.1074041700247644</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>3.481042506191111</v>
       </c>
       <c r="R15">
-        <v>12.31285165218411</v>
+        <v>13.54237369034186</v>
       </c>
       <c r="S15">
-        <v>27.67401359663262</v>
+        <v>40.11608579744442</v>
       </c>
       <c r="T15">
-        <v>20.39903684370558</v>
+        <v>1.125433843764196</v>
       </c>
       <c r="U15">
-        <v>25.11216684275311</v>
+        <v>1.628917405448178</v>
       </c>
       <c r="V15">
-        <v>5.114243795700657</v>
+        <v>10.58321410107996</v>
       </c>
       <c r="W15">
-        <v>9.38768726902393</v>
+        <v>8.122374517166598</v>
       </c>
       <c r="X15">
-        <v>14.62579711948478</v>
+        <v>17.11230074623038</v>
       </c>
       <c r="Y15">
-        <v>61.54438658543734</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>23.83722046510265</v>
+        <v>0</v>
       </c>
       <c r="AA15">
         <v>0</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>13.58839935524523</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>24.86906412049587</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>32.32248197067831</v>
       </c>
       <c r="AE15">
-        <v>4.19344905228375</v>
+        <v>9.610403364081298</v>
       </c>
       <c r="AF15">
-        <v>0.1074041700247644</v>
-      </c>
-      <c r="AG15">
-        <v>3.481042506191111</v>
-      </c>
-      <c r="AH15">
-        <v>13.54237369034186</v>
-      </c>
-      <c r="AI15">
-        <v>40.11608579744442</v>
-      </c>
-      <c r="AJ15">
-        <v>1.125433843764196</v>
-      </c>
-      <c r="AK15">
-        <v>1.628917405448178</v>
-      </c>
-      <c r="AL15">
-        <v>10.58321410107996</v>
-      </c>
-      <c r="AM15">
-        <v>8.122374517166598</v>
-      </c>
-      <c r="AN15">
-        <v>17.11230074623038</v>
-      </c>
-      <c r="AO15">
-        <v>0</v>
-      </c>
-      <c r="AP15">
-        <v>0</v>
-      </c>
-      <c r="AQ15">
-        <v>0</v>
-      </c>
-      <c r="AR15">
-        <v>13.58839935524523</v>
-      </c>
-      <c r="AS15">
-        <v>24.86906412049587</v>
-      </c>
-      <c r="AT15">
-        <v>32.32248197067831</v>
-      </c>
-      <c r="AU15">
-        <v>9.610403364081298</v>
-      </c>
-      <c r="AV15">
         <v>19.61445952954882</v>
       </c>
     </row>
-    <row r="16" spans="1:48">
+    <row r="16" spans="1:32">
       <c r="A16" s="1">
         <v>190430</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D16">
         <v>202103</v>
@@ -2740,10 +1972,10 @@
         <v>1069094068</v>
       </c>
       <c r="G16" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H16" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I16">
         <v>1117069000</v>
@@ -2752,7 +1984,7 @@
         <v>41.8939393939394</v>
       </c>
       <c r="K16" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L16">
         <v>30171831</v>
@@ -2764,117 +1996,69 @@
         <v>38731.49037227214</v>
       </c>
       <c r="O16">
-        <v>87.42281403074279</v>
+        <v>6.081520006856727</v>
       </c>
       <c r="P16">
-        <v>12.57718596925722</v>
+        <v>8.968927306731898</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>2.823105088318969</v>
       </c>
       <c r="R16">
-        <v>10.74752565497268</v>
+        <v>15.66832302587138</v>
       </c>
       <c r="S16">
-        <v>28.04874352139915</v>
+        <v>18.98122966053999</v>
       </c>
       <c r="T16">
-        <v>20.94176279192336</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>12.20797332419103</v>
+        <v>1.507665820148602</v>
       </c>
       <c r="V16">
-        <v>15.47680873825656</v>
+        <v>4.637498481282094</v>
       </c>
       <c r="W16">
-        <v>12.57718596925722</v>
+        <v>15.41222619634851</v>
       </c>
       <c r="X16">
-        <v>25.94773590273656</v>
+        <v>25.92063109892138</v>
       </c>
       <c r="Y16">
-        <v>48.61426431064127</v>
+        <v>0.2503504129398047</v>
       </c>
       <c r="Z16">
-        <v>25.43799978662216</v>
+        <v>2.42685164715393</v>
       </c>
       <c r="AA16">
         <v>0</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>5.62059284237672</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>29.60626953200155</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>34.64703507685695</v>
       </c>
       <c r="AE16">
-        <v>6.081520006856727</v>
+        <v>11.0629166506335</v>
       </c>
       <c r="AF16">
-        <v>8.968927306731898</v>
-      </c>
-      <c r="AG16">
-        <v>2.823105088318969</v>
-      </c>
-      <c r="AH16">
-        <v>15.66832302587138</v>
-      </c>
-      <c r="AI16">
-        <v>18.98122966053999</v>
-      </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
-      <c r="AK16">
-        <v>1.507665820148602</v>
-      </c>
-      <c r="AL16">
-        <v>4.637498481282094</v>
-      </c>
-      <c r="AM16">
-        <v>15.41222619634851</v>
-      </c>
-      <c r="AN16">
-        <v>25.92063109892138</v>
-      </c>
-      <c r="AO16">
-        <v>0.2503504129398047</v>
-      </c>
-      <c r="AP16">
-        <v>2.42685164715393</v>
-      </c>
-      <c r="AQ16">
-        <v>0</v>
-      </c>
-      <c r="AR16">
-        <v>5.62059284237672</v>
-      </c>
-      <c r="AS16">
-        <v>29.60626953200155</v>
-      </c>
-      <c r="AT16">
-        <v>34.64703507685695</v>
-      </c>
-      <c r="AU16">
-        <v>11.0629166506335</v>
-      </c>
-      <c r="AV16">
         <v>16.38154718054731</v>
       </c>
     </row>
-    <row r="17" spans="1:48">
+    <row r="17" spans="1:32">
       <c r="A17" s="1">
         <v>204232</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D17">
         <v>202104</v>
@@ -2886,10 +2070,10 @@
         <v>1069094068</v>
       </c>
       <c r="G17" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H17" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I17">
         <v>1117069000</v>
@@ -2898,7 +2082,7 @@
         <v>41.8939393939394</v>
       </c>
       <c r="K17" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L17">
         <v>36984878</v>
@@ -2910,117 +2094,69 @@
         <v>39556.0192513369</v>
       </c>
       <c r="O17">
-        <v>90.40485119891432</v>
+        <v>0.1362442801622869</v>
       </c>
       <c r="P17">
-        <v>9.595148801085676</v>
+        <v>1.461415448768007</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>4.935741616884608</v>
       </c>
       <c r="R17">
-        <v>16.88329949770282</v>
+        <v>12.02302426305151</v>
       </c>
       <c r="S17">
-        <v>16.81635850630628</v>
+        <v>26.42252330587653</v>
       </c>
       <c r="T17">
-        <v>18.73578601070416</v>
+        <v>1.687671083300586</v>
       </c>
       <c r="U17">
-        <v>20.99407637197019</v>
+        <v>7.746301734454823</v>
       </c>
       <c r="V17">
-        <v>16.97533081223088</v>
+        <v>3.03007982181258</v>
       </c>
       <c r="W17">
-        <v>9.595148801085676</v>
+        <v>8.381289527033182</v>
       </c>
       <c r="X17">
-        <v>26.74663237607543</v>
+        <v>34.18131394187646</v>
       </c>
       <c r="Y17">
-        <v>41.32990882381713</v>
+        <v>0.6277626007039958</v>
       </c>
       <c r="Z17">
-        <v>31.92785377688687</v>
+        <v>1.687671083300586</v>
       </c>
       <c r="AA17">
         <v>0</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>10.56030827410057</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>44.66630173445482</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>19.89093617667199</v>
       </c>
       <c r="AE17">
-        <v>0.1362442801622869</v>
+        <v>4.662146223113133</v>
       </c>
       <c r="AF17">
-        <v>1.461415448768007</v>
-      </c>
-      <c r="AG17">
-        <v>4.935741616884608</v>
-      </c>
-      <c r="AH17">
-        <v>12.02302426305151</v>
-      </c>
-      <c r="AI17">
-        <v>26.42252330587653</v>
-      </c>
-      <c r="AJ17">
-        <v>1.687671083300586</v>
-      </c>
-      <c r="AK17">
-        <v>7.746301734454823</v>
-      </c>
-      <c r="AL17">
-        <v>3.03007982181258</v>
-      </c>
-      <c r="AM17">
-        <v>8.381289527033182</v>
-      </c>
-      <c r="AN17">
-        <v>34.18131394187646</v>
-      </c>
-      <c r="AO17">
-        <v>0.6277626007039958</v>
-      </c>
-      <c r="AP17">
-        <v>1.687671083300586</v>
-      </c>
-      <c r="AQ17">
-        <v>0</v>
-      </c>
-      <c r="AR17">
-        <v>10.56030827410057</v>
-      </c>
-      <c r="AS17">
-        <v>44.66630173445482</v>
-      </c>
-      <c r="AT17">
-        <v>19.89093617667199</v>
-      </c>
-      <c r="AU17">
-        <v>4.662146223113133</v>
-      </c>
-      <c r="AV17">
         <v>17.90366386121377</v>
       </c>
     </row>
-    <row r="18" spans="1:48">
+    <row r="18" spans="1:32">
       <c r="A18" s="1">
         <v>218074</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D18">
         <v>202105</v>
@@ -3032,10 +2168,10 @@
         <v>1069094068</v>
       </c>
       <c r="G18" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H18" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I18">
         <v>1117069000</v>
@@ -3044,7 +2180,7 @@
         <v>41.8939393939394</v>
       </c>
       <c r="K18" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L18">
         <v>27985888</v>
@@ -3056,117 +2192,69 @@
         <v>32353.62774566474</v>
       </c>
       <c r="O18">
-        <v>78.10764277767423</v>
+        <v>0.2862823348682021</v>
       </c>
       <c r="P18">
-        <v>21.89235722232576</v>
+        <v>2.167194989131665</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>3.461325027814018</v>
       </c>
       <c r="R18">
-        <v>21.74056858942621</v>
+        <v>7.045940791301673</v>
       </c>
       <c r="S18">
-        <v>11.40337360029455</v>
+        <v>26.30469358556712</v>
       </c>
       <c r="T18">
-        <v>9.963085809533718</v>
+        <v>2.410601483147506</v>
       </c>
       <c r="U18">
-        <v>12.50316363161319</v>
+        <v>8.552996641736007</v>
       </c>
       <c r="V18">
-        <v>22.49180571007788</v>
+        <v>4.815871221953007</v>
       </c>
       <c r="W18">
-        <v>21.89235722232576</v>
+        <v>22.62304535200027</v>
       </c>
       <c r="X18">
-        <v>32.18258426818545</v>
+        <v>22.34204857248053</v>
       </c>
       <c r="Y18">
-        <v>41.60298907792384</v>
+        <v>0</v>
       </c>
       <c r="Z18">
-        <v>26.21878121716202</v>
+        <v>0</v>
       </c>
       <c r="AA18">
         <v>0</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>12.63406172996905</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>27.43120800883646</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>26.47053191379884</v>
       </c>
       <c r="AE18">
-        <v>0.2862823348682021</v>
+        <v>15.04619442770585</v>
       </c>
       <c r="AF18">
-        <v>2.167194989131665</v>
-      </c>
-      <c r="AG18">
-        <v>3.461325027814018</v>
-      </c>
-      <c r="AH18">
-        <v>7.045940791301673</v>
-      </c>
-      <c r="AI18">
-        <v>26.30469358556712</v>
-      </c>
-      <c r="AJ18">
-        <v>2.410601483147506</v>
-      </c>
-      <c r="AK18">
-        <v>8.552996641736007</v>
-      </c>
-      <c r="AL18">
-        <v>4.815871221953007</v>
-      </c>
-      <c r="AM18">
-        <v>22.62304535200027</v>
-      </c>
-      <c r="AN18">
-        <v>22.34204857248053</v>
-      </c>
-      <c r="AO18">
-        <v>0</v>
-      </c>
-      <c r="AP18">
-        <v>0</v>
-      </c>
-      <c r="AQ18">
-        <v>0</v>
-      </c>
-      <c r="AR18">
-        <v>12.63406172996905</v>
-      </c>
-      <c r="AS18">
-        <v>27.43120800883646</v>
-      </c>
-      <c r="AT18">
-        <v>26.47053191379884</v>
-      </c>
-      <c r="AU18">
-        <v>15.04619442770585</v>
-      </c>
-      <c r="AV18">
         <v>18.42364935641849</v>
       </c>
     </row>
-    <row r="19" spans="1:48">
+    <row r="19" spans="1:32">
       <c r="A19" s="1">
         <v>231911</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D19">
         <v>202106</v>
@@ -3178,10 +2266,10 @@
         <v>1069094068</v>
       </c>
       <c r="G19" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H19" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I19">
         <v>1117069000</v>
@@ -3190,7 +2278,7 @@
         <v>41.8939393939394</v>
       </c>
       <c r="K19" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L19">
         <v>39002187</v>
@@ -3202,117 +2290,69 @@
         <v>47914.23464373464</v>
       </c>
       <c r="O19">
-        <v>92.09338954505294</v>
+        <v>2.099540529868236</v>
       </c>
       <c r="P19">
-        <v>7.906610454947052</v>
+        <v>5.488212172563554</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>5.182539256580663</v>
       </c>
       <c r="R19">
-        <v>18.90111316398744</v>
+        <v>13.7089647257473</v>
       </c>
       <c r="S19">
-        <v>13.57577177531096</v>
+        <v>31.23987904703908</v>
       </c>
       <c r="T19">
-        <v>7.916104426656895</v>
+        <v>0.3429149711527715</v>
       </c>
       <c r="U19">
-        <v>28.52073520133627</v>
+        <v>3.601463289994482</v>
       </c>
       <c r="V19">
-        <v>23.17966497776137</v>
+        <v>6.059697556190887</v>
       </c>
       <c r="W19">
-        <v>7.906610454947052</v>
+        <v>14.77368387495809</v>
       </c>
       <c r="X19">
-        <v>40.78683263812873</v>
+        <v>17.5111527322814</v>
       </c>
       <c r="Y19">
-        <v>36.35196694739195</v>
+        <v>1.991313253536269</v>
       </c>
       <c r="Z19">
-        <v>22.86120041447932</v>
+        <v>1.725049429664034</v>
       </c>
       <c r="AA19">
         <v>0</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>5.722221709003139</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>31.03407931227036</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>37.08721184763306</v>
       </c>
       <c r="AE19">
-        <v>2.099540529868236</v>
+        <v>6.244060713569728</v>
       </c>
       <c r="AF19">
-        <v>5.488212172563554</v>
-      </c>
-      <c r="AG19">
-        <v>5.182539256580663</v>
-      </c>
-      <c r="AH19">
-        <v>13.7089647257473</v>
-      </c>
-      <c r="AI19">
-        <v>31.23987904703908</v>
-      </c>
-      <c r="AJ19">
-        <v>0.3429149711527715</v>
-      </c>
-      <c r="AK19">
-        <v>3.601463289994482</v>
-      </c>
-      <c r="AL19">
-        <v>6.059697556190887</v>
-      </c>
-      <c r="AM19">
-        <v>14.77368387495809</v>
-      </c>
-      <c r="AN19">
-        <v>17.5111527322814</v>
-      </c>
-      <c r="AO19">
-        <v>1.991313253536269</v>
-      </c>
-      <c r="AP19">
-        <v>1.725049429664034</v>
-      </c>
-      <c r="AQ19">
-        <v>0</v>
-      </c>
-      <c r="AR19">
-        <v>5.722221709003139</v>
-      </c>
-      <c r="AS19">
-        <v>31.03407931227036</v>
-      </c>
-      <c r="AT19">
-        <v>37.08721184763306</v>
-      </c>
-      <c r="AU19">
-        <v>6.244060713569728</v>
-      </c>
-      <c r="AV19">
         <v>16.20004768219793</v>
       </c>
     </row>
-    <row r="20" spans="1:48">
+    <row r="20" spans="1:32">
       <c r="A20" s="1">
         <v>245770</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D20">
         <v>202107</v>
@@ -3324,10 +2364,10 @@
         <v>1069094068</v>
       </c>
       <c r="G20" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H20" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I20">
         <v>1117069000</v>
@@ -3336,7 +2376,7 @@
         <v>41.8939393939394</v>
       </c>
       <c r="K20" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L20">
         <v>30847602</v>
@@ -3348,117 +2388,69 @@
         <v>37076.44471153846</v>
       </c>
       <c r="O20">
-        <v>78.63579853889453</v>
+        <v>2.436107111988802</v>
       </c>
       <c r="P20">
-        <v>21.36420146110547</v>
+        <v>4.637973520275578</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>4.881626718342645</v>
       </c>
       <c r="R20">
-        <v>13.92818553740417</v>
+        <v>10.03264052486154</v>
       </c>
       <c r="S20">
-        <v>15.58053979430881</v>
+        <v>31.61637107480834</v>
       </c>
       <c r="T20">
-        <v>15.73963214579856</v>
+        <v>0</v>
       </c>
       <c r="U20">
-        <v>10.92610174431063</v>
+        <v>8.744993648452803</v>
       </c>
       <c r="V20">
-        <v>22.46377516022153</v>
+        <v>8.041040346021063</v>
       </c>
       <c r="W20">
-        <v>21.36420146110547</v>
+        <v>7.214197226740672</v>
       </c>
       <c r="X20">
-        <v>30.91931707171273</v>
+        <v>22.38504982850855</v>
       </c>
       <c r="Y20">
-        <v>51.49826825696208</v>
+        <v>2.248212076906335</v>
       </c>
       <c r="Z20">
-        <v>17.58826939027546</v>
+        <v>0.8414920530937866</v>
       </c>
       <c r="AA20">
         <v>0</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>3.081400864806282</v>
       </c>
       <c r="AC20">
-        <v>0</v>
+        <v>19.92946133900457</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>8.537168629833852</v>
       </c>
       <c r="AE20">
-        <v>2.436107111988802</v>
+        <v>18.32756302353745</v>
       </c>
       <c r="AF20">
-        <v>4.637973520275578</v>
-      </c>
-      <c r="AG20">
-        <v>4.881626718342645</v>
-      </c>
-      <c r="AH20">
-        <v>10.03264052486154</v>
-      </c>
-      <c r="AI20">
-        <v>31.61637107480834</v>
-      </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
-      <c r="AK20">
-        <v>8.744993648452803</v>
-      </c>
-      <c r="AL20">
-        <v>8.041040346021063</v>
-      </c>
-      <c r="AM20">
-        <v>7.214197226740672</v>
-      </c>
-      <c r="AN20">
-        <v>22.38504982850855</v>
-      </c>
-      <c r="AO20">
-        <v>2.248212076906335</v>
-      </c>
-      <c r="AP20">
-        <v>0.8414920530937866</v>
-      </c>
-      <c r="AQ20">
-        <v>0</v>
-      </c>
-      <c r="AR20">
-        <v>3.081400864806282</v>
-      </c>
-      <c r="AS20">
-        <v>19.92946133900457</v>
-      </c>
-      <c r="AT20">
-        <v>8.537168629833852</v>
-      </c>
-      <c r="AU20">
-        <v>18.32756302353745</v>
-      </c>
-      <c r="AV20">
         <v>47.03641145071828</v>
       </c>
     </row>
-    <row r="21" spans="1:48">
+    <row r="21" spans="1:32">
       <c r="A21" s="1">
         <v>259643</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D21">
         <v>202108</v>
@@ -3470,10 +2462,10 @@
         <v>1069094068</v>
       </c>
       <c r="G21" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H21" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I21">
         <v>1117069000</v>
@@ -3482,7 +2474,7 @@
         <v>41.8939393939394</v>
       </c>
       <c r="K21" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L21">
         <v>36231527</v>
@@ -3494,117 +2486,69 @@
         <v>36820.65752032521</v>
       </c>
       <c r="O21">
-        <v>83.5619592781723</v>
+        <v>1.894474424442558</v>
       </c>
       <c r="P21">
-        <v>16.43804072182771</v>
+        <v>9.359295482081116</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>1.624001103514075</v>
       </c>
       <c r="R21">
-        <v>28.99742426864868</v>
+        <v>10.43305446165711</v>
       </c>
       <c r="S21">
-        <v>20.27809578933838</v>
+        <v>40.23537692573652</v>
       </c>
       <c r="T21">
-        <v>12.29075936904343</v>
+        <v>0.5167638912927959</v>
       </c>
       <c r="U21">
-        <v>15.69591093993913</v>
+        <v>0.3554045135884005</v>
       </c>
       <c r="V21">
-        <v>9.614523974382863</v>
+        <v>6.080170611909345</v>
       </c>
       <c r="W21">
-        <v>13.11915797559402</v>
+        <v>6.844705513239892</v>
       </c>
       <c r="X21">
-        <v>27.83610892331422</v>
+        <v>22.66675307253817</v>
       </c>
       <c r="Y21">
-        <v>35.35048987363961</v>
+        <v>1.420726480007315</v>
       </c>
       <c r="Z21">
-        <v>36.81340120304617</v>
+        <v>0</v>
       </c>
       <c r="AA21">
         <v>0</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>12.08602085857436</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>20.40824433096623</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>9.731381339792827</v>
       </c>
       <c r="AE21">
-        <v>1.894474424442558</v>
+        <v>20.19076488661381</v>
       </c>
       <c r="AF21">
-        <v>9.359295482081116</v>
-      </c>
-      <c r="AG21">
-        <v>1.624001103514075</v>
-      </c>
-      <c r="AH21">
-        <v>10.43305446165711</v>
-      </c>
-      <c r="AI21">
-        <v>40.23537692573652</v>
-      </c>
-      <c r="AJ21">
-        <v>0.5167638912927959</v>
-      </c>
-      <c r="AK21">
-        <v>0.3554045135884005</v>
-      </c>
-      <c r="AL21">
-        <v>6.080170611909345</v>
-      </c>
-      <c r="AM21">
-        <v>6.844705513239892</v>
-      </c>
-      <c r="AN21">
-        <v>22.66675307253817</v>
-      </c>
-      <c r="AO21">
-        <v>1.420726480007315</v>
-      </c>
-      <c r="AP21">
-        <v>0</v>
-      </c>
-      <c r="AQ21">
-        <v>0</v>
-      </c>
-      <c r="AR21">
-        <v>12.08602085857436</v>
-      </c>
-      <c r="AS21">
-        <v>20.40824433096623</v>
-      </c>
-      <c r="AT21">
-        <v>9.731381339792827</v>
-      </c>
-      <c r="AU21">
-        <v>20.19076488661381</v>
-      </c>
-      <c r="AV21">
         <v>36.17047905488499</v>
       </c>
     </row>
-    <row r="22" spans="1:48">
+    <row r="22" spans="1:32">
       <c r="A22" s="1">
         <v>273563</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D22">
         <v>202109</v>
@@ -3616,10 +2560,10 @@
         <v>1069094068</v>
       </c>
       <c r="G22" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H22" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I22">
         <v>1117069000</v>
@@ -3628,7 +2572,7 @@
         <v>41.8939393939394</v>
       </c>
       <c r="K22" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L22">
         <v>35086923</v>
@@ -3640,117 +2584,69 @@
         <v>40237.29701834862</v>
       </c>
       <c r="O22">
-        <v>88.5885238973506</v>
+        <v>3.405336304069753</v>
       </c>
       <c r="P22">
-        <v>11.41147610264941</v>
+        <v>3.886290214163265</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>5.068435497179391</v>
       </c>
       <c r="R22">
-        <v>17.61576905903091</v>
+        <v>6.397113237886377</v>
       </c>
       <c r="S22">
-        <v>11.50622477097806</v>
+        <v>17.91580572710807</v>
       </c>
       <c r="T22">
-        <v>9.396322417044095</v>
+        <v>4.508199071773834</v>
       </c>
       <c r="U22">
-        <v>19.48535001516092</v>
+        <v>3.325601504583346</v>
       </c>
       <c r="V22">
-        <v>30.5798691136296</v>
+        <v>17.82100086148905</v>
       </c>
       <c r="W22">
-        <v>11.41147610264941</v>
+        <v>5.226717151002384</v>
       </c>
       <c r="X22">
-        <v>42.58827240792817</v>
+        <v>32.45299469149803</v>
       </c>
       <c r="Y22">
-        <v>29.34989103319205</v>
+        <v>1.071679287750596</v>
       </c>
       <c r="Z22">
-        <v>28.06183655887979</v>
+        <v>0.04496556452100402</v>
       </c>
       <c r="AA22">
         <v>0</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>3.158507795910174</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>34.17645195048879</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>6.743111866777261</v>
       </c>
       <c r="AE22">
-        <v>3.405336304069753</v>
+        <v>11.706821652614</v>
       </c>
       <c r="AF22">
-        <v>3.886290214163265</v>
-      </c>
-      <c r="AG22">
-        <v>5.068435497179391</v>
-      </c>
-      <c r="AH22">
-        <v>6.397113237886377</v>
-      </c>
-      <c r="AI22">
-        <v>17.91580572710807</v>
-      </c>
-      <c r="AJ22">
-        <v>4.508199071773834</v>
-      </c>
-      <c r="AK22">
-        <v>3.325601504583346</v>
-      </c>
-      <c r="AL22">
-        <v>17.82100086148905</v>
-      </c>
-      <c r="AM22">
-        <v>5.226717151002384</v>
-      </c>
-      <c r="AN22">
-        <v>32.45299469149803</v>
-      </c>
-      <c r="AO22">
-        <v>1.071679287750596</v>
-      </c>
-      <c r="AP22">
-        <v>0.04496556452100402</v>
-      </c>
-      <c r="AQ22">
-        <v>0</v>
-      </c>
-      <c r="AR22">
-        <v>3.158507795910174</v>
-      </c>
-      <c r="AS22">
-        <v>34.17645195048879</v>
-      </c>
-      <c r="AT22">
-        <v>6.743111866777261</v>
-      </c>
-      <c r="AU22">
-        <v>11.706821652614</v>
-      </c>
-      <c r="AV22">
         <v>43.10096762118468</v>
       </c>
     </row>
-    <row r="23" spans="1:48">
+    <row r="23" spans="1:32">
       <c r="A23" s="1">
         <v>287541</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D23">
         <v>202110</v>
@@ -3762,10 +2658,10 @@
         <v>1069094068</v>
       </c>
       <c r="G23" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H23" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I23">
         <v>1117069000</v>
@@ -3774,7 +2670,7 @@
         <v>41.8939393939394</v>
       </c>
       <c r="K23" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L23">
         <v>48428924</v>
@@ -3786,117 +2682,69 @@
         <v>45430.51031894935</v>
       </c>
       <c r="O23">
-        <v>80.58701333112418</v>
+        <v>3.713839053702701</v>
       </c>
       <c r="P23">
-        <v>19.41298666887581</v>
+        <v>6.74093958478202</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>11.32377981307204</v>
       </c>
       <c r="R23">
-        <v>13.1916982049818</v>
+        <v>7.001267069241512</v>
       </c>
       <c r="S23">
-        <v>20.34445779798865</v>
+        <v>31.14271680370185</v>
       </c>
       <c r="T23">
-        <v>9.673080433502919</v>
+        <v>0.07523449085922289</v>
       </c>
       <c r="U23">
-        <v>14.04653778473377</v>
+        <v>2.753078812157792</v>
       </c>
       <c r="V23">
-        <v>27.19608031101414</v>
+        <v>16.22884484734784</v>
       </c>
       <c r="W23">
-        <v>15.54814546777872</v>
+        <v>6.409967097348683</v>
       </c>
       <c r="X23">
-        <v>41.15537436677305</v>
+        <v>14.6140628868814</v>
       </c>
       <c r="Y23">
-        <v>31.0739246323127</v>
+        <v>0.5015632723948193</v>
       </c>
       <c r="Z23">
-        <v>27.76697054181919</v>
+        <v>0.5148033551189367</v>
       </c>
       <c r="AA23">
         <v>0</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>17.98311503679082</v>
       </c>
       <c r="AC23">
-        <v>0</v>
+        <v>18.07910806855837</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>15.83311665813595</v>
       </c>
       <c r="AE23">
-        <v>3.713839053702701</v>
+        <v>9.488344584323203</v>
       </c>
       <c r="AF23">
-        <v>6.74093958478202</v>
-      </c>
-      <c r="AG23">
-        <v>11.32377981307204</v>
-      </c>
-      <c r="AH23">
-        <v>7.001267069241512</v>
-      </c>
-      <c r="AI23">
-        <v>31.14271680370185</v>
-      </c>
-      <c r="AJ23">
-        <v>0.07523449085922289</v>
-      </c>
-      <c r="AK23">
-        <v>2.753078812157792</v>
-      </c>
-      <c r="AL23">
-        <v>16.22884484734784</v>
-      </c>
-      <c r="AM23">
-        <v>6.409967097348683</v>
-      </c>
-      <c r="AN23">
-        <v>14.6140628868814</v>
-      </c>
-      <c r="AO23">
-        <v>0.5015632723948193</v>
-      </c>
-      <c r="AP23">
-        <v>0.5148033551189367</v>
-      </c>
-      <c r="AQ23">
-        <v>0</v>
-      </c>
-      <c r="AR23">
-        <v>17.98311503679082</v>
-      </c>
-      <c r="AS23">
-        <v>18.07910806855837</v>
-      </c>
-      <c r="AT23">
-        <v>15.83311665813595</v>
-      </c>
-      <c r="AU23">
-        <v>9.488344584323203</v>
-      </c>
-      <c r="AV23">
         <v>37.60367948377296</v>
       </c>
     </row>
-    <row r="24" spans="1:48">
+    <row r="24" spans="1:32">
       <c r="A24" s="1">
         <v>301556</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D24">
         <v>202111</v>
@@ -3908,10 +2756,10 @@
         <v>1069094068</v>
       </c>
       <c r="G24" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H24" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I24">
         <v>1117069000</v>
@@ -3920,7 +2768,7 @@
         <v>41.8939393939394</v>
       </c>
       <c r="K24" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L24">
         <v>31734471</v>
@@ -3932,117 +2780,69 @@
         <v>36602.61937716263</v>
       </c>
       <c r="O24">
-        <v>83.19779760784417</v>
+        <v>0.1425446039418776</v>
       </c>
       <c r="P24">
-        <v>16.80220239215583</v>
+        <v>9.621455117370635</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>5.507274056340817</v>
       </c>
       <c r="R24">
-        <v>23.92835917069486</v>
+        <v>14.52004825887912</v>
       </c>
       <c r="S24">
-        <v>19.04205469156867</v>
+        <v>16.02746416790751</v>
       </c>
       <c r="T24">
-        <v>9.854002645262309</v>
+        <v>0.9821790005574695</v>
       </c>
       <c r="U24">
-        <v>13.03941941776814</v>
+        <v>2.833179292952449</v>
       </c>
       <c r="V24">
-        <v>17.33396168255018</v>
+        <v>5.194632934640694</v>
       </c>
       <c r="W24">
-        <v>16.80220239215583</v>
+        <v>7.349994152100408</v>
       </c>
       <c r="X24">
-        <v>29.29663644338045</v>
+        <v>37.82345567474561</v>
       </c>
       <c r="Y24">
-        <v>45.07616262643862</v>
+        <v>0.917183386482163</v>
       </c>
       <c r="Z24">
-        <v>25.62720093018093</v>
+        <v>0</v>
       </c>
       <c r="AA24">
         <v>0</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>3.053544896336857</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>25.16615385458923</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>8.427322315219937</v>
       </c>
       <c r="AE24">
-        <v>0.1425446039418776</v>
+        <v>17.39645802761294</v>
       </c>
       <c r="AF24">
-        <v>9.621455117370635</v>
-      </c>
-      <c r="AG24">
-        <v>5.507274056340817</v>
-      </c>
-      <c r="AH24">
-        <v>14.52004825887912</v>
-      </c>
-      <c r="AI24">
-        <v>16.02746416790751</v>
-      </c>
-      <c r="AJ24">
-        <v>0.9821790005574695</v>
-      </c>
-      <c r="AK24">
-        <v>2.833179292952449</v>
-      </c>
-      <c r="AL24">
-        <v>5.194632934640694</v>
-      </c>
-      <c r="AM24">
-        <v>7.349994152100408</v>
-      </c>
-      <c r="AN24">
-        <v>37.82345567474561</v>
-      </c>
-      <c r="AO24">
-        <v>0.917183386482163</v>
-      </c>
-      <c r="AP24">
-        <v>0</v>
-      </c>
-      <c r="AQ24">
-        <v>0</v>
-      </c>
-      <c r="AR24">
-        <v>3.053544896336857</v>
-      </c>
-      <c r="AS24">
-        <v>25.16615385458923</v>
-      </c>
-      <c r="AT24">
-        <v>8.427322315219937</v>
-      </c>
-      <c r="AU24">
-        <v>17.39645802761294</v>
-      </c>
-      <c r="AV24">
         <v>45.04156477919546</v>
       </c>
     </row>
-    <row r="25" spans="1:48">
+    <row r="25" spans="1:32">
       <c r="A25" s="1">
         <v>315612</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D25">
         <v>202112</v>
@@ -4054,10 +2854,10 @@
         <v>1069094068</v>
       </c>
       <c r="G25" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H25" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I25">
         <v>1117069000</v>
@@ -4066,7 +2866,7 @@
         <v>41.8939393939394</v>
       </c>
       <c r="K25" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L25">
         <v>28495406</v>
@@ -4078,117 +2878,69 @@
         <v>31417.20617420066</v>
       </c>
       <c r="O25">
-        <v>87.33405456795387</v>
+        <v>1.314475073280233</v>
       </c>
       <c r="P25">
-        <v>12.66594543204613</v>
+        <v>9.658150117601414</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>6.527036267179348</v>
       </c>
       <c r="R25">
-        <v>9.089434648869364</v>
+        <v>10.9883707633434</v>
       </c>
       <c r="S25">
-        <v>20.12221648851046</v>
+        <v>31.30312149614573</v>
       </c>
       <c r="T25">
-        <v>25.18062147947638</v>
+        <v>1.217923308409784</v>
       </c>
       <c r="U25">
-        <v>18.04874130377367</v>
+        <v>2.384108467168357</v>
       </c>
       <c r="V25">
-        <v>14.90304064732399</v>
+        <v>13.58008589770575</v>
       </c>
       <c r="W25">
-        <v>12.66594543204613</v>
+        <v>9.685099372509379</v>
       </c>
       <c r="X25">
-        <v>29.77668257858828</v>
+        <v>13.34693240306876</v>
       </c>
       <c r="Y25">
-        <v>36.15295081529985</v>
+        <v>2.609189873272906</v>
       </c>
       <c r="Z25">
-        <v>34.07271502290579</v>
+        <v>1.650239726712439</v>
       </c>
       <c r="AA25">
         <v>0</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>6.823091726785712</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>27.49973220911469</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>8.65491859389545</v>
       </c>
       <c r="AE25">
-        <v>1.314475073280233</v>
+        <v>12.87335728853977</v>
       </c>
       <c r="AF25">
-        <v>9.658150117601414</v>
-      </c>
-      <c r="AG25">
-        <v>6.527036267179348</v>
-      </c>
-      <c r="AH25">
-        <v>10.9883707633434</v>
-      </c>
-      <c r="AI25">
-        <v>31.30312149614573</v>
-      </c>
-      <c r="AJ25">
-        <v>1.217923308409784</v>
-      </c>
-      <c r="AK25">
-        <v>2.384108467168357</v>
-      </c>
-      <c r="AL25">
-        <v>13.58008589770575</v>
-      </c>
-      <c r="AM25">
-        <v>9.685099372509379</v>
-      </c>
-      <c r="AN25">
-        <v>13.34693240306876</v>
-      </c>
-      <c r="AO25">
-        <v>2.609189873272906</v>
-      </c>
-      <c r="AP25">
-        <v>1.650239726712439</v>
-      </c>
-      <c r="AQ25">
-        <v>0</v>
-      </c>
-      <c r="AR25">
-        <v>6.823091726785712</v>
-      </c>
-      <c r="AS25">
-        <v>27.49973220911469</v>
-      </c>
-      <c r="AT25">
-        <v>8.65491859389545</v>
-      </c>
-      <c r="AU25">
-        <v>12.87335728853977</v>
-      </c>
-      <c r="AV25">
         <v>39.88181899847294</v>
       </c>
     </row>
-    <row r="26" spans="1:48">
+    <row r="26" spans="1:32">
       <c r="A26" s="1">
         <v>329670</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D26">
         <v>202201</v>
@@ -4200,10 +2952,10 @@
         <v>1069094068</v>
       </c>
       <c r="G26" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H26" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I26">
         <v>1117069000</v>
@@ -4212,7 +2964,7 @@
         <v>41.8939393939394</v>
       </c>
       <c r="K26" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L26">
         <v>21721915</v>
@@ -4224,117 +2976,69 @@
         <v>30594.24647887324</v>
       </c>
       <c r="O26">
-        <v>89.04552829941561</v>
+        <v>5.262501416196501</v>
       </c>
       <c r="P26">
-        <v>10.95447170058441</v>
+        <v>0.310141780317251</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>0.1546584898246771</v>
       </c>
       <c r="R26">
-        <v>19.28211995121056</v>
+        <v>7.411321031778276</v>
       </c>
       <c r="S26">
-        <v>22.57848542543325</v>
+        <v>28.36885225036559</v>
       </c>
       <c r="T26">
-        <v>8.052024312773527</v>
+        <v>8.313453357128044</v>
       </c>
       <c r="U26">
-        <v>16.06335545277661</v>
+        <v>5.752757962638193</v>
       </c>
       <c r="V26">
-        <v>23.07427253720494</v>
+        <v>6.344021611354248</v>
       </c>
       <c r="W26">
-        <v>10.95447170058441</v>
+        <v>8.52364014636831</v>
       </c>
       <c r="X26">
-        <v>38.00664341426619</v>
+        <v>29.55865195402891</v>
       </c>
       <c r="Y26">
-        <v>42.0672082696208</v>
+        <v>7.025914252035329</v>
       </c>
       <c r="Z26">
-        <v>19.92878362612136</v>
+        <v>1.723479238363653</v>
       </c>
       <c r="AA26">
         <v>0</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>10.82431754612795</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>21.54426691661394</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>15.44873073069294</v>
       </c>
       <c r="AE26">
-        <v>5.262501416196501</v>
+        <v>10.14663779367519</v>
       </c>
       <c r="AF26">
-        <v>0.310141780317251</v>
-      </c>
-      <c r="AG26">
-        <v>0.1546584898246771</v>
-      </c>
-      <c r="AH26">
-        <v>7.411321031778276</v>
-      </c>
-      <c r="AI26">
-        <v>28.36885225036559</v>
-      </c>
-      <c r="AJ26">
-        <v>8.313453357128044</v>
-      </c>
-      <c r="AK26">
-        <v>5.752757962638193</v>
-      </c>
-      <c r="AL26">
-        <v>6.344021611354248</v>
-      </c>
-      <c r="AM26">
-        <v>8.52364014636831</v>
-      </c>
-      <c r="AN26">
-        <v>29.55865195402891</v>
-      </c>
-      <c r="AO26">
-        <v>7.025914252035329</v>
-      </c>
-      <c r="AP26">
-        <v>1.723479238363653</v>
-      </c>
-      <c r="AQ26">
-        <v>0</v>
-      </c>
-      <c r="AR26">
-        <v>10.82431754612795</v>
-      </c>
-      <c r="AS26">
-        <v>21.54426691661394</v>
-      </c>
-      <c r="AT26">
-        <v>15.44873073069294</v>
-      </c>
-      <c r="AU26">
-        <v>10.14663779367519</v>
-      </c>
-      <c r="AV26">
         <v>33.28928883249935</v>
       </c>
     </row>
-    <row r="27" spans="1:48">
+    <row r="27" spans="1:32">
       <c r="A27" s="1">
         <v>343702</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D27">
         <v>202202</v>
@@ -4346,10 +3050,10 @@
         <v>1069094068</v>
       </c>
       <c r="G27" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H27" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I27">
         <v>1117069000</v>
@@ -4358,7 +3062,7 @@
         <v>41.8939393939394</v>
       </c>
       <c r="K27" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L27">
         <v>27695552</v>
@@ -4370,117 +3074,69 @@
         <v>38200.76137931034</v>
       </c>
       <c r="O27">
-        <v>80.89958420037991</v>
+        <v>0.6775442063765329</v>
       </c>
       <c r="P27">
-        <v>19.10041579962009</v>
+        <v>6.78098996257594</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>7.79649586547327</v>
       </c>
       <c r="R27">
-        <v>20.04718678508376</v>
+        <v>3.532681766371727</v>
       </c>
       <c r="S27">
-        <v>8.421349074392886</v>
+        <v>25.49598554164943</v>
       </c>
       <c r="T27">
-        <v>3.916069144243812</v>
+        <v>0</v>
       </c>
       <c r="U27">
-        <v>17.52745683350164</v>
+        <v>8.785606277137932</v>
       </c>
       <c r="V27">
-        <v>30.98752236315781</v>
+        <v>9.252811135159899</v>
       </c>
       <c r="W27">
-        <v>19.10041579962009</v>
+        <v>3.963141252429272</v>
       </c>
       <c r="X27">
-        <v>32.85677306522</v>
+        <v>33.72269476773743</v>
       </c>
       <c r="Y27">
-        <v>33.21312317949106</v>
+        <v>0.4531941699519114</v>
       </c>
       <c r="Z27">
-        <v>33.92805453020037</v>
+        <v>0.02868915123988141</v>
       </c>
       <c r="AA27">
         <v>0</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>4.477190555364269</v>
       </c>
       <c r="AC27">
-        <v>0</v>
+        <v>21.67582132827683</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>9.479584200379902</v>
       </c>
       <c r="AE27">
-        <v>0.6775442063765329</v>
+        <v>9.072284428922016</v>
       </c>
       <c r="AF27">
-        <v>6.78098996257594</v>
-      </c>
-      <c r="AG27">
-        <v>7.79649586547327</v>
-      </c>
-      <c r="AH27">
-        <v>3.532681766371727</v>
-      </c>
-      <c r="AI27">
-        <v>25.49598554164943</v>
-      </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
-      <c r="AK27">
-        <v>8.785606277137932</v>
-      </c>
-      <c r="AL27">
-        <v>9.252811135159899</v>
-      </c>
-      <c r="AM27">
-        <v>3.963141252429272</v>
-      </c>
-      <c r="AN27">
-        <v>33.72269476773743</v>
-      </c>
-      <c r="AO27">
-        <v>0.4531941699519114</v>
-      </c>
-      <c r="AP27">
-        <v>0.02868915123988141</v>
-      </c>
-      <c r="AQ27">
-        <v>0</v>
-      </c>
-      <c r="AR27">
-        <v>4.477190555364269</v>
-      </c>
-      <c r="AS27">
-        <v>21.67582132827683</v>
-      </c>
-      <c r="AT27">
-        <v>9.479584200379902</v>
-      </c>
-      <c r="AU27">
-        <v>9.072284428922016</v>
-      </c>
-      <c r="AV27">
         <v>54.80733461604231</v>
       </c>
     </row>
-    <row r="28" spans="1:48">
+    <row r="28" spans="1:32">
       <c r="A28" s="1">
         <v>357738</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D28">
         <v>202203</v>
@@ -4492,10 +3148,10 @@
         <v>1069094068</v>
       </c>
       <c r="G28" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H28" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I28">
         <v>1117069000</v>
@@ -4504,7 +3160,7 @@
         <v>41.8939393939394</v>
       </c>
       <c r="K28" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L28">
         <v>27582424</v>
@@ -4516,117 +3172,69 @@
         <v>30310.35604395604</v>
       </c>
       <c r="O28">
-        <v>89.43508355103236</v>
+        <v>6.260918601642844</v>
       </c>
       <c r="P28">
-        <v>10.56491644896765</v>
+        <v>4.550221446091903</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>6.137586012019828</v>
       </c>
       <c r="R28">
-        <v>12.9599456559728</v>
+        <v>11.01040338151571</v>
       </c>
       <c r="S28">
-        <v>23.61946141426874</v>
+        <v>16.91970399483381</v>
       </c>
       <c r="T28">
-        <v>12.2960906256825</v>
+        <v>0.1928600307210127</v>
       </c>
       <c r="U28">
-        <v>21.66037240309263</v>
+        <v>12.32775088295358</v>
       </c>
       <c r="V28">
-        <v>18.89256310612875</v>
+        <v>12.88399154621073</v>
       </c>
       <c r="W28">
-        <v>10.56491644896765</v>
+        <v>7.53719746386322</v>
       </c>
       <c r="X28">
-        <v>28.17429162136004</v>
+        <v>22.1860659483735</v>
       </c>
       <c r="Y28">
-        <v>44.23683858242482</v>
+        <v>5.126169254739902</v>
       </c>
       <c r="Z28">
-        <v>25.61922421539166</v>
+        <v>1.11434911594427</v>
       </c>
       <c r="AA28">
-        <v>1.97629592671043</v>
+        <v>0</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>1.811056956415434</v>
       </c>
       <c r="AC28">
-        <v>0</v>
+        <v>15.89016395150767</v>
       </c>
       <c r="AD28">
-        <v>0</v>
+        <v>10.55639385138884</v>
       </c>
       <c r="AE28">
-        <v>6.260918601642844</v>
+        <v>16.2631219069071</v>
       </c>
       <c r="AF28">
-        <v>4.550221446091903</v>
-      </c>
-      <c r="AG28">
-        <v>6.137586012019828</v>
-      </c>
-      <c r="AH28">
-        <v>11.01040338151571</v>
-      </c>
-      <c r="AI28">
-        <v>16.91970399483381</v>
-      </c>
-      <c r="AJ28">
-        <v>0.1928600307210127</v>
-      </c>
-      <c r="AK28">
-        <v>12.32775088295358</v>
-      </c>
-      <c r="AL28">
-        <v>12.88399154621073</v>
-      </c>
-      <c r="AM28">
-        <v>7.53719746386322</v>
-      </c>
-      <c r="AN28">
-        <v>22.1860659483735</v>
-      </c>
-      <c r="AO28">
-        <v>5.126169254739902</v>
-      </c>
-      <c r="AP28">
-        <v>1.11434911594427</v>
-      </c>
-      <c r="AQ28">
-        <v>0</v>
-      </c>
-      <c r="AR28">
-        <v>1.811056956415434</v>
-      </c>
-      <c r="AS28">
-        <v>15.89016395150767</v>
-      </c>
-      <c r="AT28">
-        <v>10.55639385138884</v>
-      </c>
-      <c r="AU28">
-        <v>16.2631219069071</v>
-      </c>
-      <c r="AV28">
         <v>49.24204565487065</v>
       </c>
     </row>
-    <row r="29" spans="1:48">
+    <row r="29" spans="1:32">
       <c r="A29" s="1">
         <v>371795</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D29">
         <v>202204</v>
@@ -4638,10 +3246,10 @@
         <v>1069094068</v>
       </c>
       <c r="G29" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H29" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I29">
         <v>1117069000</v>
@@ -4650,7 +3258,7 @@
         <v>41.8939393939394</v>
       </c>
       <c r="K29" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L29">
         <v>29631039</v>
@@ -4662,117 +3270,69 @@
         <v>29750.03915662651</v>
       </c>
       <c r="O29">
-        <v>85.91989502966804</v>
+        <v>5.264213979806783</v>
       </c>
       <c r="P29">
-        <v>14.08010497033196</v>
+        <v>3.532064698440038</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>3.822757103454928</v>
       </c>
       <c r="R29">
-        <v>19.13408397626556</v>
+        <v>12.61682856311586</v>
       </c>
       <c r="S29">
-        <v>25.95695230835477</v>
+        <v>28.15034387960543</v>
       </c>
       <c r="T29">
-        <v>16.45689740444134</v>
+        <v>4.139342821896998</v>
       </c>
       <c r="U29">
-        <v>9.79868099798998</v>
+        <v>7.099091396018885</v>
       </c>
       <c r="V29">
-        <v>14.57328034261641</v>
+        <v>11.37997335429244</v>
       </c>
       <c r="W29">
-        <v>14.08010497033196</v>
+        <v>8.453282665518412</v>
       </c>
       <c r="X29">
-        <v>37.33960605397604</v>
+        <v>15.54210153785022</v>
       </c>
       <c r="Y29">
-        <v>32.47822982515057</v>
+        <v>2.396769013398416</v>
       </c>
       <c r="Z29">
-        <v>30.18216412087338</v>
+        <v>0.7522934140108959</v>
       </c>
       <c r="AA29">
         <v>0</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>10.15969921810706</v>
       </c>
       <c r="AC29">
-        <v>0</v>
+        <v>27.49215786257107</v>
       </c>
       <c r="AD29">
-        <v>0</v>
+        <v>18.01577350358858</v>
       </c>
       <c r="AE29">
-        <v>5.264213979806783</v>
+        <v>12.28144042434691</v>
       </c>
       <c r="AF29">
-        <v>3.532064698440038</v>
-      </c>
-      <c r="AG29">
-        <v>3.822757103454928</v>
-      </c>
-      <c r="AH29">
-        <v>12.61682856311586</v>
-      </c>
-      <c r="AI29">
-        <v>28.15034387960543</v>
-      </c>
-      <c r="AJ29">
-        <v>4.139342821896998</v>
-      </c>
-      <c r="AK29">
-        <v>7.099091396018885</v>
-      </c>
-      <c r="AL29">
-        <v>11.37997335429244</v>
-      </c>
-      <c r="AM29">
-        <v>8.453282665518412</v>
-      </c>
-      <c r="AN29">
-        <v>15.54210153785022</v>
-      </c>
-      <c r="AO29">
-        <v>2.396769013398416</v>
-      </c>
-      <c r="AP29">
-        <v>0.7522934140108959</v>
-      </c>
-      <c r="AQ29">
-        <v>0</v>
-      </c>
-      <c r="AR29">
-        <v>10.15969921810706</v>
-      </c>
-      <c r="AS29">
-        <v>27.49215786257107</v>
-      </c>
-      <c r="AT29">
-        <v>18.01577350358858</v>
-      </c>
-      <c r="AU29">
-        <v>12.28144042434691</v>
-      </c>
-      <c r="AV29">
         <v>28.90809982160936</v>
       </c>
     </row>
-    <row r="30" spans="1:48">
+    <row r="30" spans="1:32">
       <c r="A30" s="1">
         <v>385900</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D30">
         <v>202205</v>
@@ -4784,10 +3344,10 @@
         <v>1069094068</v>
       </c>
       <c r="G30" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I30">
         <v>1117069000</v>
@@ -4796,7 +3356,7 @@
         <v>41.8939393939394</v>
       </c>
       <c r="K30" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L30">
         <v>34428016</v>
@@ -4808,105 +3368,57 @@
         <v>37381.12486427796</v>
       </c>
       <c r="O30">
-        <v>81.86516929468141</v>
+        <v>0.4101976460101564</v>
       </c>
       <c r="P30">
-        <v>18.1348307053186</v>
+        <v>4.345201273288591</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>3.098695684351954</v>
       </c>
       <c r="R30">
-        <v>17.17908298172047</v>
+        <v>10.69888607580524</v>
       </c>
       <c r="S30">
-        <v>19.79211014889734</v>
+        <v>42.52284625056523</v>
       </c>
       <c r="T30">
-        <v>9.571706122130301</v>
+        <v>0.4501344288907034</v>
       </c>
       <c r="U30">
-        <v>11.53228529114196</v>
+        <v>3.877762676768827</v>
       </c>
       <c r="V30">
-        <v>23.78998475079133</v>
+        <v>6.353524909480697</v>
       </c>
       <c r="W30">
-        <v>18.1348307053186</v>
+        <v>11.23381849131242</v>
       </c>
       <c r="X30">
-        <v>23.38200769861383</v>
+        <v>16.99991279892516</v>
       </c>
       <c r="Y30">
-        <v>52.20652305843008</v>
+        <v>5.453304019610075</v>
       </c>
       <c r="Z30">
-        <v>24.41512932142242</v>
+        <v>0.02196047079796872</v>
       </c>
       <c r="AA30">
         <v>0</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>3.947968317430781</v>
       </c>
       <c r="AC30">
-        <v>0</v>
+        <v>27.16596935356368</v>
       </c>
       <c r="AD30">
-        <v>0</v>
+        <v>14.93773943290836</v>
       </c>
       <c r="AE30">
-        <v>0.4101976460101564</v>
+        <v>10.622735065535</v>
       </c>
       <c r="AF30">
-        <v>4.345201273288591</v>
-      </c>
-      <c r="AG30">
-        <v>3.098695684351954</v>
-      </c>
-      <c r="AH30">
-        <v>10.69888607580524</v>
-      </c>
-      <c r="AI30">
-        <v>42.52284625056523</v>
-      </c>
-      <c r="AJ30">
-        <v>0.4501344288907034</v>
-      </c>
-      <c r="AK30">
-        <v>3.877762676768827</v>
-      </c>
-      <c r="AL30">
-        <v>6.353524909480697</v>
-      </c>
-      <c r="AM30">
-        <v>11.23381849131242</v>
-      </c>
-      <c r="AN30">
-        <v>16.99991279892516</v>
-      </c>
-      <c r="AO30">
-        <v>5.453304019610075</v>
-      </c>
-      <c r="AP30">
-        <v>0.02196047079796872</v>
-      </c>
-      <c r="AQ30">
-        <v>0</v>
-      </c>
-      <c r="AR30">
-        <v>3.947968317430781</v>
-      </c>
-      <c r="AS30">
-        <v>27.16596935356368</v>
-      </c>
-      <c r="AT30">
-        <v>14.93773943290836</v>
-      </c>
-      <c r="AU30">
-        <v>10.622735065535</v>
-      </c>
-      <c r="AV30">
         <v>37.85300318322147</v>
       </c>
     </row>
